--- a/src/1.xlsx
+++ b/src/1.xlsx
@@ -664,154 +664,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7.822269510561753</v>
+        <v>7.911506676323024</v>
       </c>
       <c r="C2">
-        <v>12.27407729784293</v>
+        <v>11.59314493057057</v>
       </c>
       <c r="D2">
-        <v>11.12045833333333</v>
+        <v>12.18718962146383</v>
       </c>
       <c r="E2">
-        <v>17.05375</v>
+        <v>18.37001516146941</v>
       </c>
       <c r="F2">
-        <v>11.97462500000001</v>
+        <v>13.14238925373785</v>
       </c>
       <c r="G2">
-        <v>9.834958237139965</v>
+        <v>8.977737207819485</v>
       </c>
       <c r="H2">
-        <v>8.308530982082161</v>
+        <v>8.921434788201791</v>
       </c>
       <c r="I2">
-        <v>6.548688541090112</v>
+        <v>6.399223497891484</v>
       </c>
       <c r="J2">
-        <v>11.94616666666666</v>
+        <v>12.9097888905218</v>
       </c>
       <c r="K2">
-        <v>7.004583333333337</v>
+        <v>7.501939737119612</v>
       </c>
       <c r="L2">
-        <v>8.417125000000002</v>
+        <v>9.127950248554606</v>
       </c>
       <c r="M2">
-        <v>5.618507405762557</v>
+        <v>6.113298786301564</v>
       </c>
       <c r="N2">
-        <v>8.040000000000004</v>
+        <v>10.28423450287193</v>
       </c>
       <c r="O2">
-        <v>10.70687499999999</v>
+        <v>11.61550811256005</v>
       </c>
       <c r="P2">
-        <v>12.68425000000001</v>
+        <v>13.52706149495413</v>
       </c>
       <c r="Q2">
-        <v>10.21216666666667</v>
+        <v>13.22519694900569</v>
       </c>
       <c r="R2">
-        <v>7.387999999999993</v>
+        <v>7.967628097381938</v>
       </c>
       <c r="S2">
-        <v>5.892833333333334</v>
+        <v>6.379300799247391</v>
       </c>
       <c r="T2">
-        <v>5.825500000000004</v>
+        <v>6.42140577362001</v>
       </c>
       <c r="U2">
-        <v>18.26179166666667</v>
+        <v>19.87518618130135</v>
       </c>
       <c r="V2">
-        <v>7.639125000000003</v>
+        <v>9.901571623508101</v>
       </c>
       <c r="W2">
-        <v>12.20570833333333</v>
+        <v>13.38851540321174</v>
       </c>
       <c r="X2">
-        <v>8.718583333333338</v>
+        <v>9.373848397478652</v>
       </c>
       <c r="Y2">
-        <v>5.60729166666666</v>
+        <v>6.939061691764397</v>
       </c>
       <c r="Z2">
-        <v>21.070375</v>
+        <v>22.77435035076933</v>
       </c>
       <c r="AA2">
-        <v>9.474083333333335</v>
+        <v>10.33739343549922</v>
       </c>
       <c r="AB2">
-        <v>11.04591666666667</v>
+        <v>11.97107109819289</v>
       </c>
       <c r="AC2">
-        <v>11.50258333333334</v>
+        <v>12.39261375014527</v>
       </c>
       <c r="AD2">
-        <v>15.60616666666667</v>
+        <v>17.04571198905463</v>
       </c>
       <c r="AE2">
-        <v>8.442374999999995</v>
+        <v>9.24117124218615</v>
       </c>
       <c r="AF2">
-        <v>8.607458333333335</v>
+        <v>9.608780420829367</v>
       </c>
       <c r="AG2">
-        <v>8.353749999999996</v>
+        <v>10.55617754058296</v>
       </c>
       <c r="AH2">
-        <v>5.675833333333335</v>
+        <v>6.168160555585206</v>
       </c>
       <c r="AI2">
-        <v>12.65737499999999</v>
+        <v>13.75757162045871</v>
       </c>
       <c r="AJ2">
-        <v>9.017750000000001</v>
+        <v>9.737167724801481</v>
       </c>
       <c r="AK2">
-        <v>9.185416666666663</v>
+        <v>9.852927724567675</v>
       </c>
       <c r="AL2">
-        <v>7.683708333333334</v>
+        <v>10.07481926027696</v>
       </c>
       <c r="AM2">
-        <v>8.616916666666667</v>
+        <v>9.370307476745406</v>
       </c>
       <c r="AN2">
-        <v>18.32725</v>
+        <v>19.96720735730606</v>
       </c>
       <c r="AO2">
-        <v>8.087666666666673</v>
+        <v>8.876487500082378</v>
       </c>
       <c r="AP2">
-        <v>10.59141666666666</v>
+        <v>11.68057791168239</v>
       </c>
       <c r="AQ2">
-        <v>17.846625</v>
+        <v>19.33188214881659</v>
       </c>
       <c r="AR2">
-        <v>5.142</v>
+        <v>5.566875472136021</v>
       </c>
       <c r="AS2">
-        <v>11.96020833333334</v>
+        <v>12.84435805754844</v>
       </c>
       <c r="AT2">
-        <v>8.64404166666667</v>
+        <v>9.378231454861936</v>
       </c>
       <c r="AU2">
-        <v>4.096760080464685</v>
+        <v>4.857774331092928</v>
       </c>
       <c r="AV2">
-        <v>7.256791666666668</v>
+        <v>7.860295294952181</v>
       </c>
       <c r="AW2">
-        <v>14.79095833333334</v>
+        <v>15.94797198397253</v>
       </c>
       <c r="AX2">
-        <v>8.036624999999999</v>
+        <v>8.841573533067507</v>
       </c>
       <c r="AY2">
-        <v>9.843083333333324</v>
+        <v>10.59887844661565</v>
       </c>
     </row>
     <row r="3" spans="1:51">
@@ -819,154 +819,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8.963693133706457</v>
+        <v>6.652552134580628</v>
       </c>
       <c r="C3">
-        <v>14.52602158449207</v>
+        <v>9.603725768672826</v>
       </c>
       <c r="D3">
-        <v>11.12045833333333</v>
+        <v>10.05415102088579</v>
       </c>
       <c r="E3">
-        <v>17.05375</v>
+        <v>15.13091586402705</v>
       </c>
       <c r="F3">
-        <v>11.97462500000001</v>
+        <v>10.88635619718875</v>
       </c>
       <c r="G3">
-        <v>10.1036940784439</v>
+        <v>7.552668503404302</v>
       </c>
       <c r="H3">
-        <v>9.794765125310382</v>
+        <v>10.75837612657581</v>
       </c>
       <c r="I3">
-        <v>6.548688541090112</v>
+        <v>5.399739285834616</v>
       </c>
       <c r="J3">
-        <v>11.94616666666666</v>
+        <v>10.68074259084767</v>
       </c>
       <c r="K3">
-        <v>7.004583333333337</v>
+        <v>6.468605775824068</v>
       </c>
       <c r="L3">
-        <v>8.417125000000002</v>
+        <v>7.541226126143955</v>
       </c>
       <c r="M3">
-        <v>6.074673946741293</v>
+        <v>5.57196717942413</v>
       </c>
       <c r="N3">
-        <v>8.040000000000004</v>
+        <v>10.16894120190308</v>
       </c>
       <c r="O3">
-        <v>10.70687499999999</v>
+        <v>9.594948324237309</v>
       </c>
       <c r="P3">
-        <v>12.68425000000001</v>
+        <v>11.12293435974449</v>
       </c>
       <c r="Q3">
-        <v>10.21216666666667</v>
+        <v>13.15927821248197</v>
       </c>
       <c r="R3">
-        <v>7.387999999999993</v>
+        <v>6.73061635585789</v>
       </c>
       <c r="S3">
-        <v>5.892833333333334</v>
+        <v>5.39708445697325</v>
       </c>
       <c r="T3">
-        <v>5.825500000000004</v>
+        <v>5.46877533247924</v>
       </c>
       <c r="U3">
-        <v>18.26179166666667</v>
+        <v>16.32306328957354</v>
       </c>
       <c r="V3">
-        <v>7.639125000000003</v>
+        <v>8.358827624542675</v>
       </c>
       <c r="W3">
-        <v>12.20570833333333</v>
+        <v>10.99949593367479</v>
       </c>
       <c r="X3">
-        <v>8.718583333333338</v>
+        <v>9.436993114094347</v>
       </c>
       <c r="Y3">
-        <v>5.60729166666666</v>
+        <v>6.873044666798013</v>
       </c>
       <c r="Z3">
-        <v>21.070375</v>
+        <v>18.69783824035119</v>
       </c>
       <c r="AA3">
-        <v>9.474083333333335</v>
+        <v>10.25127024439817</v>
       </c>
       <c r="AB3">
-        <v>11.04591666666667</v>
+        <v>9.921376362152149</v>
       </c>
       <c r="AC3">
-        <v>11.50258333333334</v>
+        <v>10.18774026097002</v>
       </c>
       <c r="AD3">
-        <v>15.60616666666667</v>
+        <v>14.5362088079581</v>
       </c>
       <c r="AE3">
-        <v>8.442374999999995</v>
+        <v>7.599563187836673</v>
       </c>
       <c r="AF3">
-        <v>8.607458333333335</v>
+        <v>7.902696644559958</v>
       </c>
       <c r="AG3">
-        <v>8.353749999999996</v>
+        <v>10.45542699568143</v>
       </c>
       <c r="AH3">
-        <v>5.675833333333335</v>
+        <v>5.282835246599267</v>
       </c>
       <c r="AI3">
-        <v>12.65737499999999</v>
+        <v>11.31322541670839</v>
       </c>
       <c r="AJ3">
-        <v>9.017750000000001</v>
+        <v>8.07910185356781</v>
       </c>
       <c r="AK3">
-        <v>9.185416666666663</v>
+        <v>8.240220973804735</v>
       </c>
       <c r="AL3">
-        <v>7.683708333333334</v>
+        <v>8.32589202525439</v>
       </c>
       <c r="AM3">
-        <v>8.616916666666667</v>
+        <v>9.241158195256517</v>
       </c>
       <c r="AN3">
-        <v>18.32725</v>
+        <v>16.41678507482594</v>
       </c>
       <c r="AO3">
-        <v>8.087666666666673</v>
+        <v>7.427339903688568</v>
       </c>
       <c r="AP3">
-        <v>10.59141666666666</v>
+        <v>9.670614752895206</v>
       </c>
       <c r="AQ3">
-        <v>17.846625</v>
+        <v>15.75163215313686</v>
       </c>
       <c r="AR3">
-        <v>5.142</v>
+        <v>4.788924709941933</v>
       </c>
       <c r="AS3">
-        <v>11.96020833333334</v>
+        <v>10.56576134413461</v>
       </c>
       <c r="AT3">
-        <v>8.64404166666667</v>
+        <v>11.12288766988842</v>
       </c>
       <c r="AU3">
-        <v>4.096760080464685</v>
+        <v>5.832138180402576</v>
       </c>
       <c r="AV3">
-        <v>7.256791666666668</v>
+        <v>6.767963167000222</v>
       </c>
       <c r="AW3">
-        <v>14.79095833333334</v>
+        <v>13.08755865650762</v>
       </c>
       <c r="AX3">
-        <v>8.036624999999999</v>
+        <v>7.29502712733077</v>
       </c>
       <c r="AY3">
-        <v>9.843083333333324</v>
+        <v>8.818776967871493</v>
       </c>
     </row>
     <row r="4" spans="1:51">
@@ -974,154 +974,154 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>8.371188857798971</v>
+        <v>5.55966367441791</v>
       </c>
       <c r="C4">
-        <v>15.11618225444763</v>
+        <v>11.506984406616</v>
       </c>
       <c r="D4">
-        <v>11.12045833333333</v>
+        <v>8.440666328210263</v>
       </c>
       <c r="E4">
-        <v>17.05375</v>
+        <v>12.49941539447439</v>
       </c>
       <c r="F4">
-        <v>11.97462500000001</v>
+        <v>8.908400711856768</v>
       </c>
       <c r="G4">
-        <v>10.31772714515186</v>
+        <v>6.441525773586568</v>
       </c>
       <c r="H4">
-        <v>9.794765125310382</v>
+        <v>10.77776757263655</v>
       </c>
       <c r="I4">
-        <v>7.16477417451306</v>
+        <v>5.02283697110258</v>
       </c>
       <c r="J4">
-        <v>11.94616666666666</v>
+        <v>9.135769981688371</v>
       </c>
       <c r="K4">
-        <v>7.004583333333337</v>
+        <v>5.577415182465459</v>
       </c>
       <c r="L4">
-        <v>8.417125000000002</v>
+        <v>6.414516725327258</v>
       </c>
       <c r="M4">
-        <v>6.603154435626798</v>
+        <v>4.716758564884986</v>
       </c>
       <c r="N4">
-        <v>8.040000000000004</v>
+        <v>12.28651278860454</v>
       </c>
       <c r="O4">
-        <v>10.70687499999999</v>
+        <v>8.004095373638329</v>
       </c>
       <c r="P4">
-        <v>12.68425000000001</v>
+        <v>9.2792693839243</v>
       </c>
       <c r="Q4">
-        <v>10.21216666666667</v>
+        <v>15.72932471816118</v>
       </c>
       <c r="R4">
-        <v>7.387999999999993</v>
+        <v>5.666878608940146</v>
       </c>
       <c r="S4">
-        <v>5.892833333333334</v>
+        <v>4.820048288105901</v>
       </c>
       <c r="T4">
-        <v>5.825500000000004</v>
+        <v>4.600392816958636</v>
       </c>
       <c r="U4">
-        <v>18.26179166666667</v>
+        <v>13.41458774830903</v>
       </c>
       <c r="V4">
-        <v>7.639125000000003</v>
+        <v>10.03078457073265</v>
       </c>
       <c r="W4">
-        <v>12.20570833333333</v>
+        <v>9.144654721423308</v>
       </c>
       <c r="X4">
-        <v>8.718583333333338</v>
+        <v>9.424847059347863</v>
       </c>
       <c r="Y4">
-        <v>5.60729166666666</v>
+        <v>6.845204496868019</v>
       </c>
       <c r="Z4">
-        <v>21.070375</v>
+        <v>15.37119753017538</v>
       </c>
       <c r="AA4">
-        <v>9.474083333333335</v>
+        <v>10.20730234330148</v>
       </c>
       <c r="AB4">
-        <v>11.04591666666667</v>
+        <v>8.249959668564998</v>
       </c>
       <c r="AC4">
-        <v>11.50258333333334</v>
+        <v>8.444230086636663</v>
       </c>
       <c r="AD4">
-        <v>15.60616666666667</v>
+        <v>11.88232151322358</v>
       </c>
       <c r="AE4">
-        <v>8.442374999999995</v>
+        <v>6.361479880229459</v>
       </c>
       <c r="AF4">
-        <v>8.607458333333335</v>
+        <v>6.616701910203212</v>
       </c>
       <c r="AG4">
-        <v>8.353749999999996</v>
+        <v>10.34959427606547</v>
       </c>
       <c r="AH4">
-        <v>5.675833333333335</v>
+        <v>4.751619684366909</v>
       </c>
       <c r="AI4">
-        <v>12.65737499999999</v>
+        <v>9.478492200714019</v>
       </c>
       <c r="AJ4">
-        <v>9.017750000000001</v>
+        <v>6.686018652770367</v>
       </c>
       <c r="AK4">
-        <v>9.185416666666663</v>
+        <v>6.899841921008385</v>
       </c>
       <c r="AL4">
-        <v>7.683708333333334</v>
+        <v>6.862956252345858</v>
       </c>
       <c r="AM4">
-        <v>8.616916666666667</v>
+        <v>7.689089524995047</v>
       </c>
       <c r="AN4">
-        <v>18.32725</v>
+        <v>13.53451671963914</v>
       </c>
       <c r="AO4">
-        <v>8.087666666666673</v>
+        <v>6.216977496622452</v>
       </c>
       <c r="AP4">
-        <v>10.59141666666666</v>
+        <v>9.579071666502381</v>
       </c>
       <c r="AQ4">
-        <v>17.846625</v>
+        <v>12.99449100271021</v>
       </c>
       <c r="AR4">
-        <v>5.142</v>
+        <v>4.114086487022373</v>
       </c>
       <c r="AS4">
-        <v>11.96020833333334</v>
+        <v>8.764705920482433</v>
       </c>
       <c r="AT4">
-        <v>8.64404166666667</v>
+        <v>12.72151799531952</v>
       </c>
       <c r="AU4">
-        <v>4.096760080464685</v>
+        <v>6.912354077156684</v>
       </c>
       <c r="AV4">
-        <v>7.256791666666668</v>
+        <v>5.6701981062292</v>
       </c>
       <c r="AW4">
-        <v>14.79095833333334</v>
+        <v>10.7254166482211</v>
       </c>
       <c r="AX4">
-        <v>8.036624999999999</v>
+        <v>6.05630077939843</v>
       </c>
       <c r="AY4">
-        <v>9.843083333333324</v>
+        <v>7.332259568656279</v>
       </c>
     </row>
     <row r="5" spans="1:51">
@@ -1129,154 +1129,154 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>8.454532090121047</v>
+        <v>4.652964600524424</v>
       </c>
       <c r="C5">
-        <v>16.0645170515137</v>
+        <v>9.459348238241992</v>
       </c>
       <c r="D5">
-        <v>11.12045833333333</v>
+        <v>7.150933206929456</v>
       </c>
       <c r="E5">
-        <v>17.05375</v>
+        <v>10.31412841974821</v>
       </c>
       <c r="F5">
-        <v>11.97462500000001</v>
+        <v>7.340201297020279</v>
       </c>
       <c r="G5">
-        <v>10.17764788870037</v>
+        <v>5.531197748416228</v>
       </c>
       <c r="H5">
-        <v>10.69365678680807</v>
+        <v>12.94423548048697</v>
       </c>
       <c r="I5">
-        <v>7.16477417451306</v>
+        <v>5.01891310428782</v>
       </c>
       <c r="J5">
-        <v>11.94616666666666</v>
+        <v>9.043762528358981</v>
       </c>
       <c r="K5">
-        <v>7.004583333333337</v>
+        <v>5.371258373539639</v>
       </c>
       <c r="L5">
-        <v>8.417125000000002</v>
+        <v>5.656812255913209</v>
       </c>
       <c r="M5">
-        <v>6.603154435626798</v>
+        <v>4.208464989454815</v>
       </c>
       <c r="N5">
-        <v>8.040000000000004</v>
+        <v>12.28099303407415</v>
       </c>
       <c r="O5">
-        <v>10.70687499999999</v>
+        <v>6.678283085420968</v>
       </c>
       <c r="P5">
-        <v>12.68425000000001</v>
+        <v>7.684870412582463</v>
       </c>
       <c r="Q5">
-        <v>10.21216666666667</v>
+        <v>15.59122282338508</v>
       </c>
       <c r="R5">
-        <v>7.387999999999993</v>
+        <v>4.949938981162688</v>
       </c>
       <c r="S5">
-        <v>5.892833333333334</v>
+        <v>4.420994052301443</v>
       </c>
       <c r="T5">
-        <v>5.825500000000004</v>
+        <v>4.000368923056692</v>
       </c>
       <c r="U5">
-        <v>18.26179166666667</v>
+        <v>11.14941705018581</v>
       </c>
       <c r="V5">
-        <v>7.639125000000003</v>
+        <v>8.517436663424281</v>
       </c>
       <c r="W5">
-        <v>12.20570833333333</v>
+        <v>7.515517041460735</v>
       </c>
       <c r="X5">
-        <v>8.718583333333338</v>
+        <v>7.806732651164744</v>
       </c>
       <c r="Y5">
-        <v>5.60729166666666</v>
+        <v>6.79531432356983</v>
       </c>
       <c r="Z5">
-        <v>21.070375</v>
+        <v>12.59806108913327</v>
       </c>
       <c r="AA5">
-        <v>9.474083333333335</v>
+        <v>8.609795254833731</v>
       </c>
       <c r="AB5">
-        <v>11.04591666666667</v>
+        <v>6.874266430124547</v>
       </c>
       <c r="AC5">
-        <v>11.50258333333334</v>
+        <v>6.969225517422574</v>
       </c>
       <c r="AD5">
-        <v>15.60616666666667</v>
+        <v>9.861522528322176</v>
       </c>
       <c r="AE5">
-        <v>8.442374999999995</v>
+        <v>5.316608544945209</v>
       </c>
       <c r="AF5">
-        <v>8.607458333333335</v>
+        <v>7.666053488513673</v>
       </c>
       <c r="AG5">
-        <v>8.353749999999996</v>
+        <v>10.55053780727107</v>
       </c>
       <c r="AH5">
-        <v>5.675833333333335</v>
+        <v>4.222748658368054</v>
       </c>
       <c r="AI5">
-        <v>12.65737499999999</v>
+        <v>9.470208975125395</v>
       </c>
       <c r="AJ5">
-        <v>9.017750000000001</v>
+        <v>5.723509906386694</v>
       </c>
       <c r="AK5">
-        <v>9.185416666666663</v>
+        <v>5.734547005559408</v>
       </c>
       <c r="AL5">
-        <v>7.683708333333334</v>
+        <v>6.885814008404505</v>
       </c>
       <c r="AM5">
-        <v>8.616916666666667</v>
+        <v>6.532041662541101</v>
       </c>
       <c r="AN5">
-        <v>18.32725</v>
+        <v>11.3123575369771</v>
       </c>
       <c r="AO5">
-        <v>8.087666666666673</v>
+        <v>6.121869440001428</v>
       </c>
       <c r="AP5">
-        <v>10.59141666666666</v>
+        <v>9.567796081105561</v>
       </c>
       <c r="AQ5">
-        <v>17.846625</v>
+        <v>10.78224989925937</v>
       </c>
       <c r="AR5">
-        <v>5.142</v>
+        <v>3.69440505410807</v>
       </c>
       <c r="AS5">
-        <v>11.96020833333334</v>
+        <v>7.29422455846063</v>
       </c>
       <c r="AT5">
-        <v>8.64404166666667</v>
+        <v>12.70649527197965</v>
       </c>
       <c r="AU5">
-        <v>4.110893348588394</v>
+        <v>8.326633152510382</v>
       </c>
       <c r="AV5">
-        <v>7.256791666666668</v>
+        <v>5.667707843408309</v>
       </c>
       <c r="AW5">
-        <v>14.79095833333334</v>
+        <v>10.65346408704669</v>
       </c>
       <c r="AX5">
-        <v>8.036624999999999</v>
+        <v>5.100034092844559</v>
       </c>
       <c r="AY5">
-        <v>9.843083333333324</v>
+        <v>6.131165513616508</v>
       </c>
     </row>
     <row r="6" spans="1:51">
@@ -1284,154 +1284,154 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>9.104898768805505</v>
+        <v>3.954089514693615</v>
       </c>
       <c r="C6">
-        <v>15.00251844879418</v>
+        <v>9.465348069010865</v>
       </c>
       <c r="D6">
-        <v>11.12045833333333</v>
+        <v>6.56953556358953</v>
       </c>
       <c r="E6">
-        <v>17.05375</v>
+        <v>8.476771969038069</v>
       </c>
       <c r="F6">
-        <v>11.97462500000001</v>
+        <v>6.126197798627662</v>
       </c>
       <c r="G6">
-        <v>10.59271713438002</v>
+        <v>4.705243632710149</v>
       </c>
       <c r="H6">
-        <v>10.79221718196364</v>
+        <v>12.82184824938943</v>
       </c>
       <c r="I6">
-        <v>6.843492507460143</v>
+        <v>5.303612565567598</v>
       </c>
       <c r="J6">
-        <v>11.94616666666666</v>
+        <v>9.075014712160835</v>
       </c>
       <c r="K6">
-        <v>7.004583333333337</v>
+        <v>5.501240823395674</v>
       </c>
       <c r="L6">
-        <v>8.417125000000002</v>
+        <v>4.877104771499443</v>
       </c>
       <c r="M6">
-        <v>6.603154435626798</v>
+        <v>4.230461506221936</v>
       </c>
       <c r="N6">
-        <v>8.040000000000004</v>
+        <v>14.70900207688416</v>
       </c>
       <c r="O6">
-        <v>10.70687499999999</v>
+        <v>5.549017913611045</v>
       </c>
       <c r="P6">
-        <v>12.68425000000001</v>
+        <v>7.716237016393858</v>
       </c>
       <c r="Q6">
-        <v>10.21216666666667</v>
+        <v>18.80768836820045</v>
       </c>
       <c r="R6">
-        <v>7.387999999999993</v>
+        <v>4.278480802040351</v>
       </c>
       <c r="S6">
-        <v>5.892833333333334</v>
+        <v>3.844031155919084</v>
       </c>
       <c r="T6">
-        <v>5.825500000000004</v>
+        <v>4.330620565829385</v>
       </c>
       <c r="U6">
-        <v>18.26179166666667</v>
+        <v>9.266485352606978</v>
       </c>
       <c r="V6">
-        <v>7.639125000000003</v>
+        <v>9.986954211423988</v>
       </c>
       <c r="W6">
-        <v>12.20570833333333</v>
+        <v>6.300945700018077</v>
       </c>
       <c r="X6">
-        <v>8.718583333333338</v>
+        <v>9.375258888782156</v>
       </c>
       <c r="Y6">
-        <v>5.60729166666666</v>
+        <v>8.161340539774901</v>
       </c>
       <c r="Z6">
-        <v>21.070375</v>
+        <v>10.43040945181803</v>
       </c>
       <c r="AA6">
-        <v>9.474083333333335</v>
+        <v>8.659936186685965</v>
       </c>
       <c r="AB6">
-        <v>11.04591666666667</v>
+        <v>5.680789410270534</v>
       </c>
       <c r="AC6">
-        <v>11.50258333333334</v>
+        <v>5.964929666559808</v>
       </c>
       <c r="AD6">
-        <v>15.60616666666667</v>
+        <v>9.874613358549206</v>
       </c>
       <c r="AE6">
-        <v>8.442374999999995</v>
+        <v>4.534869359487798</v>
       </c>
       <c r="AF6">
-        <v>8.607458333333335</v>
+        <v>7.613837971776443</v>
       </c>
       <c r="AG6">
-        <v>8.353749999999996</v>
+        <v>12.6787039645388</v>
       </c>
       <c r="AH6">
-        <v>5.675833333333335</v>
+        <v>4.281230093713075</v>
       </c>
       <c r="AI6">
-        <v>12.65737499999999</v>
+        <v>10.06832485939778</v>
       </c>
       <c r="AJ6">
-        <v>9.017750000000001</v>
+        <v>4.803685509634685</v>
       </c>
       <c r="AK6">
-        <v>9.185416666666663</v>
+        <v>5.734867660355021</v>
       </c>
       <c r="AL6">
-        <v>7.683708333333334</v>
+        <v>8.27810369215843</v>
       </c>
       <c r="AM6">
-        <v>8.616916666666667</v>
+        <v>6.480144672665194</v>
       </c>
       <c r="AN6">
-        <v>18.32725</v>
+        <v>11.35544419652093</v>
       </c>
       <c r="AO6">
-        <v>8.087666666666673</v>
+        <v>7.224849380946606</v>
       </c>
       <c r="AP6">
-        <v>10.59141666666666</v>
+        <v>11.38062299310801</v>
       </c>
       <c r="AQ6">
-        <v>17.846625</v>
+        <v>8.955282836268427</v>
       </c>
       <c r="AR6">
-        <v>5.142</v>
+        <v>3.254156969823406</v>
       </c>
       <c r="AS6">
-        <v>11.96020833333334</v>
+        <v>6.029346645508505</v>
       </c>
       <c r="AT6">
-        <v>8.64404166666667</v>
+        <v>15.16522362590435</v>
       </c>
       <c r="AU6">
-        <v>4.15591238308713</v>
+        <v>9.893257218605632</v>
       </c>
       <c r="AV6">
-        <v>7.256791666666668</v>
+        <v>4.772493082433322</v>
       </c>
       <c r="AW6">
-        <v>14.79095833333334</v>
+        <v>12.76628879934543</v>
       </c>
       <c r="AX6">
-        <v>8.036624999999999</v>
+        <v>4.27195984946949</v>
       </c>
       <c r="AY6">
-        <v>9.843083333333324</v>
+        <v>5.158072301915507</v>
       </c>
     </row>
     <row r="7" spans="1:51">
@@ -1439,154 +1439,154 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>8.478572031246877</v>
+        <v>4.05623491690345</v>
       </c>
       <c r="C7">
-        <v>16.40615094908392</v>
+        <v>9.365605420043048</v>
       </c>
       <c r="D7">
-        <v>11.12045833333333</v>
+        <v>6.667450939377164</v>
       </c>
       <c r="E7">
-        <v>17.05375</v>
+        <v>8.360220737079535</v>
       </c>
       <c r="F7">
-        <v>11.97462500000001</v>
+        <v>5.332516778855057</v>
       </c>
       <c r="G7">
-        <v>10.86099686605527</v>
+        <v>3.934610112418801</v>
       </c>
       <c r="H7">
-        <v>11.08379671175991</v>
+        <v>15.32622092607797</v>
       </c>
       <c r="I7">
-        <v>6.843492507460143</v>
+        <v>6.376999755705755</v>
       </c>
       <c r="J7">
-        <v>11.94616666666666</v>
+        <v>10.79017030557372</v>
       </c>
       <c r="K7">
-        <v>7.004583333333337</v>
+        <v>4.652780426147088</v>
       </c>
       <c r="L7">
-        <v>8.417125000000002</v>
+        <v>4.853903368322376</v>
       </c>
       <c r="M7">
-        <v>6.603154435626798</v>
+        <v>4.241483556649157</v>
       </c>
       <c r="N7">
-        <v>8.040000000000004</v>
+        <v>14.66894226278391</v>
       </c>
       <c r="O7">
-        <v>10.70687499999999</v>
+        <v>6.550582049926732</v>
       </c>
       <c r="P7">
-        <v>12.68425000000001</v>
+        <v>7.691578461647214</v>
       </c>
       <c r="Q7">
-        <v>10.21216666666667</v>
+        <v>18.85803980194876</v>
       </c>
       <c r="R7">
-        <v>7.387999999999993</v>
+        <v>3.608212006370691</v>
       </c>
       <c r="S7">
-        <v>5.892833333333334</v>
+        <v>3.714452425914923</v>
       </c>
       <c r="T7">
-        <v>5.825500000000004</v>
+        <v>3.595832201386778</v>
       </c>
       <c r="U7">
-        <v>18.26179166666667</v>
+        <v>7.807479167701207</v>
       </c>
       <c r="V7">
-        <v>7.639125000000003</v>
+        <v>12.06492992164454</v>
       </c>
       <c r="W7">
-        <v>12.20570833333333</v>
+        <v>5.371752957324378</v>
       </c>
       <c r="X7">
-        <v>8.718583333333338</v>
+        <v>11.1618000486972</v>
       </c>
       <c r="Y7">
-        <v>5.60729166666666</v>
+        <v>9.793100801320618</v>
       </c>
       <c r="Z7">
-        <v>21.070375</v>
+        <v>8.630350722570908</v>
       </c>
       <c r="AA7">
-        <v>9.474083333333335</v>
+        <v>10.38906123405326</v>
       </c>
       <c r="AB7">
-        <v>11.04591666666667</v>
+        <v>4.853657124426839</v>
       </c>
       <c r="AC7">
-        <v>11.50258333333334</v>
+        <v>5.050819510365877</v>
       </c>
       <c r="AD7">
-        <v>15.60616666666667</v>
+        <v>9.98768950318949</v>
       </c>
       <c r="AE7">
-        <v>8.442374999999995</v>
+        <v>3.93979111069568</v>
       </c>
       <c r="AF7">
-        <v>8.607458333333335</v>
+        <v>7.563426641523381</v>
       </c>
       <c r="AG7">
-        <v>8.353749999999996</v>
+        <v>12.61894939421654</v>
       </c>
       <c r="AH7">
-        <v>5.675833333333335</v>
+        <v>4.34868047876582</v>
       </c>
       <c r="AI7">
-        <v>12.65737499999999</v>
+        <v>10.16144697328578</v>
       </c>
       <c r="AJ7">
-        <v>9.017750000000001</v>
+        <v>4.065167462679721</v>
       </c>
       <c r="AK7">
-        <v>9.185416666666663</v>
+        <v>5.025590379348663</v>
       </c>
       <c r="AL7">
-        <v>7.683708333333334</v>
+        <v>9.956299259783593</v>
       </c>
       <c r="AM7">
-        <v>8.616916666666667</v>
+        <v>7.361040812399738</v>
       </c>
       <c r="AN7">
-        <v>18.32725</v>
+        <v>11.37547909501149</v>
       </c>
       <c r="AO7">
-        <v>8.087666666666673</v>
+        <v>8.099658640036184</v>
       </c>
       <c r="AP7">
-        <v>10.59141666666666</v>
+        <v>11.39086051027956</v>
       </c>
       <c r="AQ7">
-        <v>17.846625</v>
+        <v>7.323570819737341</v>
       </c>
       <c r="AR7">
-        <v>5.142</v>
+        <v>3.249506447172485</v>
       </c>
       <c r="AS7">
-        <v>11.96020833333334</v>
+        <v>5.367124546926163</v>
       </c>
       <c r="AT7">
-        <v>8.64404166666667</v>
+        <v>18.27321560505854</v>
       </c>
       <c r="AU7">
-        <v>4.15591238308713</v>
+        <v>11.93983152022089</v>
       </c>
       <c r="AV7">
-        <v>7.256791666666668</v>
+        <v>4.379593218637676</v>
       </c>
       <c r="AW7">
-        <v>14.79095833333334</v>
+        <v>15.32491011619302</v>
       </c>
       <c r="AX7">
-        <v>8.036624999999999</v>
+        <v>3.612729007929266</v>
       </c>
       <c r="AY7">
-        <v>9.843083333333324</v>
+        <v>4.477057207502424</v>
       </c>
     </row>
     <row r="8" spans="1:51">
@@ -1594,154 +1594,154 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>7.240942592049493</v>
+        <v>4.868187249512668</v>
       </c>
       <c r="C8">
-        <v>19.27130899590653</v>
+        <v>9.287413418404819</v>
       </c>
       <c r="D8">
-        <v>11.12045833333333</v>
+        <v>6.65078034130843</v>
       </c>
       <c r="E8">
-        <v>17.05375</v>
+        <v>7.08726631434076</v>
       </c>
       <c r="F8">
-        <v>11.97462500000001</v>
+        <v>4.479733201518114</v>
       </c>
       <c r="G8">
-        <v>10.86099686605527</v>
+        <v>3.533652221201383</v>
       </c>
       <c r="H8">
-        <v>11.08379671175991</v>
+        <v>18.50700316937579</v>
       </c>
       <c r="I8">
-        <v>6.817704382878719</v>
+        <v>6.523224834011718</v>
       </c>
       <c r="J8">
-        <v>11.94616666666666</v>
+        <v>13.01316440132826</v>
       </c>
       <c r="K8">
-        <v>7.004583333333337</v>
+        <v>5.50717199286688</v>
       </c>
       <c r="L8">
-        <v>8.417125000000002</v>
+        <v>4.111696216204537</v>
       </c>
       <c r="M8">
-        <v>7.091970176032699</v>
+        <v>4.973197699654255</v>
       </c>
       <c r="N8">
-        <v>8.040000000000004</v>
+        <v>17.61886190924887</v>
       </c>
       <c r="O8">
-        <v>10.70687499999999</v>
+        <v>6.537108097268214</v>
       </c>
       <c r="P8">
-        <v>12.68425000000001</v>
+        <v>6.585775993919007</v>
       </c>
       <c r="Q8">
-        <v>10.21216666666667</v>
+        <v>22.54420315205722</v>
       </c>
       <c r="R8">
-        <v>7.387999999999993</v>
+        <v>3.580223021313156</v>
       </c>
       <c r="S8">
-        <v>5.892833333333334</v>
+        <v>3.752748615817928</v>
       </c>
       <c r="T8">
-        <v>5.825500000000004</v>
+        <v>3.242997320595121</v>
       </c>
       <c r="U8">
-        <v>18.26179166666667</v>
+        <v>7.042581020178201</v>
       </c>
       <c r="V8">
-        <v>7.639125000000003</v>
+        <v>14.54448393303202</v>
       </c>
       <c r="W8">
-        <v>12.20570833333333</v>
+        <v>4.483914066206498</v>
       </c>
       <c r="X8">
-        <v>8.718583333333338</v>
+        <v>13.40909889699142</v>
       </c>
       <c r="Y8">
-        <v>5.60729166666666</v>
+        <v>11.73232076132456</v>
       </c>
       <c r="Z8">
-        <v>21.070375</v>
+        <v>7.195833017957842</v>
       </c>
       <c r="AA8">
-        <v>9.474083333333335</v>
+        <v>12.42984805492448</v>
       </c>
       <c r="AB8">
-        <v>11.04591666666667</v>
+        <v>4.04643434369722</v>
       </c>
       <c r="AC8">
-        <v>11.50258333333334</v>
+        <v>4.356594916928112</v>
       </c>
       <c r="AD8">
-        <v>15.60616666666667</v>
+        <v>10.12538381039876</v>
       </c>
       <c r="AE8">
-        <v>8.442374999999995</v>
+        <v>3.534750926177463</v>
       </c>
       <c r="AF8">
-        <v>8.607458333333335</v>
+        <v>9.04704998874036</v>
       </c>
       <c r="AG8">
-        <v>8.353749999999996</v>
+        <v>15.20315976412605</v>
       </c>
       <c r="AH8">
-        <v>5.675833333333335</v>
+        <v>4.529659338036358</v>
       </c>
       <c r="AI8">
-        <v>12.65737499999999</v>
+        <v>12.06024708710376</v>
       </c>
       <c r="AJ8">
-        <v>9.017750000000001</v>
+        <v>4.4811873487441</v>
       </c>
       <c r="AK8">
-        <v>9.185416666666663</v>
+        <v>4.947436409615755</v>
       </c>
       <c r="AL8">
-        <v>7.683708333333334</v>
+        <v>11.98901276934516</v>
       </c>
       <c r="AM8">
-        <v>8.616916666666667</v>
+        <v>7.281531038946884</v>
       </c>
       <c r="AN8">
-        <v>18.32725</v>
+        <v>9.460279708486256</v>
       </c>
       <c r="AO8">
-        <v>8.087666666666673</v>
+        <v>8.016772952270905</v>
       </c>
       <c r="AP8">
-        <v>10.59141666666666</v>
+        <v>13.71237562102711</v>
       </c>
       <c r="AQ8">
-        <v>17.846625</v>
+        <v>6.152206714885346</v>
       </c>
       <c r="AR8">
-        <v>5.142</v>
+        <v>2.908188789030386</v>
       </c>
       <c r="AS8">
-        <v>11.96020833333334</v>
+        <v>5.330359643661239</v>
       </c>
       <c r="AT8">
-        <v>8.64404166666667</v>
+        <v>21.87952293809597</v>
       </c>
       <c r="AU8">
-        <v>4.047802957159928</v>
+        <v>14.35556258281929</v>
       </c>
       <c r="AV8">
-        <v>7.256791666666668</v>
+        <v>5.151567870243347</v>
       </c>
       <c r="AW8">
-        <v>14.79095833333334</v>
+        <v>18.47440299236207</v>
       </c>
       <c r="AX8">
-        <v>8.036624999999999</v>
+        <v>3.134491637354351</v>
       </c>
       <c r="AY8">
-        <v>9.843083333333324</v>
+        <v>3.836275854178361</v>
       </c>
     </row>
     <row r="9" spans="1:51">
@@ -1749,154 +1749,154 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>7.650398149184818</v>
+        <v>5.803357515817439</v>
       </c>
       <c r="C9">
-        <v>24.80627295859113</v>
+        <v>11.17708989681421</v>
       </c>
       <c r="D9">
-        <v>11.12045833333333</v>
+        <v>7.799423588540699</v>
       </c>
       <c r="E9">
-        <v>17.05375</v>
+        <v>6.87708571936714</v>
       </c>
       <c r="F9">
-        <v>11.97462500000001</v>
+        <v>3.816187143316722</v>
       </c>
       <c r="G9">
-        <v>10.86099686605527</v>
+        <v>2.995380064414484</v>
       </c>
       <c r="H9">
-        <v>10.39649169242193</v>
+        <v>18.33020590850912</v>
       </c>
       <c r="I9">
-        <v>6.817704382878719</v>
+        <v>7.329574933359236</v>
       </c>
       <c r="J9">
-        <v>11.94616666666666</v>
+        <v>15.50675562552568</v>
       </c>
       <c r="K9">
-        <v>7.004583333333337</v>
+        <v>5.564691550269862</v>
       </c>
       <c r="L9">
-        <v>8.417125000000002</v>
+        <v>3.46562979067865</v>
       </c>
       <c r="M9">
-        <v>7.091970176032699</v>
+        <v>5.741510330847419</v>
       </c>
       <c r="N9">
-        <v>8.040000000000004</v>
+        <v>17.41349543913083</v>
       </c>
       <c r="O9">
-        <v>10.70687499999999</v>
+        <v>7.865559994291531</v>
       </c>
       <c r="P9">
-        <v>12.68425000000001</v>
+        <v>6.496223613455972</v>
       </c>
       <c r="Q9">
-        <v>10.21216666666667</v>
+        <v>23.38272830948836</v>
       </c>
       <c r="R9">
-        <v>7.387999999999993</v>
+        <v>3.167277177164265</v>
       </c>
       <c r="S9">
-        <v>5.892833333333334</v>
+        <v>4.306197079711729</v>
       </c>
       <c r="T9">
-        <v>5.825500000000004</v>
+        <v>3.367196550561538</v>
       </c>
       <c r="U9">
-        <v>18.26179166666667</v>
+        <v>6.057014631144862</v>
       </c>
       <c r="V9">
-        <v>7.639125000000003</v>
+        <v>14.34887184304131</v>
       </c>
       <c r="W9">
-        <v>12.20570833333333</v>
+        <v>3.930280362061497</v>
       </c>
       <c r="X9">
-        <v>8.718583333333338</v>
+        <v>16.02525509219721</v>
       </c>
       <c r="Y9">
-        <v>5.60729166666666</v>
+        <v>14.09428152457554</v>
       </c>
       <c r="Z9">
-        <v>21.070375</v>
+        <v>6.094613379506646</v>
       </c>
       <c r="AA9">
-        <v>9.474083333333335</v>
+        <v>12.25513408603542</v>
       </c>
       <c r="AB9">
-        <v>11.04591666666667</v>
+        <v>3.360135151850929</v>
       </c>
       <c r="AC9">
-        <v>11.50258333333334</v>
+        <v>3.85538185042824</v>
       </c>
       <c r="AD9">
-        <v>15.60616666666667</v>
+        <v>10.15776230732208</v>
       </c>
       <c r="AE9">
-        <v>8.442374999999995</v>
+        <v>3.034206709083744</v>
       </c>
       <c r="AF9">
-        <v>8.607458333333335</v>
+        <v>9.717713770206302</v>
       </c>
       <c r="AG9">
-        <v>8.353749999999996</v>
+        <v>18.3366032168586</v>
       </c>
       <c r="AH9">
-        <v>5.675833333333335</v>
+        <v>5.442433893753591</v>
       </c>
       <c r="AI9">
-        <v>12.65737499999999</v>
+        <v>14.43196517877802</v>
       </c>
       <c r="AJ9">
-        <v>9.017750000000001</v>
+        <v>4.480238828249098</v>
       </c>
       <c r="AK9">
-        <v>9.185416666666663</v>
+        <v>4.154579333768498</v>
       </c>
       <c r="AL9">
-        <v>7.683708333333334</v>
+        <v>14.46349406576438</v>
       </c>
       <c r="AM9">
-        <v>8.616916666666667</v>
+        <v>7.895664607562148</v>
       </c>
       <c r="AN9">
-        <v>18.32725</v>
+        <v>7.901597851253682</v>
       </c>
       <c r="AO9">
-        <v>8.087666666666673</v>
+        <v>9.63846661668512</v>
       </c>
       <c r="AP9">
-        <v>10.59141666666666</v>
+        <v>11.54556203913545</v>
       </c>
       <c r="AQ9">
-        <v>17.846625</v>
+        <v>6.352138295775784</v>
       </c>
       <c r="AR9">
-        <v>5.142</v>
+        <v>3.024956130328778</v>
       </c>
       <c r="AS9">
-        <v>11.96020833333334</v>
+        <v>6.247157117349418</v>
       </c>
       <c r="AT9">
-        <v>8.64404166666667</v>
+        <v>26.35200374515877</v>
       </c>
       <c r="AU9">
-        <v>4.047802957159928</v>
+        <v>14.28269840198325</v>
       </c>
       <c r="AV9">
-        <v>7.256791666666668</v>
+        <v>6.113925786239741</v>
       </c>
       <c r="AW9">
-        <v>14.79095833333334</v>
+        <v>18.30243807269496</v>
       </c>
       <c r="AX9">
-        <v>8.036624999999999</v>
+        <v>3.163006315388787</v>
       </c>
       <c r="AY9">
-        <v>9.843083333333324</v>
+        <v>3.849295519612619</v>
       </c>
     </row>
     <row r="10" spans="1:51">
@@ -1904,154 +1904,154 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>8.381625492440197</v>
+        <v>5.877375791776378</v>
       </c>
       <c r="C10">
-        <v>32.92952651683644</v>
+        <v>13.48196697455993</v>
       </c>
       <c r="D10">
-        <v>11.12045833333333</v>
+        <v>9.368124678673151</v>
       </c>
       <c r="E10">
-        <v>17.05375</v>
+        <v>8.238635449431106</v>
       </c>
       <c r="F10">
-        <v>11.97462500000001</v>
+        <v>3.208605206987984</v>
       </c>
       <c r="G10">
-        <v>11.69148090675525</v>
+        <v>2.702108717053293</v>
       </c>
       <c r="H10">
-        <v>10.39649169242193</v>
+        <v>21.81347607463669</v>
       </c>
       <c r="I10">
-        <v>6.817704382878719</v>
+        <v>8.770253887985904</v>
       </c>
       <c r="J10">
-        <v>11.94616666666666</v>
+        <v>18.66349617886297</v>
       </c>
       <c r="K10">
-        <v>7.004583333333337</v>
+        <v>6.693244852189236</v>
       </c>
       <c r="L10">
-        <v>8.417125000000002</v>
+        <v>3.549625952411013</v>
       </c>
       <c r="M10">
-        <v>7.591382752492198</v>
+        <v>6.851507799999948</v>
       </c>
       <c r="N10">
-        <v>8.040000000000004</v>
+        <v>20.97333918015996</v>
       </c>
       <c r="O10">
-        <v>10.70687499999999</v>
+        <v>9.466643463215515</v>
       </c>
       <c r="P10">
-        <v>12.68425000000001</v>
+        <v>7.810647146055934</v>
       </c>
       <c r="Q10">
-        <v>10.21216666666667</v>
+        <v>28.23162093357762</v>
       </c>
       <c r="R10">
-        <v>7.387999999999993</v>
+        <v>3.260718967853224</v>
       </c>
       <c r="S10">
-        <v>5.892833333333334</v>
+        <v>5.16355355257749</v>
       </c>
       <c r="T10">
-        <v>5.825500000000004</v>
+        <v>3.976838198350019</v>
       </c>
       <c r="U10">
-        <v>18.26179166666667</v>
+        <v>6.070299471219791</v>
       </c>
       <c r="V10">
-        <v>7.639125000000003</v>
+        <v>17.27651923558507</v>
       </c>
       <c r="W10">
-        <v>12.20570833333333</v>
+        <v>3.422838393782684</v>
       </c>
       <c r="X10">
-        <v>8.718583333333338</v>
+        <v>15.92271052651154</v>
       </c>
       <c r="Y10">
-        <v>5.60729166666666</v>
+        <v>17.02658883639981</v>
       </c>
       <c r="Z10">
-        <v>21.070375</v>
+        <v>5.073128741367025</v>
       </c>
       <c r="AA10">
-        <v>9.474083333333335</v>
+        <v>14.7911794951986</v>
       </c>
       <c r="AB10">
-        <v>11.04591666666667</v>
+        <v>2.968517300386395</v>
       </c>
       <c r="AC10">
-        <v>11.50258333333334</v>
+        <v>3.228279980710017</v>
       </c>
       <c r="AD10">
-        <v>15.60616666666667</v>
+        <v>10.19257028419162</v>
       </c>
       <c r="AE10">
-        <v>8.442374999999995</v>
+        <v>3.03722920410169</v>
       </c>
       <c r="AF10">
-        <v>8.607458333333335</v>
+        <v>9.79015608820241</v>
       </c>
       <c r="AG10">
-        <v>8.353749999999996</v>
+        <v>22.06455408497601</v>
       </c>
       <c r="AH10">
-        <v>5.675833333333335</v>
+        <v>6.373534182094621</v>
       </c>
       <c r="AI10">
-        <v>12.65737499999999</v>
+        <v>15.53283690551272</v>
       </c>
       <c r="AJ10">
-        <v>9.017750000000001</v>
+        <v>4.565132402571845</v>
       </c>
       <c r="AK10">
-        <v>9.185416666666663</v>
+        <v>4.407729562907008</v>
       </c>
       <c r="AL10">
-        <v>7.683708333333334</v>
+        <v>17.36639806983344</v>
       </c>
       <c r="AM10">
-        <v>8.616916666666667</v>
+        <v>9.403526003332191</v>
       </c>
       <c r="AN10">
-        <v>18.32725</v>
+        <v>9.540432069495113</v>
       </c>
       <c r="AO10">
-        <v>8.087666666666673</v>
+        <v>11.58648599138543</v>
       </c>
       <c r="AP10">
-        <v>10.59141666666666</v>
+        <v>13.86534242735215</v>
       </c>
       <c r="AQ10">
-        <v>17.846625</v>
+        <v>6.384602213419013</v>
       </c>
       <c r="AR10">
-        <v>5.142</v>
+        <v>3.354218938808518</v>
       </c>
       <c r="AS10">
-        <v>11.96020833333334</v>
+        <v>6.329893442383712</v>
       </c>
       <c r="AT10">
-        <v>8.64404166666667</v>
+        <v>31.82715739398365</v>
       </c>
       <c r="AU10">
-        <v>4.047802957159928</v>
+        <v>17.25775595105492</v>
       </c>
       <c r="AV10">
-        <v>7.256791666666668</v>
+        <v>7.363376350425862</v>
       </c>
       <c r="AW10">
-        <v>14.79095833333334</v>
+        <v>21.98995089626841</v>
       </c>
       <c r="AX10">
-        <v>8.036624999999999</v>
+        <v>2.800900162707618</v>
       </c>
       <c r="AY10">
-        <v>9.843083333333324</v>
+        <v>3.385768272478133</v>
       </c>
     </row>
     <row r="11" spans="1:51">
@@ -2059,154 +2059,154 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>8.884504330806068</v>
+        <v>7.028650188021168</v>
       </c>
       <c r="C11">
-        <v>26.0367117210933</v>
+        <v>13.36417888189699</v>
       </c>
       <c r="D11">
-        <v>11.12045833333333</v>
+        <v>9.269490120839027</v>
       </c>
       <c r="E11">
-        <v>17.05375</v>
+        <v>9.636655445187911</v>
       </c>
       <c r="F11">
-        <v>11.97462500000001</v>
+        <v>3.100443179908725</v>
       </c>
       <c r="G11">
-        <v>10.89794253970656</v>
+        <v>2.310924427505585</v>
       </c>
       <c r="H11">
-        <v>10.39649169242193</v>
+        <v>26.24071089564383</v>
       </c>
       <c r="I11">
-        <v>7.084542169837429</v>
+        <v>8.87533478720329</v>
       </c>
       <c r="J11">
-        <v>11.94616666666666</v>
+        <v>22.53078362901604</v>
       </c>
       <c r="K11">
-        <v>7.004583333333337</v>
+        <v>6.808128762741597</v>
       </c>
       <c r="L11">
-        <v>8.417125000000002</v>
+        <v>3.164937916481446</v>
       </c>
       <c r="M11">
-        <v>7.591382752492198</v>
+        <v>8.088970372310936</v>
       </c>
       <c r="N11">
-        <v>8.040000000000004</v>
+        <v>25.25517525921853</v>
       </c>
       <c r="O11">
-        <v>10.70687499999999</v>
+        <v>9.344155705943203</v>
       </c>
       <c r="P11">
-        <v>12.68425000000001</v>
+        <v>9.292567726348548</v>
       </c>
       <c r="Q11">
-        <v>10.21216666666667</v>
+        <v>34.06804047632961</v>
       </c>
       <c r="R11">
-        <v>7.387999999999993</v>
+        <v>3.760052434175787</v>
       </c>
       <c r="S11">
-        <v>5.892833333333334</v>
+        <v>5.264405528978048</v>
       </c>
       <c r="T11">
-        <v>5.825500000000004</v>
+        <v>4.107508878611218</v>
       </c>
       <c r="U11">
-        <v>18.26179166666667</v>
+        <v>5.289770302416876</v>
       </c>
       <c r="V11">
-        <v>7.639125000000003</v>
+        <v>20.88707432137581</v>
       </c>
       <c r="W11">
-        <v>12.20570833333333</v>
+        <v>3.169508916880279</v>
       </c>
       <c r="X11">
-        <v>8.718583333333338</v>
+        <v>19.1378329939732</v>
       </c>
       <c r="Y11">
-        <v>5.60729166666666</v>
+        <v>14.08282229489321</v>
       </c>
       <c r="Z11">
-        <v>21.070375</v>
+        <v>5.229364620721336</v>
       </c>
       <c r="AA11">
-        <v>9.474083333333335</v>
+        <v>17.88885931189131</v>
       </c>
       <c r="AB11">
-        <v>11.04591666666667</v>
+        <v>2.639146794064485</v>
       </c>
       <c r="AC11">
-        <v>11.50258333333334</v>
+        <v>2.860428102383037</v>
       </c>
       <c r="AD11">
-        <v>15.60616666666667</v>
+        <v>12.24364249969851</v>
       </c>
       <c r="AE11">
-        <v>8.442374999999995</v>
+        <v>2.93628095944178</v>
       </c>
       <c r="AF11">
-        <v>8.607458333333335</v>
+        <v>11.7619684295504</v>
       </c>
       <c r="AG11">
-        <v>8.353749999999996</v>
+        <v>26.60960005707289</v>
       </c>
       <c r="AH11">
-        <v>5.675833333333335</v>
+        <v>7.513553755443</v>
       </c>
       <c r="AI11">
-        <v>12.65737499999999</v>
+        <v>18.79259562335683</v>
       </c>
       <c r="AJ11">
-        <v>9.017750000000001</v>
+        <v>3.910533187338738</v>
       </c>
       <c r="AK11">
-        <v>9.185416666666663</v>
+        <v>4.423651434103222</v>
       </c>
       <c r="AL11">
-        <v>7.683708333333334</v>
+        <v>20.88478296759692</v>
       </c>
       <c r="AM11">
-        <v>8.616916666666667</v>
+        <v>11.2788300979779</v>
       </c>
       <c r="AN11">
-        <v>18.32725</v>
+        <v>9.453098881113267</v>
       </c>
       <c r="AO11">
-        <v>8.087666666666673</v>
+        <v>14.00836220641986</v>
       </c>
       <c r="AP11">
-        <v>10.59141666666666</v>
+        <v>16.6854129375736</v>
       </c>
       <c r="AQ11">
-        <v>17.846625</v>
+        <v>6.258674161995728</v>
       </c>
       <c r="AR11">
-        <v>5.142</v>
+        <v>3.536878791550565</v>
       </c>
       <c r="AS11">
-        <v>11.96020833333334</v>
+        <v>7.533203736603378</v>
       </c>
       <c r="AT11">
-        <v>8.64404166666667</v>
+        <v>31.58567267943446</v>
       </c>
       <c r="AU11">
-        <v>4.047802957159928</v>
+        <v>20.79038860938052</v>
       </c>
       <c r="AV11">
-        <v>7.256791666666668</v>
+        <v>7.943942715993806</v>
       </c>
       <c r="AW11">
-        <v>14.79095833333334</v>
+        <v>26.49442516308489</v>
       </c>
       <c r="AX11">
-        <v>8.036624999999999</v>
+        <v>2.802634947306519</v>
       </c>
       <c r="AY11">
-        <v>9.843083333333324</v>
+        <v>3.031979968761405</v>
       </c>
     </row>
     <row r="12" spans="1:51">
@@ -2214,154 +2214,154 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>9.693558143083825</v>
+        <v>7.245514621968925</v>
       </c>
       <c r="C12">
-        <v>36.81467051532542</v>
+        <v>13.3038650879336</v>
       </c>
       <c r="D12">
-        <v>11.12045833333333</v>
+        <v>11.02971733606925</v>
       </c>
       <c r="E12">
-        <v>17.05375</v>
+        <v>11.21010052013757</v>
       </c>
       <c r="F12">
-        <v>11.97462500000001</v>
+        <v>3.161680576400622</v>
       </c>
       <c r="G12">
-        <v>10.69413340314002</v>
+        <v>2.063415742677948</v>
       </c>
       <c r="H12">
-        <v>10.39649169242193</v>
+        <v>25.8986251768288</v>
       </c>
       <c r="I12">
-        <v>7.084542169837429</v>
+        <v>8.858603818551462</v>
       </c>
       <c r="J12">
-        <v>11.94616666666666</v>
+        <v>22.38616551377335</v>
       </c>
       <c r="K12">
-        <v>7.004583333333337</v>
+        <v>6.776356200081049</v>
       </c>
       <c r="L12">
-        <v>8.417125000000002</v>
+        <v>2.67625375414323</v>
       </c>
       <c r="M12">
-        <v>7.671916035886729</v>
+        <v>8.093843028196078</v>
       </c>
       <c r="N12">
-        <v>8.040000000000004</v>
+        <v>20.77183855634967</v>
       </c>
       <c r="O12">
-        <v>10.70687499999999</v>
+        <v>7.794155956683348</v>
       </c>
       <c r="P12">
-        <v>12.68425000000001</v>
+        <v>9.30361138264734</v>
       </c>
       <c r="Q12">
-        <v>10.21216666666667</v>
+        <v>27.72024113246307</v>
       </c>
       <c r="R12">
-        <v>7.387999999999993</v>
+        <v>3.78529422041258</v>
       </c>
       <c r="S12">
-        <v>5.892833333333334</v>
+        <v>6.204090630394938</v>
       </c>
       <c r="T12">
-        <v>5.825500000000004</v>
+        <v>4.903835270125102</v>
       </c>
       <c r="U12">
-        <v>18.26179166666667</v>
+        <v>5.266073130953687</v>
       </c>
       <c r="V12">
-        <v>7.639125000000003</v>
+        <v>20.61735539934095</v>
       </c>
       <c r="W12">
-        <v>12.20570833333333</v>
+        <v>3.083807976127865</v>
       </c>
       <c r="X12">
-        <v>8.718583333333338</v>
+        <v>19.0529087932334</v>
       </c>
       <c r="Y12">
-        <v>5.60729166666666</v>
+        <v>16.92125857949917</v>
       </c>
       <c r="Z12">
-        <v>21.070375</v>
+        <v>4.335710293893398</v>
       </c>
       <c r="AA12">
-        <v>9.474083333333335</v>
+        <v>17.76421106353721</v>
       </c>
       <c r="AB12">
-        <v>11.04591666666667</v>
+        <v>2.372104370350048</v>
       </c>
       <c r="AC12">
-        <v>11.50258333333334</v>
+        <v>2.54369680925556</v>
       </c>
       <c r="AD12">
-        <v>15.60616666666667</v>
+        <v>10.19374672616392</v>
       </c>
       <c r="AE12">
-        <v>8.442374999999995</v>
+        <v>2.930499208282908</v>
       </c>
       <c r="AF12">
-        <v>8.607458333333335</v>
+        <v>11.75796200835475</v>
       </c>
       <c r="AG12">
-        <v>8.353749999999996</v>
+        <v>26.43416878775114</v>
       </c>
       <c r="AH12">
-        <v>5.675833333333335</v>
+        <v>7.361124339136324</v>
       </c>
       <c r="AI12">
-        <v>12.65737499999999</v>
+        <v>22.61912833370413</v>
       </c>
       <c r="AJ12">
-        <v>9.017750000000001</v>
+        <v>3.912614493669891</v>
       </c>
       <c r="AK12">
-        <v>9.185416666666663</v>
+        <v>3.858880333202482</v>
       </c>
       <c r="AL12">
-        <v>7.683708333333334</v>
+        <v>25.21754555213064</v>
       </c>
       <c r="AM12">
-        <v>8.616916666666667</v>
+        <v>11.28257149912116</v>
       </c>
       <c r="AN12">
-        <v>18.32725</v>
+        <v>11.39917456204244</v>
       </c>
       <c r="AO12">
-        <v>8.087666666666673</v>
+        <v>16.77693040933626</v>
       </c>
       <c r="AP12">
-        <v>10.59141666666666</v>
+        <v>16.63835621634228</v>
       </c>
       <c r="AQ12">
-        <v>17.846625</v>
+        <v>6.340087298314317</v>
       </c>
       <c r="AR12">
-        <v>5.142</v>
+        <v>3.132144289612616</v>
       </c>
       <c r="AS12">
-        <v>11.96020833333334</v>
+        <v>7.511400941087736</v>
       </c>
       <c r="AT12">
-        <v>8.64404166666667</v>
+        <v>38.0748516422579</v>
       </c>
       <c r="AU12">
-        <v>4.047802957159928</v>
+        <v>20.62831600750386</v>
       </c>
       <c r="AV12">
-        <v>7.256791666666668</v>
+        <v>6.539831395182358</v>
       </c>
       <c r="AW12">
-        <v>14.79095833333334</v>
+        <v>26.21945914575912</v>
       </c>
       <c r="AX12">
-        <v>8.036624999999999</v>
+        <v>2.882977638603692</v>
       </c>
       <c r="AY12">
-        <v>9.843083333333324</v>
+        <v>2.948849944883437</v>
       </c>
     </row>
     <row r="13" spans="1:51">
@@ -2369,154 +2369,154 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>11.36109178285094</v>
+        <v>6.220663036725436</v>
       </c>
       <c r="C13">
-        <v>33.99348505434898</v>
+        <v>10.9108687219582</v>
       </c>
       <c r="D13">
-        <v>11.12045833333333</v>
+        <v>9.237205282891031</v>
       </c>
       <c r="E13">
-        <v>17.05375</v>
+        <v>9.337910866926885</v>
       </c>
       <c r="F13">
-        <v>11.97462500000001</v>
+        <v>2.786108885510902</v>
       </c>
       <c r="G13">
-        <v>10.69413340314002</v>
+        <v>1.987419098204433</v>
       </c>
       <c r="H13">
-        <v>10.27912644269014</v>
+        <v>25.75257381772041</v>
       </c>
       <c r="I13">
-        <v>7.084542169837429</v>
+        <v>8.856583585762131</v>
       </c>
       <c r="J13">
-        <v>11.94616666666666</v>
+        <v>22.37586449811924</v>
       </c>
       <c r="K13">
-        <v>7.004583333333337</v>
+        <v>5.804795335681798</v>
       </c>
       <c r="L13">
-        <v>8.417125000000002</v>
+        <v>2.742762295078127</v>
       </c>
       <c r="M13">
-        <v>7.671916035886729</v>
+        <v>8.135109013758749</v>
       </c>
       <c r="N13">
-        <v>8.040000000000004</v>
+        <v>20.696964038529</v>
       </c>
       <c r="O13">
-        <v>10.70687499999999</v>
+        <v>8.237637649514049</v>
       </c>
       <c r="P13">
-        <v>12.68425000000001</v>
+        <v>11.01404452020068</v>
       </c>
       <c r="Q13">
-        <v>10.21216666666667</v>
+        <v>27.51822769951649</v>
       </c>
       <c r="R13">
-        <v>7.387999999999993</v>
+        <v>3.390311406709075</v>
       </c>
       <c r="S13">
-        <v>5.892833333333334</v>
+        <v>6.19101580983456</v>
       </c>
       <c r="T13">
-        <v>5.825500000000004</v>
+        <v>4.155987486564317</v>
       </c>
       <c r="U13">
-        <v>18.26179166666667</v>
+        <v>4.513609568171728</v>
       </c>
       <c r="V13">
-        <v>7.639125000000003</v>
+        <v>20.38763334178161</v>
       </c>
       <c r="W13">
-        <v>12.20570833333333</v>
+        <v>2.644453062440696</v>
       </c>
       <c r="X13">
-        <v>8.718583333333338</v>
+        <v>18.85762314452701</v>
       </c>
       <c r="Y13">
-        <v>5.60729166666666</v>
+        <v>16.84380906330291</v>
       </c>
       <c r="Z13">
-        <v>21.070375</v>
+        <v>3.835028523731793</v>
       </c>
       <c r="AA13">
-        <v>9.474083333333335</v>
+        <v>17.74657330495549</v>
       </c>
       <c r="AB13">
-        <v>11.04591666666667</v>
+        <v>2.204224200977667</v>
       </c>
       <c r="AC13">
-        <v>11.50258333333334</v>
+        <v>2.299871896842972</v>
       </c>
       <c r="AD13">
-        <v>15.60616666666667</v>
+        <v>10.2699680580326</v>
       </c>
       <c r="AE13">
-        <v>8.442374999999995</v>
+        <v>2.625728284960138</v>
       </c>
       <c r="AF13">
-        <v>8.607458333333335</v>
+        <v>14.12894921407461</v>
       </c>
       <c r="AG13">
-        <v>8.353749999999996</v>
+        <v>21.66424955319561</v>
       </c>
       <c r="AH13">
-        <v>5.675833333333335</v>
+        <v>6.133067991897507</v>
       </c>
       <c r="AI13">
-        <v>12.65737499999999</v>
+        <v>22.48517755551854</v>
       </c>
       <c r="AJ13">
-        <v>9.017750000000001</v>
+        <v>3.331220220661059</v>
       </c>
       <c r="AK13">
-        <v>9.185416666666663</v>
+        <v>3.235829823021727</v>
       </c>
       <c r="AL13">
-        <v>7.683708333333334</v>
+        <v>25.03360441331088</v>
       </c>
       <c r="AM13">
-        <v>8.616916666666667</v>
+        <v>9.422552384987581</v>
       </c>
       <c r="AN13">
-        <v>18.32725</v>
+        <v>12.41064066237978</v>
       </c>
       <c r="AO13">
-        <v>8.087666666666673</v>
+        <v>13.81245686995632</v>
       </c>
       <c r="AP13">
-        <v>10.59141666666666</v>
+        <v>19.9067933518564</v>
       </c>
       <c r="AQ13">
-        <v>17.846625</v>
+        <v>6.567597413750872</v>
       </c>
       <c r="AR13">
-        <v>5.142</v>
+        <v>3.295215425695471</v>
       </c>
       <c r="AS13">
-        <v>11.96020833333334</v>
+        <v>6.289867234210171</v>
       </c>
       <c r="AT13">
-        <v>8.64404166666667</v>
+        <v>31.06058129077243</v>
       </c>
       <c r="AU13">
-        <v>4.047802957159928</v>
+        <v>20.6051187541291</v>
       </c>
       <c r="AV13">
-        <v>7.256791666666668</v>
+        <v>6.696816944662992</v>
       </c>
       <c r="AW13">
-        <v>14.79095833333334</v>
+        <v>26.01672504505314</v>
       </c>
       <c r="AX13">
-        <v>8.036624999999999</v>
+        <v>2.743172503440683</v>
       </c>
       <c r="AY13">
-        <v>9.843083333333324</v>
+        <v>2.721223007800631</v>
       </c>
     </row>
   </sheetData>

--- a/src/1.xlsx
+++ b/src/1.xlsx
@@ -424,34 +424,34 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8.599310742452829</v>
+        <v>5.729392545933201</v>
       </c>
       <c r="C2">
-        <v>11.76372749224316</v>
+        <v>8.11864055390908</v>
       </c>
       <c r="D2">
-        <v>13.21567139277345</v>
+        <v>8.230953962927554</v>
       </c>
       <c r="E2">
-        <v>19.77909416691207</v>
+        <v>14.25916010072761</v>
       </c>
       <c r="F2">
-        <v>11.55571116658887</v>
+        <v>9.109596679053441</v>
       </c>
       <c r="G2">
-        <v>7.531365983024242</v>
+        <v>6.109839599746202</v>
       </c>
       <c r="H2">
-        <v>10.02602099121512</v>
+        <v>5.808039497817693</v>
       </c>
       <c r="I2">
-        <v>7.076881832276305</v>
+        <v>4.628212088870381</v>
       </c>
       <c r="J2">
-        <v>14.888134506659</v>
+        <v>9.091799033629009</v>
       </c>
       <c r="K2">
-        <v>8.516651750863218</v>
+        <v>5.391396987883934</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -459,34 +459,34 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8.042492381918812</v>
+        <v>4.2460977178759</v>
       </c>
       <c r="C3">
-        <v>10.83934523783853</v>
+        <v>5.958698599814511</v>
       </c>
       <c r="D3">
-        <v>11.90552462745321</v>
+        <v>6.105053209083984</v>
       </c>
       <c r="E3">
-        <v>17.56853765307967</v>
+        <v>11.13184936607696</v>
       </c>
       <c r="F3">
-        <v>13.22815464340398</v>
+        <v>6.939842514958398</v>
       </c>
       <c r="G3">
-        <v>8.205849447454888</v>
+        <v>4.843889713853173</v>
       </c>
       <c r="H3">
-        <v>11.84789576642252</v>
+        <v>4.603900207670545</v>
       </c>
       <c r="I3">
-        <v>7.986164964855893</v>
+        <v>3.449818719526821</v>
       </c>
       <c r="J3">
-        <v>19.22710415904789</v>
+        <v>7.250178742120232</v>
       </c>
       <c r="K3">
-        <v>10.14689977352302</v>
+        <v>4.00949653302926</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -494,34 +494,34 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>8.837866878980835</v>
+        <v>3.180283083881409</v>
       </c>
       <c r="C4">
-        <v>13.82308019478731</v>
+        <v>4.506730703388549</v>
       </c>
       <c r="D4">
-        <v>11.03144503106263</v>
+        <v>4.706648421051718</v>
       </c>
       <c r="E4">
-        <v>13.22328656961812</v>
+        <v>8.181409225308069</v>
       </c>
       <c r="F4">
-        <v>14.09584168511175</v>
+        <v>5.213727023506406</v>
       </c>
       <c r="G4">
-        <v>9.905390030257022</v>
+        <v>3.698038453025489</v>
       </c>
       <c r="H4">
-        <v>14.73020626969368</v>
+        <v>3.385030644262868</v>
       </c>
       <c r="I4">
-        <v>10.22318337165548</v>
+        <v>2.719256857588719</v>
       </c>
       <c r="J4">
-        <v>24.98920075622571</v>
+        <v>5.500020434708316</v>
       </c>
       <c r="K4">
-        <v>11.89673357806267</v>
+        <v>3.199032267135841</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -529,34 +529,34 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>9.925657588574431</v>
+        <v>2.431462109395105</v>
       </c>
       <c r="C5">
-        <v>16.26113394431428</v>
+        <v>3.595089286979801</v>
       </c>
       <c r="D5">
-        <v>10.68118034709079</v>
+        <v>3.679165860985284</v>
       </c>
       <c r="E5">
-        <v>12.91544311992936</v>
+        <v>6.268798375550565</v>
       </c>
       <c r="F5">
-        <v>15.55485610097413</v>
+        <v>3.850888738597792</v>
       </c>
       <c r="G5">
-        <v>11.8496194624676</v>
+        <v>2.847752810938827</v>
       </c>
       <c r="H5">
-        <v>16.95282179110902</v>
+        <v>2.680717916379943</v>
       </c>
       <c r="I5">
-        <v>12.71846711998344</v>
+        <v>2.0731312856039</v>
       </c>
       <c r="J5">
-        <v>31.38510694336594</v>
+        <v>4.285494075840133</v>
       </c>
       <c r="K5">
-        <v>16.47592217238045</v>
+        <v>2.44156835511406</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -564,34 +564,34 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>10.31844518328796</v>
+        <v>1.769905714504185</v>
       </c>
       <c r="C6">
-        <v>18.2233866368919</v>
+        <v>2.846767178948114</v>
       </c>
       <c r="D6">
-        <v>10.40066478797289</v>
+        <v>2.902700504935394</v>
       </c>
       <c r="E6">
-        <v>12.84011421882848</v>
+        <v>4.690100958730115</v>
       </c>
       <c r="F6">
-        <v>14.59384605282705</v>
+        <v>3.119943655245525</v>
       </c>
       <c r="G6">
-        <v>13.6979590185152</v>
+        <v>2.21326582756393</v>
       </c>
       <c r="H6">
-        <v>22.80896334354323</v>
+        <v>1.839239038989304</v>
       </c>
       <c r="I6">
-        <v>16.2696641348715</v>
+        <v>1.670080958396543</v>
       </c>
       <c r="J6">
-        <v>41.89589957118577</v>
+        <v>3.10972109587288</v>
       </c>
       <c r="K6">
-        <v>19.8991659998604</v>
+        <v>1.881101240316711</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -599,34 +599,34 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>10.24812413362485</v>
+        <v>1.30160174851615</v>
       </c>
       <c r="C7">
-        <v>22.57951146721366</v>
+        <v>2.255140904503601</v>
       </c>
       <c r="D7">
-        <v>11.14907606560765</v>
+        <v>2.276278454049902</v>
       </c>
       <c r="E7">
-        <v>11.20887241130281</v>
+        <v>3.540625200492535</v>
       </c>
       <c r="F7">
-        <v>13.65509995265016</v>
+        <v>2.627540155531308</v>
       </c>
       <c r="G7">
-        <v>15.68284036934235</v>
+        <v>1.808998916935713</v>
       </c>
       <c r="H7">
-        <v>32.62761989302684</v>
+        <v>1.384364569565991</v>
       </c>
       <c r="I7">
-        <v>20.28212482821887</v>
+        <v>1.320031919360007</v>
       </c>
       <c r="J7">
-        <v>59.49828183021913</v>
+        <v>2.459671666249085</v>
       </c>
       <c r="K7">
-        <v>27.21414837119595</v>
+        <v>1.459436951245621</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -634,34 +634,34 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>10.19897692123309</v>
+        <v>0.986411064652144</v>
       </c>
       <c r="C8">
-        <v>30.46193971315962</v>
+        <v>1.988482703118105</v>
       </c>
       <c r="D8">
-        <v>10.78186967790638</v>
+        <v>1.734995166741024</v>
       </c>
       <c r="E8">
-        <v>11.61070719910407</v>
+        <v>2.781405976389656</v>
       </c>
       <c r="F8">
-        <v>13.99239311860257</v>
+        <v>2.038040186117416</v>
       </c>
       <c r="G8">
-        <v>19.27916179480546</v>
+        <v>1.341482383186289</v>
       </c>
       <c r="H8">
-        <v>43.34492927843039</v>
+        <v>1.080178544136605</v>
       </c>
       <c r="I8">
-        <v>27.8678422790884</v>
+        <v>1.074523874404554</v>
       </c>
       <c r="J8">
-        <v>83.62204942707935</v>
+        <v>2.084690722623976</v>
       </c>
       <c r="K8">
-        <v>34.74058988601782</v>
+        <v>1.166383751609472</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -669,34 +669,34 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>10.93021905220975</v>
+        <v>0.8294518818381365</v>
       </c>
       <c r="C9">
-        <v>30.18380059925279</v>
+        <v>1.459543183072903</v>
       </c>
       <c r="D9">
-        <v>10.45959725029678</v>
+        <v>1.342215643434535</v>
       </c>
       <c r="E9">
-        <v>12.03810595912437</v>
+        <v>2.299252204189015</v>
       </c>
       <c r="F9">
-        <v>17.32169000544375</v>
+        <v>1.716172441286899</v>
       </c>
       <c r="G9">
-        <v>25.17001342729073</v>
+        <v>1.077431046030124</v>
       </c>
       <c r="H9">
-        <v>59.26088360960966</v>
+        <v>0.9078496048342617</v>
       </c>
       <c r="I9">
-        <v>38.86474427769408</v>
+        <v>0.9279034468119324</v>
       </c>
       <c r="J9">
-        <v>118.7572642154894</v>
+        <v>1.64954063393342</v>
       </c>
       <c r="K9">
-        <v>47.96777554270361</v>
+        <v>1.00567221213983</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -704,34 +704,34 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>12.20541919147113</v>
+        <v>0.7529426370450443</v>
       </c>
       <c r="C10">
-        <v>29.63053342178579</v>
+        <v>1.095322837797968</v>
       </c>
       <c r="D10">
-        <v>11.86193032118434</v>
+        <v>1.177191136987487</v>
       </c>
       <c r="E10">
-        <v>16.08147356409562</v>
+        <v>1.81516547038888</v>
       </c>
       <c r="F10">
-        <v>20.12766422689272</v>
+        <v>1.198815464881551</v>
       </c>
       <c r="G10">
-        <v>33.66067743399839</v>
+        <v>0.7968132243532119</v>
       </c>
       <c r="H10">
-        <v>82.58841390898243</v>
+        <v>0.7307444915503259</v>
       </c>
       <c r="I10">
-        <v>55.17130525921883</v>
+        <v>0.7060153176365532</v>
       </c>
       <c r="J10">
-        <v>166.4980866349103</v>
+        <v>1.269851190764504</v>
       </c>
       <c r="K10">
-        <v>68.3684275498223</v>
+        <v>0.7319593343209968</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -739,34 +739,34 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>11.36062823994459</v>
+        <v>0.5962224417102889</v>
       </c>
       <c r="C11">
-        <v>28.93707030958835</v>
+        <v>0.8569010128156873</v>
       </c>
       <c r="D11">
-        <v>14.15029098391275</v>
+        <v>0.8639731010924205</v>
       </c>
       <c r="E11">
-        <v>20.56576063515839</v>
+        <v>1.41199522170044</v>
       </c>
       <c r="F11">
-        <v>24.75006981073438</v>
+        <v>0.9623718512085629</v>
       </c>
       <c r="G11">
-        <v>46.72475401416667</v>
+        <v>0.6043687577350596</v>
       </c>
       <c r="H11">
-        <v>116.7106868208521</v>
+        <v>0.5818081176453023</v>
       </c>
       <c r="I11">
-        <v>74.8022140446072</v>
+        <v>0.5244734785296741</v>
       </c>
       <c r="J11">
-        <v>239.0420680590217</v>
+        <v>0.9365580789156484</v>
       </c>
       <c r="K11">
-        <v>98.93407860788784</v>
+        <v>0.5224257097834926</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -774,34 +774,34 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>10.37484461940428</v>
+        <v>0.4579620453003744</v>
       </c>
       <c r="C12">
-        <v>26.45330478991437</v>
+        <v>0.7291594779518853</v>
       </c>
       <c r="D12">
-        <v>16.79435348349989</v>
+        <v>0.618767458859328</v>
       </c>
       <c r="E12">
-        <v>22.89957002259683</v>
+        <v>1.033988141720921</v>
       </c>
       <c r="F12">
-        <v>32.63703933296165</v>
+        <v>0.7092863325399502</v>
       </c>
       <c r="G12">
-        <v>65.03826400949394</v>
+        <v>0.4397546944216287</v>
       </c>
       <c r="H12">
-        <v>165.2418774418339</v>
+        <v>0.4397763807501177</v>
       </c>
       <c r="I12">
-        <v>106.8661040878832</v>
+        <v>0.4130220783133737</v>
       </c>
       <c r="J12">
-        <v>343.4744525483891</v>
+        <v>0.7546818510888139</v>
       </c>
       <c r="K12">
-        <v>143.4278562911867</v>
+        <v>0.3655639592528497</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -809,34 +809,34 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>11.65066058996988</v>
+        <v>0.3503568104853509</v>
       </c>
       <c r="C13">
-        <v>24.25650249745929</v>
+        <v>0.5260450722804177</v>
       </c>
       <c r="D13">
-        <v>21.4071105046414</v>
+        <v>0.4649822327525028</v>
       </c>
       <c r="E13">
-        <v>28.39524798329118</v>
+        <v>0.8418545725863609</v>
       </c>
       <c r="F13">
-        <v>45.93212871187045</v>
+        <v>0.5385816723681477</v>
       </c>
       <c r="G13">
-        <v>91.60722898146872</v>
+        <v>0.3376542501162529</v>
       </c>
       <c r="H13">
-        <v>234.0619118416636</v>
+        <v>0.3437286646569422</v>
       </c>
       <c r="I13">
-        <v>151.9276891925525</v>
+        <v>0.308654044319234</v>
       </c>
       <c r="J13">
-        <v>328.8966047078134</v>
+        <v>0.5619452374163119</v>
       </c>
       <c r="K13">
-        <v>143.6541460889732</v>
+        <v>0.2688485140474349</v>
       </c>
     </row>
   </sheetData>

--- a/src/1.xlsx
+++ b/src/1.xlsx
@@ -424,34 +424,34 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5.729392545933201</v>
+        <v>10.08341236289282</v>
       </c>
       <c r="C2">
-        <v>8.11864055390908</v>
+        <v>13.6382442598314</v>
       </c>
       <c r="D2">
-        <v>8.230953962927554</v>
+        <v>14.508772027665</v>
       </c>
       <c r="E2">
-        <v>14.25916010072761</v>
+        <v>22.97700240548448</v>
       </c>
       <c r="F2">
-        <v>9.109596679053441</v>
+        <v>13.85778693204091</v>
       </c>
       <c r="G2">
-        <v>6.109839599746202</v>
+        <v>11.56859505261748</v>
       </c>
       <c r="H2">
-        <v>5.808039497817693</v>
+        <v>9.825496712809324</v>
       </c>
       <c r="I2">
-        <v>4.628212088870381</v>
+        <v>7.274453801561199</v>
       </c>
       <c r="J2">
-        <v>9.091799033629009</v>
+        <v>14.74900471164797</v>
       </c>
       <c r="K2">
-        <v>5.391396987883934</v>
+        <v>9.652069489199814</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -459,34 +459,34 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4.2460977178759</v>
+        <v>12.89687812061928</v>
       </c>
       <c r="C3">
-        <v>5.958698599814511</v>
+        <v>18.96442399194867</v>
       </c>
       <c r="D3">
-        <v>6.105053209083984</v>
+        <v>17.3324411533339</v>
       </c>
       <c r="E3">
-        <v>11.13184936607696</v>
+        <v>32.7459584747255</v>
       </c>
       <c r="F3">
-        <v>6.939842514958398</v>
+        <v>17.44175491025174</v>
       </c>
       <c r="G3">
-        <v>4.843889713853173</v>
+        <v>15.46337573671202</v>
       </c>
       <c r="H3">
-        <v>4.603900207670545</v>
+        <v>13.26490838016032</v>
       </c>
       <c r="I3">
-        <v>3.449818719526821</v>
+        <v>10.12062240096572</v>
       </c>
       <c r="J3">
-        <v>7.250178742120232</v>
+        <v>18.05377301546977</v>
       </c>
       <c r="K3">
-        <v>4.00949653302926</v>
+        <v>12.74445859991161</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -494,34 +494,34 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3.180283083881409</v>
+        <v>18.14217793984998</v>
       </c>
       <c r="C4">
-        <v>4.506730703388549</v>
+        <v>23.47841694106631</v>
       </c>
       <c r="D4">
-        <v>4.706648421051718</v>
+        <v>21.63886877435336</v>
       </c>
       <c r="E4">
-        <v>8.181409225308069</v>
+        <v>42.42666559502826</v>
       </c>
       <c r="F4">
-        <v>5.213727023506406</v>
+        <v>24.65655023685182</v>
       </c>
       <c r="G4">
-        <v>3.698038453025489</v>
+        <v>21.50347283220175</v>
       </c>
       <c r="H4">
-        <v>3.385030644262868</v>
+        <v>17.7229805093204</v>
       </c>
       <c r="I4">
-        <v>2.719256857588719</v>
+        <v>13.2442141897848</v>
       </c>
       <c r="J4">
-        <v>5.500020434708316</v>
+        <v>23.86581842982914</v>
       </c>
       <c r="K4">
-        <v>3.199032267135841</v>
+        <v>17.2289060009276</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -529,34 +529,34 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.431462109395105</v>
+        <v>22.99340470316992</v>
       </c>
       <c r="C5">
-        <v>3.595089286979801</v>
+        <v>30.20194024505256</v>
       </c>
       <c r="D5">
-        <v>3.679165860985284</v>
+        <v>29.1278384003966</v>
       </c>
       <c r="E5">
-        <v>6.268798375550565</v>
+        <v>54.42420040996101</v>
       </c>
       <c r="F5">
-        <v>3.850888738597792</v>
+        <v>34.12799161655288</v>
       </c>
       <c r="G5">
-        <v>2.847752810938827</v>
+        <v>29.38152586573282</v>
       </c>
       <c r="H5">
-        <v>2.680717916379943</v>
+        <v>21.9831051446224</v>
       </c>
       <c r="I5">
-        <v>2.0731312856039</v>
+        <v>18.59125968132886</v>
       </c>
       <c r="J5">
-        <v>4.285494075840133</v>
+        <v>28.86954133881104</v>
       </c>
       <c r="K5">
-        <v>2.44156835511406</v>
+        <v>23.53884646460701</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -564,34 +564,34 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.769905714504185</v>
+        <v>31.42655281918248</v>
       </c>
       <c r="C6">
-        <v>2.846767178948114</v>
+        <v>40.14453242284377</v>
       </c>
       <c r="D6">
-        <v>2.902700504935394</v>
+        <v>38.82541558575991</v>
       </c>
       <c r="E6">
-        <v>4.690100958730115</v>
+        <v>67.31800754116783</v>
       </c>
       <c r="F6">
-        <v>3.119943655245525</v>
+        <v>47.81264162404727</v>
       </c>
       <c r="G6">
-        <v>2.21326582756393</v>
+        <v>39.97359439792879</v>
       </c>
       <c r="H6">
-        <v>1.839239038989304</v>
+        <v>27.70614201600069</v>
       </c>
       <c r="I6">
-        <v>1.670080958396543</v>
+        <v>24.16918408741982</v>
       </c>
       <c r="J6">
-        <v>3.10972109587288</v>
+        <v>38.3028665095133</v>
       </c>
       <c r="K6">
-        <v>1.881101240316711</v>
+        <v>32.16088946066644</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -599,34 +599,34 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1.30160174851615</v>
+        <v>42.49851701882046</v>
       </c>
       <c r="C7">
-        <v>2.255140904503601</v>
+        <v>48.82940824540764</v>
       </c>
       <c r="D7">
-        <v>2.276278454049902</v>
+        <v>53.00899683237366</v>
       </c>
       <c r="E7">
-        <v>3.540625200492535</v>
+        <v>82.69908350664879</v>
       </c>
       <c r="F7">
-        <v>2.627540155531308</v>
+        <v>62.26346258854386</v>
       </c>
       <c r="G7">
-        <v>1.808998916935713</v>
+        <v>50.01809599762138</v>
       </c>
       <c r="H7">
-        <v>1.384364569565991</v>
+        <v>33.39889359299053</v>
       </c>
       <c r="I7">
-        <v>1.320031919360007</v>
+        <v>29.98134418293181</v>
       </c>
       <c r="J7">
-        <v>2.459671666249085</v>
+        <v>50.46643952956444</v>
       </c>
       <c r="K7">
-        <v>1.459436951245621</v>
+        <v>44.34957752964807</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -634,34 +634,34 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.986411064652144</v>
+        <v>58.39251022849854</v>
       </c>
       <c r="C8">
-        <v>1.988482703118105</v>
+        <v>58.3346307359556</v>
       </c>
       <c r="D8">
-        <v>1.734995166741024</v>
+        <v>62.85374549002541</v>
       </c>
       <c r="E8">
-        <v>2.781405976389656</v>
+        <v>112.7435387808922</v>
       </c>
       <c r="F8">
-        <v>2.038040186117416</v>
+        <v>81.79326067659171</v>
       </c>
       <c r="G8">
-        <v>1.341482383186289</v>
+        <v>70.48164330166026</v>
       </c>
       <c r="H8">
-        <v>1.080178544136605</v>
+        <v>47.08888663868377</v>
       </c>
       <c r="I8">
-        <v>1.074523874404554</v>
+        <v>37.18048426343615</v>
       </c>
       <c r="J8">
-        <v>2.084690722623976</v>
+        <v>63.38230193518378</v>
       </c>
       <c r="K8">
-        <v>1.166383751609472</v>
+        <v>55.36024750274491</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -669,34 +669,34 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.8294518818381365</v>
+        <v>75.94397283775658</v>
       </c>
       <c r="C9">
-        <v>1.459543183072903</v>
+        <v>68.06246029371027</v>
       </c>
       <c r="D9">
-        <v>1.342215643434535</v>
+        <v>81.209938920138</v>
       </c>
       <c r="E9">
-        <v>2.299252204189015</v>
+        <v>141.9797571628844</v>
       </c>
       <c r="F9">
-        <v>1.716172441286899</v>
+        <v>98.5327643512281</v>
       </c>
       <c r="G9">
-        <v>1.077431046030124</v>
+        <v>92.59975528622454</v>
       </c>
       <c r="H9">
-        <v>0.9078496048342617</v>
+        <v>63.0703442949854</v>
       </c>
       <c r="I9">
-        <v>0.9279034468119324</v>
+        <v>48.12198961971045</v>
       </c>
       <c r="J9">
-        <v>1.64954063393342</v>
+        <v>84.17390934729042</v>
       </c>
       <c r="K9">
-        <v>1.00567221213983</v>
+        <v>70.42845058952754</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -704,34 +704,34 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.7529426370450443</v>
+        <v>102.7001237464875</v>
       </c>
       <c r="C10">
-        <v>1.095322837797968</v>
+        <v>90.84834764969546</v>
       </c>
       <c r="D10">
-        <v>1.177191136987487</v>
+        <v>107.8650420480464</v>
       </c>
       <c r="E10">
-        <v>1.81516547038888</v>
+        <v>165.4605801661843</v>
       </c>
       <c r="F10">
-        <v>1.198815464881551</v>
+        <v>133.9093305762954</v>
       </c>
       <c r="G10">
-        <v>0.7968132243532119</v>
+        <v>112.2479224228647</v>
       </c>
       <c r="H10">
-        <v>0.7307444915503259</v>
+        <v>81.50337774599923</v>
       </c>
       <c r="I10">
-        <v>0.7060153176365532</v>
+        <v>55.35298013411788</v>
       </c>
       <c r="J10">
-        <v>1.269851190764504</v>
+        <v>105.167367434605</v>
       </c>
       <c r="K10">
-        <v>0.7319593343209968</v>
+        <v>96.45542559445627</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -739,34 +739,34 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.5962224417102889</v>
+        <v>137.833260939591</v>
       </c>
       <c r="C11">
-        <v>0.8569010128156873</v>
+        <v>110.3283630201064</v>
       </c>
       <c r="D11">
-        <v>0.8639731010924205</v>
+        <v>140.3404244059077</v>
       </c>
       <c r="E11">
-        <v>1.41199522170044</v>
+        <v>203.7087187910828</v>
       </c>
       <c r="F11">
-        <v>0.9623718512085629</v>
+        <v>180.6145431707167</v>
       </c>
       <c r="G11">
-        <v>0.6043687577350596</v>
+        <v>148.6878714120627</v>
       </c>
       <c r="H11">
-        <v>0.5818081176453023</v>
+        <v>106.7294230203896</v>
       </c>
       <c r="I11">
-        <v>0.5244734785296741</v>
+        <v>74.79010522962372</v>
       </c>
       <c r="J11">
-        <v>0.9365580789156484</v>
+        <v>136.9321907026785</v>
       </c>
       <c r="K11">
-        <v>0.5224257097834926</v>
+        <v>124.7746713113127</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -774,34 +774,34 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.4579620453003744</v>
+        <v>174.9558348686356</v>
       </c>
       <c r="C12">
-        <v>0.7291594779518853</v>
+        <v>147.215035941977</v>
       </c>
       <c r="D12">
-        <v>0.618767458859328</v>
+        <v>185.4504876448144</v>
       </c>
       <c r="E12">
-        <v>1.033988141720921</v>
+        <v>247.3591219532753</v>
       </c>
       <c r="F12">
-        <v>0.7092863325399502</v>
+        <v>240.1159447617729</v>
       </c>
       <c r="G12">
-        <v>0.4397546944216287</v>
+        <v>180.2656158002338</v>
       </c>
       <c r="H12">
-        <v>0.4397763807501177</v>
+        <v>141.1825906953884</v>
       </c>
       <c r="I12">
-        <v>0.4130220783133737</v>
+        <v>97.53738389329646</v>
       </c>
       <c r="J12">
-        <v>0.7546818510888139</v>
+        <v>180.8622802162332</v>
       </c>
       <c r="K12">
-        <v>0.3655639592528497</v>
+        <v>164.8250567265719</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -809,34 +809,34 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.3503568104853509</v>
+        <v>232.3438272525081</v>
       </c>
       <c r="C13">
-        <v>0.5260450722804177</v>
+        <v>200.7737623586761</v>
       </c>
       <c r="D13">
-        <v>0.4649822327525028</v>
+        <v>263.1172871208045</v>
       </c>
       <c r="E13">
-        <v>0.8418545725863609</v>
+        <v>344.9474859912596</v>
       </c>
       <c r="F13">
-        <v>0.5385816723681477</v>
+        <v>311.8962770853794</v>
       </c>
       <c r="G13">
-        <v>0.3376542501162529</v>
+        <v>229.6511434389524</v>
       </c>
       <c r="H13">
-        <v>0.3437286646569422</v>
+        <v>182.4282959117473</v>
       </c>
       <c r="I13">
-        <v>0.308654044319234</v>
+        <v>130.6767948761554</v>
       </c>
       <c r="J13">
-        <v>0.5619452374163119</v>
+        <v>227.6240575304874</v>
       </c>
       <c r="K13">
-        <v>0.2688485140474349</v>
+        <v>224.7156472559841</v>
       </c>
     </row>
   </sheetData>

--- a/src/1.xlsx
+++ b/src/1.xlsx
@@ -424,34 +424,34 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10.08341236289282</v>
+        <v>7.094152561502123</v>
       </c>
       <c r="C2">
-        <v>13.6382442598314</v>
+        <v>9.911999341656195</v>
       </c>
       <c r="D2">
-        <v>14.508772027665</v>
+        <v>11.56710585356285</v>
       </c>
       <c r="E2">
-        <v>22.97700240548448</v>
+        <v>17.07220674380261</v>
       </c>
       <c r="F2">
-        <v>13.85778693204091</v>
+        <v>10.41169834117558</v>
       </c>
       <c r="G2">
-        <v>11.56859505261748</v>
+        <v>7.959357595872357</v>
       </c>
       <c r="H2">
-        <v>9.825496712809324</v>
+        <v>7.786060699738931</v>
       </c>
       <c r="I2">
-        <v>7.274453801561199</v>
+        <v>6.333591305037253</v>
       </c>
       <c r="J2">
-        <v>14.74900471164797</v>
+        <v>12.30967721353589</v>
       </c>
       <c r="K2">
-        <v>9.652069489199814</v>
+        <v>7.597078966217127</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -459,34 +459,34 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>12.89687812061928</v>
+        <v>8.865985765768077</v>
       </c>
       <c r="C3">
-        <v>18.96442399194867</v>
+        <v>11.13793040915452</v>
       </c>
       <c r="D3">
-        <v>17.3324411533339</v>
+        <v>11.1577690378013</v>
       </c>
       <c r="E3">
-        <v>32.7459584747255</v>
+        <v>18.08103265994127</v>
       </c>
       <c r="F3">
-        <v>17.44175491025174</v>
+        <v>12.9960543771907</v>
       </c>
       <c r="G3">
-        <v>15.46337573671202</v>
+        <v>8.313289764892792</v>
       </c>
       <c r="H3">
-        <v>13.26490838016032</v>
+        <v>7.809003913265139</v>
       </c>
       <c r="I3">
-        <v>10.12062240096572</v>
+        <v>5.293616436255943</v>
       </c>
       <c r="J3">
-        <v>18.05377301546977</v>
+        <v>12.67450401546419</v>
       </c>
       <c r="K3">
-        <v>12.74445859991161</v>
+        <v>8.080325716952698</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -494,34 +494,34 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>18.14217793984998</v>
+        <v>8.893593485869289</v>
       </c>
       <c r="C4">
-        <v>23.47841694106631</v>
+        <v>11.38393619057155</v>
       </c>
       <c r="D4">
-        <v>21.63886877435336</v>
+        <v>10.9936865582967</v>
       </c>
       <c r="E4">
-        <v>42.42666559502826</v>
+        <v>18.73314929394222</v>
       </c>
       <c r="F4">
-        <v>24.65655023685182</v>
+        <v>11.7911526622256</v>
       </c>
       <c r="G4">
-        <v>21.50347283220175</v>
+        <v>8.074056329412562</v>
       </c>
       <c r="H4">
-        <v>17.7229805093204</v>
+        <v>7.282496411749339</v>
       </c>
       <c r="I4">
-        <v>13.2442141897848</v>
+        <v>6.366266240327364</v>
       </c>
       <c r="J4">
-        <v>23.86581842982914</v>
+        <v>11.55217403716736</v>
       </c>
       <c r="K4">
-        <v>17.2289060009276</v>
+        <v>7.902102892233767</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -529,34 +529,34 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>22.99340470316992</v>
+        <v>8.669386258729118</v>
       </c>
       <c r="C5">
-        <v>30.20194024505256</v>
+        <v>9.428799382332249</v>
       </c>
       <c r="D5">
-        <v>29.1278384003966</v>
+        <v>9.997182974698832</v>
       </c>
       <c r="E5">
-        <v>54.42420040996101</v>
+        <v>20.39518248975909</v>
       </c>
       <c r="F5">
-        <v>34.12799161655288</v>
+        <v>10.77982220837312</v>
       </c>
       <c r="G5">
-        <v>29.38152586573282</v>
+        <v>8.290393068076213</v>
       </c>
       <c r="H5">
-        <v>21.9831051446224</v>
+        <v>7.821636193099091</v>
       </c>
       <c r="I5">
-        <v>18.59125968132886</v>
+        <v>6.505813388621433</v>
       </c>
       <c r="J5">
-        <v>28.86954133881104</v>
+        <v>12.08311083789727</v>
       </c>
       <c r="K5">
-        <v>23.53884646460701</v>
+        <v>7.792965143634635</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -564,34 +564,34 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>31.42655281918248</v>
+        <v>8.074905661539407</v>
       </c>
       <c r="C6">
-        <v>40.14453242284377</v>
+        <v>8.670743601608148</v>
       </c>
       <c r="D6">
-        <v>38.82541558575991</v>
+        <v>9.395335285342206</v>
       </c>
       <c r="E6">
-        <v>67.31800754116783</v>
+        <v>22.3552950741471</v>
       </c>
       <c r="F6">
-        <v>47.81264162404727</v>
+        <v>9.995489896009282</v>
       </c>
       <c r="G6">
-        <v>39.97359439792879</v>
+        <v>8.413226249666723</v>
       </c>
       <c r="H6">
-        <v>27.70614201600069</v>
+        <v>8.274710964973595</v>
       </c>
       <c r="I6">
-        <v>24.16918408741982</v>
+        <v>6.251665603016116</v>
       </c>
       <c r="J6">
-        <v>38.3028665095133</v>
+        <v>11.32821137277041</v>
       </c>
       <c r="K6">
-        <v>32.16088946066644</v>
+        <v>9.96190142328655</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -599,34 +599,34 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>42.49851701882046</v>
+        <v>9.079876522306494</v>
       </c>
       <c r="C7">
-        <v>48.82940824540764</v>
+        <v>7.710168730125948</v>
       </c>
       <c r="D7">
-        <v>53.00899683237366</v>
+        <v>11.20013722081821</v>
       </c>
       <c r="E7">
-        <v>82.69908350664879</v>
+        <v>23.9053601415757</v>
       </c>
       <c r="F7">
-        <v>62.26346258854386</v>
+        <v>8.659177185036597</v>
       </c>
       <c r="G7">
-        <v>50.01809599762138</v>
+        <v>7.897400963264809</v>
       </c>
       <c r="H7">
-        <v>33.39889359299053</v>
+        <v>7.287920106000716</v>
       </c>
       <c r="I7">
-        <v>29.98134418293181</v>
+        <v>6.261581613379224</v>
       </c>
       <c r="J7">
-        <v>50.46643952956444</v>
+        <v>10.13538743797463</v>
       </c>
       <c r="K7">
-        <v>44.34957752964807</v>
+        <v>10.80613728793972</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -634,34 +634,34 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>58.39251022849854</v>
+        <v>8.881872695526798</v>
       </c>
       <c r="C8">
-        <v>58.3346307359556</v>
+        <v>7.658158902659797</v>
       </c>
       <c r="D8">
-        <v>62.85374549002541</v>
+        <v>13.79609901589843</v>
       </c>
       <c r="E8">
-        <v>112.7435387808922</v>
+        <v>24.34622244552158</v>
       </c>
       <c r="F8">
-        <v>81.79326067659171</v>
+        <v>9.316548620293004</v>
       </c>
       <c r="G8">
-        <v>70.48164330166026</v>
+        <v>9.628269841449121</v>
       </c>
       <c r="H8">
-        <v>47.08888663868377</v>
+        <v>7.769676924113513</v>
       </c>
       <c r="I8">
-        <v>37.18048426343615</v>
+        <v>5.966251058741067</v>
       </c>
       <c r="J8">
-        <v>63.38230193518378</v>
+        <v>11.15431553058506</v>
       </c>
       <c r="K8">
-        <v>55.36024750274491</v>
+        <v>10.07680847826061</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -669,34 +669,34 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>75.94397283775658</v>
+        <v>9.237843142665483</v>
       </c>
       <c r="C9">
-        <v>68.06246029371027</v>
+        <v>6.974139142100713</v>
       </c>
       <c r="D9">
-        <v>81.209938920138</v>
+        <v>11.83738415152346</v>
       </c>
       <c r="E9">
-        <v>141.9797571628844</v>
+        <v>24.15951853126698</v>
       </c>
       <c r="F9">
-        <v>98.5327643512281</v>
+        <v>8.636627957002394</v>
       </c>
       <c r="G9">
-        <v>92.59975528622454</v>
+        <v>9.620362663750715</v>
       </c>
       <c r="H9">
-        <v>63.0703442949854</v>
+        <v>8.185839363049693</v>
       </c>
       <c r="I9">
-        <v>48.12198961971045</v>
+        <v>6.602659728577246</v>
       </c>
       <c r="J9">
-        <v>84.17390934729042</v>
+        <v>10.71155442796942</v>
       </c>
       <c r="K9">
-        <v>70.42845058952754</v>
+        <v>11.70608628194619</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -704,34 +704,34 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>102.7001237464875</v>
+        <v>9.103693788731958</v>
       </c>
       <c r="C10">
-        <v>90.84834764969546</v>
+        <v>7.291710506675059</v>
       </c>
       <c r="D10">
-        <v>107.8650420480464</v>
+        <v>9.771918745684083</v>
       </c>
       <c r="E10">
-        <v>165.4605801661843</v>
+        <v>23.2271049943618</v>
       </c>
       <c r="F10">
-        <v>133.9093305762954</v>
+        <v>9.101046981762218</v>
       </c>
       <c r="G10">
-        <v>112.2479224228647</v>
+        <v>9.869510465909425</v>
       </c>
       <c r="H10">
-        <v>81.50337774599923</v>
+        <v>8.489754635633885</v>
       </c>
       <c r="I10">
-        <v>55.35298013411788</v>
+        <v>6.812601285509637</v>
       </c>
       <c r="J10">
-        <v>105.167367434605</v>
+        <v>11.05946115314808</v>
       </c>
       <c r="K10">
-        <v>96.45542559445627</v>
+        <v>12.93909206465883</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -739,34 +739,34 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>137.833260939591</v>
+        <v>8.879132175481983</v>
       </c>
       <c r="C11">
-        <v>110.3283630201064</v>
+        <v>6.513012134302441</v>
       </c>
       <c r="D11">
-        <v>140.3404244059077</v>
+        <v>10.16819465250705</v>
       </c>
       <c r="E11">
-        <v>203.7087187910828</v>
+        <v>22.86874766094283</v>
       </c>
       <c r="F11">
-        <v>180.6145431707167</v>
+        <v>7.562767877563372</v>
       </c>
       <c r="G11">
-        <v>148.6878714120627</v>
+        <v>10.31159768461961</v>
       </c>
       <c r="H11">
-        <v>106.7294230203896</v>
+        <v>8.347629755113513</v>
       </c>
       <c r="I11">
-        <v>74.79010522962372</v>
+        <v>5.794252570808719</v>
       </c>
       <c r="J11">
-        <v>136.9321907026785</v>
+        <v>11.57577225590439</v>
       </c>
       <c r="K11">
-        <v>124.7746713113127</v>
+        <v>12.34794454931183</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -774,34 +774,34 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>174.9558348686356</v>
+        <v>8.498093398987203</v>
       </c>
       <c r="C12">
-        <v>147.215035941977</v>
+        <v>6.8800716123484</v>
       </c>
       <c r="D12">
-        <v>185.4504876448144</v>
+        <v>9.515609526669341</v>
       </c>
       <c r="E12">
-        <v>247.3591219532753</v>
+        <v>20.41766165395832</v>
       </c>
       <c r="F12">
-        <v>240.1159447617729</v>
+        <v>7.685859792329044</v>
       </c>
       <c r="G12">
-        <v>180.2656158002338</v>
+        <v>9.089417064600594</v>
       </c>
       <c r="H12">
-        <v>141.1825906953884</v>
+        <v>9.947124504207327</v>
       </c>
       <c r="I12">
-        <v>97.53738389329646</v>
+        <v>5.639173798704166</v>
       </c>
       <c r="J12">
-        <v>180.8622802162332</v>
+        <v>10.83351531544531</v>
       </c>
       <c r="K12">
-        <v>164.8250567265719</v>
+        <v>13.7503840331573</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -809,34 +809,34 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>232.3438272525081</v>
+        <v>9.533693256848521</v>
       </c>
       <c r="C13">
-        <v>200.7737623586761</v>
+        <v>5.90792237198713</v>
       </c>
       <c r="D13">
-        <v>263.1172871208045</v>
+        <v>8.942003006034779</v>
       </c>
       <c r="E13">
-        <v>344.9474859912596</v>
+        <v>20.08438011264609</v>
       </c>
       <c r="F13">
-        <v>311.8962770853794</v>
+        <v>6.959602799693635</v>
       </c>
       <c r="G13">
-        <v>229.6511434389524</v>
+        <v>8.545716002075997</v>
       </c>
       <c r="H13">
-        <v>182.4282959117473</v>
+        <v>11.4779261306917</v>
       </c>
       <c r="I13">
-        <v>130.6767948761554</v>
+        <v>5.951263921595654</v>
       </c>
       <c r="J13">
-        <v>227.6240575304874</v>
+        <v>11.81854471943235</v>
       </c>
       <c r="K13">
-        <v>224.7156472559841</v>
+        <v>15.13537558168974</v>
       </c>
     </row>
   </sheetData>

--- a/src/1.xlsx
+++ b/src/1.xlsx
@@ -424,34 +424,34 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7.094152561502123</v>
+        <v>10.56464268034338</v>
       </c>
       <c r="C2">
-        <v>9.911999341656195</v>
+        <v>15.51598062706717</v>
       </c>
       <c r="D2">
-        <v>11.56710585356285</v>
+        <v>16.11713926305234</v>
       </c>
       <c r="E2">
-        <v>17.07220674380261</v>
+        <v>24.81505936414141</v>
       </c>
       <c r="F2">
-        <v>10.41169834117558</v>
+        <v>17.14968127336463</v>
       </c>
       <c r="G2">
-        <v>7.959357595872357</v>
+        <v>11.94951027808964</v>
       </c>
       <c r="H2">
-        <v>7.786060699738931</v>
+        <v>10.64557258827483</v>
       </c>
       <c r="I2">
-        <v>6.333591305037253</v>
+        <v>8.074191854784567</v>
       </c>
       <c r="J2">
-        <v>12.30967721353589</v>
+        <v>17.31563636141279</v>
       </c>
       <c r="K2">
-        <v>7.597078966217127</v>
+        <v>10.00339816624817</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -459,34 +459,34 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8.865985765768077</v>
+        <v>12.83875625490076</v>
       </c>
       <c r="C3">
-        <v>11.13793040915452</v>
+        <v>19.98436723744624</v>
       </c>
       <c r="D3">
-        <v>11.1577690378013</v>
+        <v>21.05143977292528</v>
       </c>
       <c r="E3">
-        <v>18.08103265994127</v>
+        <v>32.69547045773475</v>
       </c>
       <c r="F3">
-        <v>12.9960543771907</v>
+        <v>24.73175165592147</v>
       </c>
       <c r="G3">
-        <v>8.313289764892792</v>
+        <v>16.96356813103054</v>
       </c>
       <c r="H3">
-        <v>7.809003913265139</v>
+        <v>14.65959365097521</v>
       </c>
       <c r="I3">
-        <v>5.293616436255943</v>
+        <v>11.48241944850034</v>
       </c>
       <c r="J3">
-        <v>12.67450401546419</v>
+        <v>24.20779658171561</v>
       </c>
       <c r="K3">
-        <v>8.080325716952698</v>
+        <v>14.36629023059746</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -494,34 +494,34 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>8.893593485869289</v>
+        <v>13.64219125658178</v>
       </c>
       <c r="C4">
-        <v>11.38393619057155</v>
+        <v>25.17551114915387</v>
       </c>
       <c r="D4">
-        <v>10.9936865582967</v>
+        <v>24.06610345794978</v>
       </c>
       <c r="E4">
-        <v>18.73314929394222</v>
+        <v>38.44251893883063</v>
       </c>
       <c r="F4">
-        <v>11.7911526622256</v>
+        <v>31.60413758020478</v>
       </c>
       <c r="G4">
-        <v>8.074056329412562</v>
+        <v>23.8249348207782</v>
       </c>
       <c r="H4">
-        <v>7.282496411749339</v>
+        <v>20.73480435965437</v>
       </c>
       <c r="I4">
-        <v>6.366266240327364</v>
+        <v>15.47522724232929</v>
       </c>
       <c r="J4">
-        <v>11.55217403716736</v>
+        <v>33.10561219946162</v>
       </c>
       <c r="K4">
-        <v>7.902102892233767</v>
+        <v>19.46339440297777</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -529,34 +529,34 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>8.669386258729118</v>
+        <v>15.56191063870047</v>
       </c>
       <c r="C5">
-        <v>9.428799382332249</v>
+        <v>31.09350245472526</v>
       </c>
       <c r="D5">
-        <v>9.997182974698832</v>
+        <v>33.10050640976636</v>
       </c>
       <c r="E5">
-        <v>20.39518248975909</v>
+        <v>45.65929249549237</v>
       </c>
       <c r="F5">
-        <v>10.77982220837312</v>
+        <v>39.21170494634715</v>
       </c>
       <c r="G5">
-        <v>8.290393068076213</v>
+        <v>32.22136300413181</v>
       </c>
       <c r="H5">
-        <v>7.821636193099091</v>
+        <v>28.20126962673262</v>
       </c>
       <c r="I5">
-        <v>6.505813388621433</v>
+        <v>20.99254156021169</v>
       </c>
       <c r="J5">
-        <v>12.08311083789727</v>
+        <v>44.5100577314019</v>
       </c>
       <c r="K5">
-        <v>7.792965143634635</v>
+        <v>24.40874032162673</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -564,34 +564,34 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>8.074905661539407</v>
+        <v>16.73816216472284</v>
       </c>
       <c r="C6">
-        <v>8.670743601608148</v>
+        <v>36.35648524846925</v>
       </c>
       <c r="D6">
-        <v>9.395335285342206</v>
+        <v>42.45593042835777</v>
       </c>
       <c r="E6">
-        <v>22.3552950741471</v>
+        <v>50.79539610727986</v>
       </c>
       <c r="F6">
-        <v>9.995489896009282</v>
+        <v>50.37323525346807</v>
       </c>
       <c r="G6">
-        <v>8.413226249666723</v>
+        <v>40.41955444318498</v>
       </c>
       <c r="H6">
-        <v>8.274710964973595</v>
+        <v>36.0659172674181</v>
       </c>
       <c r="I6">
-        <v>6.251665603016116</v>
+        <v>29.90159923316434</v>
       </c>
       <c r="J6">
-        <v>11.32821137277041</v>
+        <v>60.07480946476169</v>
       </c>
       <c r="K6">
-        <v>9.96190142328655</v>
+        <v>33.04172622613108</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -599,34 +599,34 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>9.079876522306494</v>
+        <v>18.06557400222994</v>
       </c>
       <c r="C7">
-        <v>7.710168730125948</v>
+        <v>41.66851292581214</v>
       </c>
       <c r="D7">
-        <v>11.20013722081821</v>
+        <v>49.05728587987629</v>
       </c>
       <c r="E7">
-        <v>23.9053601415757</v>
+        <v>51.86009269278879</v>
       </c>
       <c r="F7">
-        <v>8.659177185036597</v>
+        <v>56.81463687230687</v>
       </c>
       <c r="G7">
-        <v>7.897400963264809</v>
+        <v>50.00589915138047</v>
       </c>
       <c r="H7">
-        <v>7.287920106000716</v>
+        <v>43.62389495965318</v>
       </c>
       <c r="I7">
-        <v>6.261581613379224</v>
+        <v>38.98891018502921</v>
       </c>
       <c r="J7">
-        <v>10.13538743797463</v>
+        <v>71.84175899532227</v>
       </c>
       <c r="K7">
-        <v>10.80613728793972</v>
+        <v>42.06581211109138</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -634,34 +634,34 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>8.881872695526798</v>
+        <v>20.04527981421433</v>
       </c>
       <c r="C8">
-        <v>7.658158902659797</v>
+        <v>48.45356418209457</v>
       </c>
       <c r="D8">
-        <v>13.79609901589843</v>
+        <v>52.52126568788635</v>
       </c>
       <c r="E8">
-        <v>24.34622244552158</v>
+        <v>60.62178840118646</v>
       </c>
       <c r="F8">
-        <v>9.316548620293004</v>
+        <v>64.03048582717589</v>
       </c>
       <c r="G8">
-        <v>9.628269841449121</v>
+        <v>60.46743167555289</v>
       </c>
       <c r="H8">
-        <v>7.769676924113513</v>
+        <v>61.61543241339983</v>
       </c>
       <c r="I8">
-        <v>5.966251058741067</v>
+        <v>54.40980107965369</v>
       </c>
       <c r="J8">
-        <v>11.15431553058506</v>
+        <v>83.35511533130436</v>
       </c>
       <c r="K8">
-        <v>10.07680847826061</v>
+        <v>60.87917636471376</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -669,34 +669,34 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>9.237843142665483</v>
+        <v>21.09270986430836</v>
       </c>
       <c r="C9">
-        <v>6.974139142100713</v>
+        <v>57.12559140064964</v>
       </c>
       <c r="D9">
-        <v>11.83738415152346</v>
+        <v>57.15151527717514</v>
       </c>
       <c r="E9">
-        <v>24.15951853126698</v>
+        <v>67.88398560486986</v>
       </c>
       <c r="F9">
-        <v>8.636627957002394</v>
+        <v>68.03720721329391</v>
       </c>
       <c r="G9">
-        <v>9.620362663750715</v>
+        <v>66.45951902617627</v>
       </c>
       <c r="H9">
-        <v>8.185839363049693</v>
+        <v>79.34055579897039</v>
       </c>
       <c r="I9">
-        <v>6.602659728577246</v>
+        <v>74.91535465602658</v>
       </c>
       <c r="J9">
-        <v>10.71155442796942</v>
+        <v>94.38077516880891</v>
       </c>
       <c r="K9">
-        <v>11.70608628194619</v>
+        <v>86.36120876120071</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -704,34 +704,34 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>9.103693788731958</v>
+        <v>23.15867636968369</v>
       </c>
       <c r="C10">
-        <v>7.291710506675059</v>
+        <v>64.73649362956422</v>
       </c>
       <c r="D10">
-        <v>9.771918745684083</v>
+        <v>57.85406079936918</v>
       </c>
       <c r="E10">
-        <v>23.2271049943618</v>
+        <v>72.60777791498489</v>
       </c>
       <c r="F10">
-        <v>9.101046981762218</v>
+        <v>82.51875411312677</v>
       </c>
       <c r="G10">
-        <v>9.869510465909425</v>
+        <v>73.24784443443689</v>
       </c>
       <c r="H10">
-        <v>8.489754635633885</v>
+        <v>90.44710905442155</v>
       </c>
       <c r="I10">
-        <v>6.812601285509637</v>
+        <v>90.69367492492481</v>
       </c>
       <c r="J10">
-        <v>11.05946115314808</v>
+        <v>116.2677172910753</v>
       </c>
       <c r="K10">
-        <v>12.93909206465883</v>
+        <v>112.143854087144</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -739,34 +739,34 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>8.879132175481983</v>
+        <v>26.45457978013417</v>
       </c>
       <c r="C11">
-        <v>6.513012134302441</v>
+        <v>71.42915701820058</v>
       </c>
       <c r="D11">
-        <v>10.16819465250705</v>
+        <v>66.23093262871565</v>
       </c>
       <c r="E11">
-        <v>22.86874766094283</v>
+        <v>82.77563786138967</v>
       </c>
       <c r="F11">
-        <v>7.562767877563372</v>
+        <v>90.0503133969932</v>
       </c>
       <c r="G11">
-        <v>10.31159768461961</v>
+        <v>80.79092437012764</v>
       </c>
       <c r="H11">
-        <v>8.347629755113513</v>
+        <v>99.42970833767421</v>
       </c>
       <c r="I11">
-        <v>5.794252570808719</v>
+        <v>129.9820055448198</v>
       </c>
       <c r="J11">
-        <v>11.57577225590439</v>
+        <v>136.0761844739677</v>
       </c>
       <c r="K11">
-        <v>12.34794454931183</v>
+        <v>120.6738813914375</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -774,34 +774,34 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>8.498093398987203</v>
+        <v>29.19698842319909</v>
       </c>
       <c r="C12">
-        <v>6.8800716123484</v>
+        <v>73.89072116394748</v>
       </c>
       <c r="D12">
-        <v>9.515609526669341</v>
+        <v>72.6114405719407</v>
       </c>
       <c r="E12">
-        <v>20.41766165395832</v>
+        <v>92.37475480046416</v>
       </c>
       <c r="F12">
-        <v>7.685859792329044</v>
+        <v>93.8329624345436</v>
       </c>
       <c r="G12">
-        <v>9.089417064600594</v>
+        <v>105.0101985589848</v>
       </c>
       <c r="H12">
-        <v>9.947124504207327</v>
+        <v>106.0197876726496</v>
       </c>
       <c r="I12">
-        <v>5.639173798704166</v>
+        <v>146.8982886217061</v>
       </c>
       <c r="J12">
-        <v>10.83351531544531</v>
+        <v>160.1107082241236</v>
       </c>
       <c r="K12">
-        <v>13.7503840331573</v>
+        <v>136.7664168888726</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -809,34 +809,34 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>9.533693256848521</v>
+        <v>31.48646027259543</v>
       </c>
       <c r="C13">
-        <v>5.90792237198713</v>
+        <v>80.84351702964868</v>
       </c>
       <c r="D13">
-        <v>8.942003006034779</v>
+        <v>77.06604938527016</v>
       </c>
       <c r="E13">
-        <v>20.08438011264609</v>
+        <v>99.49308386678936</v>
       </c>
       <c r="F13">
-        <v>6.959602799693635</v>
+        <v>112.1770743452178</v>
       </c>
       <c r="G13">
-        <v>8.545716002075997</v>
+        <v>117.4498249460111</v>
       </c>
       <c r="H13">
-        <v>11.4779261306917</v>
+        <v>122.1181493842863</v>
       </c>
       <c r="I13">
-        <v>5.951263921595654</v>
+        <v>164.2093605077677</v>
       </c>
       <c r="J13">
-        <v>11.81854471943235</v>
+        <v>178.2651264607747</v>
       </c>
       <c r="K13">
-        <v>15.13537558168974</v>
+        <v>147.3886597749217</v>
       </c>
     </row>
   </sheetData>

--- a/src/1.xlsx
+++ b/src/1.xlsx
@@ -424,34 +424,34 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10.56464268034338</v>
+        <v>7.401014162387528</v>
       </c>
       <c r="C2">
-        <v>15.51598062706717</v>
+        <v>10.50166719720366</v>
       </c>
       <c r="D2">
-        <v>16.11713926305234</v>
+        <v>10.87951700403755</v>
       </c>
       <c r="E2">
-        <v>24.81505936414141</v>
+        <v>17.73760211348307</v>
       </c>
       <c r="F2">
-        <v>17.14968127336463</v>
+        <v>11.95317979020959</v>
       </c>
       <c r="G2">
-        <v>11.94951027808964</v>
+        <v>8.220469965328215</v>
       </c>
       <c r="H2">
-        <v>10.64557258827483</v>
+        <v>8.043931277398832</v>
       </c>
       <c r="I2">
-        <v>8.074191854784567</v>
+        <v>5.846363896252414</v>
       </c>
       <c r="J2">
-        <v>17.31563636141279</v>
+        <v>11.02287763335269</v>
       </c>
       <c r="K2">
-        <v>10.00339816624817</v>
+        <v>7.411442002835487</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -459,34 +459,34 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>12.83875625490076</v>
+        <v>7.363876035893161</v>
       </c>
       <c r="C3">
-        <v>19.98436723744624</v>
+        <v>10.2172905690303</v>
       </c>
       <c r="D3">
-        <v>21.05143977292528</v>
+        <v>10.85216400310916</v>
       </c>
       <c r="E3">
-        <v>32.69547045773475</v>
+        <v>17.63150406059704</v>
       </c>
       <c r="F3">
-        <v>24.73175165592147</v>
+        <v>11.70216596593138</v>
       </c>
       <c r="G3">
-        <v>16.96356813103054</v>
+        <v>7.871942987039258</v>
       </c>
       <c r="H3">
-        <v>14.65959365097521</v>
+        <v>7.507752023940139</v>
       </c>
       <c r="I3">
-        <v>11.48241944850034</v>
+        <v>6.34784204255394</v>
       </c>
       <c r="J3">
-        <v>24.20779658171561</v>
+        <v>10.66275188585397</v>
       </c>
       <c r="K3">
-        <v>14.36629023059746</v>
+        <v>6.690906591250984</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -494,34 +494,34 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>13.64219125658178</v>
+        <v>7.296348596665792</v>
       </c>
       <c r="C4">
-        <v>25.17551114915387</v>
+        <v>9.924269255578727</v>
       </c>
       <c r="D4">
-        <v>24.06610345794978</v>
+        <v>10.16551855454189</v>
       </c>
       <c r="E4">
-        <v>38.44251893883063</v>
+        <v>17.24070690945189</v>
       </c>
       <c r="F4">
-        <v>31.60413758020478</v>
+        <v>11.39935184083483</v>
       </c>
       <c r="G4">
-        <v>23.8249348207782</v>
+        <v>7.309481716525158</v>
       </c>
       <c r="H4">
-        <v>20.73480435965437</v>
+        <v>6.565020241006081</v>
       </c>
       <c r="I4">
-        <v>15.47522724232929</v>
+        <v>6.970416052900781</v>
       </c>
       <c r="J4">
-        <v>33.10561219946162</v>
+        <v>10.12230170211696</v>
       </c>
       <c r="K4">
-        <v>19.46339440297777</v>
+        <v>7.805774153545655</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -529,34 +529,34 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>15.56191063870047</v>
+        <v>7.26520993862469</v>
       </c>
       <c r="C5">
-        <v>31.09350245472526</v>
+        <v>10.03732289363841</v>
       </c>
       <c r="D5">
-        <v>33.10050640976636</v>
+        <v>9.989712183594628</v>
       </c>
       <c r="E5">
-        <v>45.65929249549237</v>
+        <v>16.93822938077097</v>
       </c>
       <c r="F5">
-        <v>39.21170494634715</v>
+        <v>12.28023928258303</v>
       </c>
       <c r="G5">
-        <v>32.22136300413181</v>
+        <v>7.363261710398083</v>
       </c>
       <c r="H5">
-        <v>28.20126962673262</v>
+        <v>7.732028083861559</v>
       </c>
       <c r="I5">
-        <v>20.99254156021169</v>
+        <v>7.093725304239562</v>
       </c>
       <c r="J5">
-        <v>44.5100577314019</v>
+        <v>9.846382745255081</v>
       </c>
       <c r="K5">
-        <v>24.40874032162673</v>
+        <v>7.614438913315465</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -564,34 +564,34 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>16.73816216472284</v>
+        <v>7.183516092913928</v>
       </c>
       <c r="C6">
-        <v>36.35648524846925</v>
+        <v>10.01064251202876</v>
       </c>
       <c r="D6">
-        <v>42.45593042835777</v>
+        <v>10.02507011706227</v>
       </c>
       <c r="E6">
-        <v>50.79539610727986</v>
+        <v>16.71619525569161</v>
       </c>
       <c r="F6">
-        <v>50.37323525346807</v>
+        <v>11.91419905770002</v>
       </c>
       <c r="G6">
-        <v>40.41955444318498</v>
+        <v>7.61791558010176</v>
       </c>
       <c r="H6">
-        <v>36.0659172674181</v>
+        <v>7.248982165740624</v>
       </c>
       <c r="I6">
-        <v>29.90159923316434</v>
+        <v>6.990896121333752</v>
       </c>
       <c r="J6">
-        <v>60.07480946476169</v>
+        <v>10.06517809777449</v>
       </c>
       <c r="K6">
-        <v>33.04172622613108</v>
+        <v>6.681859381595099</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -599,34 +599,34 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>18.06557400222994</v>
+        <v>7.14522391412939</v>
       </c>
       <c r="C7">
-        <v>41.66851292581214</v>
+        <v>10.31890844910356</v>
       </c>
       <c r="D7">
-        <v>49.05728587987629</v>
+        <v>10.50788610994858</v>
       </c>
       <c r="E7">
-        <v>51.86009269278879</v>
+        <v>17.30896248440376</v>
       </c>
       <c r="F7">
-        <v>56.81463687230687</v>
+        <v>11.9951055125313</v>
       </c>
       <c r="G7">
-        <v>50.00589915138047</v>
+        <v>8.550418281605259</v>
       </c>
       <c r="H7">
-        <v>43.62389495965318</v>
+        <v>8.054214499187641</v>
       </c>
       <c r="I7">
-        <v>38.98891018502921</v>
+        <v>6.643512715038245</v>
       </c>
       <c r="J7">
-        <v>71.84175899532227</v>
+        <v>10.68783785476855</v>
       </c>
       <c r="K7">
-        <v>42.06581211109138</v>
+        <v>6.548520357845657</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -634,34 +634,34 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>20.04527981421433</v>
+        <v>7.059166924426566</v>
       </c>
       <c r="C8">
-        <v>48.45356418209457</v>
+        <v>10.03030471682965</v>
       </c>
       <c r="D8">
-        <v>52.52126568788635</v>
+        <v>10.54047677359746</v>
       </c>
       <c r="E8">
-        <v>60.62178840118646</v>
+        <v>17.04749958223208</v>
       </c>
       <c r="F8">
-        <v>64.03048582717589</v>
+        <v>11.71070026752167</v>
       </c>
       <c r="G8">
-        <v>60.46743167555289</v>
+        <v>7.95442593782649</v>
       </c>
       <c r="H8">
-        <v>61.61543241339983</v>
+        <v>9.113932454898316</v>
       </c>
       <c r="I8">
-        <v>54.40980107965369</v>
+        <v>6.212794856851116</v>
       </c>
       <c r="J8">
-        <v>83.35511533130436</v>
+        <v>9.653178713699415</v>
       </c>
       <c r="K8">
-        <v>60.87917636471376</v>
+        <v>6.755569936383464</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -669,34 +669,34 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>21.09270986430836</v>
+        <v>7.155432616701304</v>
       </c>
       <c r="C9">
-        <v>57.12559140064964</v>
+        <v>9.828331337329764</v>
       </c>
       <c r="D9">
-        <v>57.15151527717514</v>
+        <v>10.48577778845928</v>
       </c>
       <c r="E9">
-        <v>67.88398560486986</v>
+        <v>16.77329447457058</v>
       </c>
       <c r="F9">
-        <v>68.03720721329391</v>
+        <v>11.95709413424438</v>
       </c>
       <c r="G9">
-        <v>66.45951902617627</v>
+        <v>7.405886204397148</v>
       </c>
       <c r="H9">
-        <v>79.34055579897039</v>
+        <v>8.708188605396206</v>
       </c>
       <c r="I9">
-        <v>74.91535465602658</v>
+        <v>7.361727964122006</v>
       </c>
       <c r="J9">
-        <v>94.38077516880891</v>
+        <v>10.02629543799399</v>
       </c>
       <c r="K9">
-        <v>86.36120876120071</v>
+        <v>7.454094890235575</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -704,34 +704,34 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>23.15867636968369</v>
+        <v>7.093756003591595</v>
       </c>
       <c r="C10">
-        <v>64.73649362956422</v>
+        <v>9.855405765440294</v>
       </c>
       <c r="D10">
-        <v>57.85406079936918</v>
+        <v>10.63580545050309</v>
       </c>
       <c r="E10">
-        <v>72.60777791498489</v>
+        <v>16.44115241690805</v>
       </c>
       <c r="F10">
-        <v>82.51875411312677</v>
+        <v>11.66916170366164</v>
       </c>
       <c r="G10">
-        <v>73.24784443443689</v>
+        <v>7.222017638806605</v>
       </c>
       <c r="H10">
-        <v>90.44710905442155</v>
+        <v>8.215494234489237</v>
       </c>
       <c r="I10">
-        <v>90.69367492492481</v>
+        <v>8.258970985480696</v>
       </c>
       <c r="J10">
-        <v>116.2677172910753</v>
+        <v>9.071745053890179</v>
       </c>
       <c r="K10">
-        <v>112.143854087144</v>
+        <v>7.409449107504524</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -739,34 +739,34 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>26.45457978013417</v>
+        <v>7.121907143264176</v>
       </c>
       <c r="C11">
-        <v>71.42915701820058</v>
+        <v>9.776557958588588</v>
       </c>
       <c r="D11">
-        <v>66.23093262871565</v>
+        <v>10.67098833928508</v>
       </c>
       <c r="E11">
-        <v>82.77563786138967</v>
+        <v>16.34018212661114</v>
       </c>
       <c r="F11">
-        <v>90.0503133969932</v>
+        <v>11.39209902109528</v>
       </c>
       <c r="G11">
-        <v>80.79092437012764</v>
+        <v>7.172973987311734</v>
       </c>
       <c r="H11">
-        <v>99.42970833767421</v>
+        <v>7.785762737893297</v>
       </c>
       <c r="I11">
-        <v>129.9820055448198</v>
+        <v>7.873704598529187</v>
       </c>
       <c r="J11">
-        <v>136.0761844739677</v>
+        <v>9.130805268970922</v>
       </c>
       <c r="K11">
-        <v>120.6738813914375</v>
+        <v>6.778029271606114</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -774,34 +774,34 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>29.19698842319909</v>
+        <v>7.145098869454801</v>
       </c>
       <c r="C12">
-        <v>73.89072116394748</v>
+        <v>9.467727196394112</v>
       </c>
       <c r="D12">
-        <v>72.6114405719407</v>
+        <v>10.3967646236398</v>
       </c>
       <c r="E12">
-        <v>92.37475480046416</v>
+        <v>15.87601495422877</v>
       </c>
       <c r="F12">
-        <v>93.8329624345436</v>
+        <v>11.6267685441163</v>
       </c>
       <c r="G12">
-        <v>105.0101985589848</v>
+        <v>6.509573320614129</v>
       </c>
       <c r="H12">
-        <v>106.0197876726496</v>
+        <v>7.728500682350418</v>
       </c>
       <c r="I12">
-        <v>146.8982886217061</v>
+        <v>7.473528130805977</v>
       </c>
       <c r="J12">
-        <v>160.1107082241236</v>
+        <v>9.46781313259579</v>
       </c>
       <c r="K12">
-        <v>136.7664168888726</v>
+        <v>7.213362675859039</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -809,34 +809,34 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>31.48646027259543</v>
+        <v>7.221913081822834</v>
       </c>
       <c r="C13">
-        <v>80.84351702964868</v>
+        <v>8.756659707723477</v>
       </c>
       <c r="D13">
-        <v>77.06604938527016</v>
+        <v>10.24905148929079</v>
       </c>
       <c r="E13">
-        <v>99.49308386678936</v>
+        <v>15.91180198847472</v>
       </c>
       <c r="F13">
-        <v>112.1770743452178</v>
+        <v>11.6191270874967</v>
       </c>
       <c r="G13">
-        <v>117.4498249460111</v>
+        <v>6.288087022451207</v>
       </c>
       <c r="H13">
-        <v>122.1181493842863</v>
+        <v>7.289221250547202</v>
       </c>
       <c r="I13">
-        <v>164.2093605077677</v>
+        <v>7.434108313325823</v>
       </c>
       <c r="J13">
-        <v>178.2651264607747</v>
+        <v>8.983386982296306</v>
       </c>
       <c r="K13">
-        <v>147.3886597749217</v>
+        <v>7.106484525845342</v>
       </c>
     </row>
   </sheetData>

--- a/src/1.xlsx
+++ b/src/1.xlsx
@@ -424,34 +424,34 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7.401014162387528</v>
+        <v>7.13171499243889</v>
       </c>
       <c r="C2">
-        <v>10.50166719720366</v>
+        <v>10.22052369021002</v>
       </c>
       <c r="D2">
-        <v>10.87951700403755</v>
+        <v>11.17638935105371</v>
       </c>
       <c r="E2">
-        <v>17.73760211348307</v>
+        <v>17.14400917593157</v>
       </c>
       <c r="F2">
-        <v>11.95317979020959</v>
+        <v>11.57514231316126</v>
       </c>
       <c r="G2">
-        <v>8.220469965328215</v>
+        <v>7.809022773332596</v>
       </c>
       <c r="H2">
-        <v>8.043931277398832</v>
+        <v>7.415781838202768</v>
       </c>
       <c r="I2">
-        <v>5.846363896252414</v>
+        <v>6.720635100989505</v>
       </c>
       <c r="J2">
-        <v>11.02287763335269</v>
+        <v>12.29900328396707</v>
       </c>
       <c r="K2">
-        <v>7.411442002835487</v>
+        <v>8.207775624551987</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -459,34 +459,34 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7.363876035893161</v>
+        <v>7.074194538418736</v>
       </c>
       <c r="C3">
-        <v>10.2172905690303</v>
+        <v>10.23645121049813</v>
       </c>
       <c r="D3">
-        <v>10.85216400310916</v>
+        <v>10.63412007187844</v>
       </c>
       <c r="E3">
-        <v>17.63150406059704</v>
+        <v>16.33924610130336</v>
       </c>
       <c r="F3">
-        <v>11.70216596593138</v>
+        <v>11.26108775683707</v>
       </c>
       <c r="G3">
-        <v>7.871942987039258</v>
+        <v>7.300212618323999</v>
       </c>
       <c r="H3">
-        <v>7.507752023940139</v>
+        <v>8.184187189109057</v>
       </c>
       <c r="I3">
-        <v>6.34784204255394</v>
+        <v>6.420174662296136</v>
       </c>
       <c r="J3">
-        <v>10.66275188585397</v>
+        <v>11.51312401198997</v>
       </c>
       <c r="K3">
-        <v>6.690906591250984</v>
+        <v>8.826445743059047</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -494,34 +494,34 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>7.296348596665792</v>
+        <v>6.719117736530286</v>
       </c>
       <c r="C4">
-        <v>9.924269255578727</v>
+        <v>9.959223455424791</v>
       </c>
       <c r="D4">
-        <v>10.16551855454189</v>
+        <v>10.46745139184349</v>
       </c>
       <c r="E4">
-        <v>17.24070690945189</v>
+        <v>16.61618965356586</v>
       </c>
       <c r="F4">
-        <v>11.39935184083483</v>
+        <v>10.64387264594715</v>
       </c>
       <c r="G4">
-        <v>7.309481716525158</v>
+        <v>6.675674184171603</v>
       </c>
       <c r="H4">
-        <v>6.565020241006081</v>
+        <v>9.099128656401055</v>
       </c>
       <c r="I4">
-        <v>6.970416052900781</v>
+        <v>6.756130799756344</v>
       </c>
       <c r="J4">
-        <v>10.12230170211696</v>
+        <v>12.27614446650386</v>
       </c>
       <c r="K4">
-        <v>7.805774153545655</v>
+        <v>8.84149171043118</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -529,34 +529,34 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>7.26520993862469</v>
+        <v>6.79999065476613</v>
       </c>
       <c r="C5">
-        <v>10.03732289363841</v>
+        <v>10.068900109446</v>
       </c>
       <c r="D5">
-        <v>9.989712183594628</v>
+        <v>10.99419583480696</v>
       </c>
       <c r="E5">
-        <v>16.93822938077097</v>
+        <v>15.99491680257698</v>
       </c>
       <c r="F5">
-        <v>12.28023928258303</v>
+        <v>10.10102329417005</v>
       </c>
       <c r="G5">
-        <v>7.363261710398083</v>
+        <v>6.343304896315614</v>
       </c>
       <c r="H5">
-        <v>7.732028083861559</v>
+        <v>9.28728834802528</v>
       </c>
       <c r="I5">
-        <v>7.093725304239562</v>
+        <v>7.443448917341612</v>
       </c>
       <c r="J5">
-        <v>9.846382745255081</v>
+        <v>12.58782583576973</v>
       </c>
       <c r="K5">
-        <v>7.614438913315465</v>
+        <v>9.158878722610455</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -564,34 +564,34 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>7.183516092913928</v>
+        <v>6.630945005055646</v>
       </c>
       <c r="C6">
-        <v>10.01064251202876</v>
+        <v>9.69008598652931</v>
       </c>
       <c r="D6">
-        <v>10.02507011706227</v>
+        <v>10.49536567414446</v>
       </c>
       <c r="E6">
-        <v>16.71619525569161</v>
+        <v>16.29289332196107</v>
       </c>
       <c r="F6">
-        <v>11.91419905770002</v>
+        <v>9.492976850975976</v>
       </c>
       <c r="G6">
-        <v>7.61791558010176</v>
+        <v>5.364289470054935</v>
       </c>
       <c r="H6">
-        <v>7.248982165740624</v>
+        <v>10.0033376304994</v>
       </c>
       <c r="I6">
-        <v>6.990896121333752</v>
+        <v>7.884305194846549</v>
       </c>
       <c r="J6">
-        <v>10.06517809777449</v>
+        <v>13.55315236059292</v>
       </c>
       <c r="K6">
-        <v>6.681859381595099</v>
+        <v>11.12366632556366</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -599,34 +599,34 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>7.14522391412939</v>
+        <v>6.292622743799732</v>
       </c>
       <c r="C7">
-        <v>10.31890844910356</v>
+        <v>9.032333022305918</v>
       </c>
       <c r="D7">
-        <v>10.50788610994858</v>
+        <v>10.274261328991</v>
       </c>
       <c r="E7">
-        <v>17.30896248440376</v>
+        <v>15.91789338262646</v>
       </c>
       <c r="F7">
-        <v>11.9951055125313</v>
+        <v>9.330719251791109</v>
       </c>
       <c r="G7">
-        <v>8.550418281605259</v>
+        <v>5.705503159324986</v>
       </c>
       <c r="H7">
-        <v>8.054214499187641</v>
+        <v>10.16136236838444</v>
       </c>
       <c r="I7">
-        <v>6.643512715038245</v>
+        <v>7.440409066019273</v>
       </c>
       <c r="J7">
-        <v>10.68783785476855</v>
+        <v>13.67723380219172</v>
       </c>
       <c r="K7">
-        <v>6.548520357845657</v>
+        <v>12.29587686704479</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -634,34 +634,34 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>7.059166924426566</v>
+        <v>6.040561315161529</v>
       </c>
       <c r="C8">
-        <v>10.03030471682965</v>
+        <v>8.492786431664994</v>
       </c>
       <c r="D8">
-        <v>10.54047677359746</v>
+        <v>10.20680766575127</v>
       </c>
       <c r="E8">
-        <v>17.04749958223208</v>
+        <v>15.22305450686836</v>
       </c>
       <c r="F8">
-        <v>11.71070026752167</v>
+        <v>8.730370246466888</v>
       </c>
       <c r="G8">
-        <v>7.95442593782649</v>
+        <v>5.69798227320665</v>
       </c>
       <c r="H8">
-        <v>9.113932454898316</v>
+        <v>9.823956206784404</v>
       </c>
       <c r="I8">
-        <v>6.212794856851116</v>
+        <v>8.071374890909825</v>
       </c>
       <c r="J8">
-        <v>9.653178713699415</v>
+        <v>13.52855341005517</v>
       </c>
       <c r="K8">
-        <v>6.755569936383464</v>
+        <v>12.36046696279985</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -669,34 +669,34 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>7.155432616701304</v>
+        <v>6.008731044118184</v>
       </c>
       <c r="C9">
-        <v>9.828331337329764</v>
+        <v>8.102819175074909</v>
       </c>
       <c r="D9">
-        <v>10.48577778845928</v>
+        <v>9.817973223217322</v>
       </c>
       <c r="E9">
-        <v>16.77329447457058</v>
+        <v>14.82472008496572</v>
       </c>
       <c r="F9">
-        <v>11.95709413424438</v>
+        <v>8.365090438012976</v>
       </c>
       <c r="G9">
-        <v>7.405886204397148</v>
+        <v>5.117494698688559</v>
       </c>
       <c r="H9">
-        <v>8.708188605396206</v>
+        <v>10.3858081021361</v>
       </c>
       <c r="I9">
-        <v>7.361727964122006</v>
+        <v>8.440661553611017</v>
       </c>
       <c r="J9">
-        <v>10.02629543799399</v>
+        <v>15.16429683778209</v>
       </c>
       <c r="K9">
-        <v>7.454094890235575</v>
+        <v>13.31804893009626</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -704,34 +704,34 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>7.093756003591595</v>
+        <v>5.85924978000769</v>
       </c>
       <c r="C10">
-        <v>9.855405765440294</v>
+        <v>8.283516410300026</v>
       </c>
       <c r="D10">
-        <v>10.63580545050309</v>
+        <v>9.300497514352353</v>
       </c>
       <c r="E10">
-        <v>16.44115241690805</v>
+        <v>14.70097582142699</v>
       </c>
       <c r="F10">
-        <v>11.66916170366164</v>
+        <v>8.000740353235093</v>
       </c>
       <c r="G10">
-        <v>7.222017638806605</v>
+        <v>5.217191948168571</v>
       </c>
       <c r="H10">
-        <v>8.215494234489237</v>
+        <v>10.2559441200862</v>
       </c>
       <c r="I10">
-        <v>8.258970985480696</v>
+        <v>9.398258843087364</v>
       </c>
       <c r="J10">
-        <v>9.071745053890179</v>
+        <v>15.48773079246029</v>
       </c>
       <c r="K10">
-        <v>7.409449107504524</v>
+        <v>14.96549783861309</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -739,34 +739,34 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>7.121907143264176</v>
+        <v>5.620106245922639</v>
       </c>
       <c r="C11">
-        <v>9.776557958588588</v>
+        <v>8.607710152449457</v>
       </c>
       <c r="D11">
-        <v>10.67098833928508</v>
+        <v>9.224215757104444</v>
       </c>
       <c r="E11">
-        <v>16.34018212661114</v>
+        <v>14.16277907310297</v>
       </c>
       <c r="F11">
-        <v>11.39209902109528</v>
+        <v>7.511646959700462</v>
       </c>
       <c r="G11">
-        <v>7.172973987311734</v>
+        <v>5.790082107514134</v>
       </c>
       <c r="H11">
-        <v>7.785762737893297</v>
+        <v>11.10718922555536</v>
       </c>
       <c r="I11">
-        <v>7.873704598529187</v>
+        <v>9.108037935496519</v>
       </c>
       <c r="J11">
-        <v>9.130805268970922</v>
+        <v>15.64140015793858</v>
       </c>
       <c r="K11">
-        <v>6.778029271606114</v>
+        <v>14.79505432511822</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -774,34 +774,34 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>7.145098869454801</v>
+        <v>5.412165506162256</v>
       </c>
       <c r="C12">
-        <v>9.467727196394112</v>
+        <v>8.713437180178362</v>
       </c>
       <c r="D12">
-        <v>10.3967646236398</v>
+        <v>8.848702607505119</v>
       </c>
       <c r="E12">
-        <v>15.87601495422877</v>
+        <v>14.29379453738864</v>
       </c>
       <c r="F12">
-        <v>11.6267685441163</v>
+        <v>6.480580393956248</v>
       </c>
       <c r="G12">
-        <v>6.509573320614129</v>
+        <v>5.262430370495644</v>
       </c>
       <c r="H12">
-        <v>7.728500682350418</v>
+        <v>12.25434448710575</v>
       </c>
       <c r="I12">
-        <v>7.473528130805977</v>
+        <v>9.583411035434095</v>
       </c>
       <c r="J12">
-        <v>9.46781313259579</v>
+        <v>16.9184479111302</v>
       </c>
       <c r="K12">
-        <v>7.213362675859039</v>
+        <v>15.52923636278403</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -809,34 +809,34 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>7.221913081822834</v>
+        <v>5.290596620642847</v>
       </c>
       <c r="C13">
-        <v>8.756659707723477</v>
+        <v>8.600445695868181</v>
       </c>
       <c r="D13">
-        <v>10.24905148929079</v>
+        <v>8.674216632436019</v>
       </c>
       <c r="E13">
-        <v>15.91180198847472</v>
+        <v>14.46043640255296</v>
       </c>
       <c r="F13">
-        <v>11.6191270874967</v>
+        <v>6.266385811721252</v>
       </c>
       <c r="G13">
-        <v>6.288087022451207</v>
+        <v>4.344769448946186</v>
       </c>
       <c r="H13">
-        <v>7.289221250547202</v>
+        <v>12.7814998210826</v>
       </c>
       <c r="I13">
-        <v>7.434108313325823</v>
+        <v>10.75919979766228</v>
       </c>
       <c r="J13">
-        <v>8.983386982296306</v>
+        <v>17.06036028178053</v>
       </c>
       <c r="K13">
-        <v>7.106484525845342</v>
+        <v>16.71337050878957</v>
       </c>
     </row>
   </sheetData>

--- a/src/1.xlsx
+++ b/src/1.xlsx
@@ -424,34 +424,34 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7.13171499243889</v>
+        <v>7.386511153123701</v>
       </c>
       <c r="C2">
-        <v>10.22052369021002</v>
+        <v>10.46483369606154</v>
       </c>
       <c r="D2">
-        <v>11.17638935105371</v>
+        <v>11.08845172931283</v>
       </c>
       <c r="E2">
-        <v>17.14400917593157</v>
+        <v>17.23106918057314</v>
       </c>
       <c r="F2">
-        <v>11.57514231316126</v>
+        <v>11.47521986184924</v>
       </c>
       <c r="G2">
-        <v>7.809022773332596</v>
+        <v>7.961928817362937</v>
       </c>
       <c r="H2">
-        <v>7.415781838202768</v>
+        <v>6.993151656997544</v>
       </c>
       <c r="I2">
-        <v>6.720635100989505</v>
+        <v>6.456053920621225</v>
       </c>
       <c r="J2">
-        <v>12.29900328396707</v>
+        <v>11.79053205510849</v>
       </c>
       <c r="K2">
-        <v>8.207775624551987</v>
+        <v>8.923993045017442</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -459,34 +459,34 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7.074194538418736</v>
+        <v>7.171929891867497</v>
       </c>
       <c r="C3">
-        <v>10.23645121049813</v>
+        <v>9.988418054254609</v>
       </c>
       <c r="D3">
-        <v>10.63412007187844</v>
+        <v>10.33042478327786</v>
       </c>
       <c r="E3">
-        <v>16.33924610130336</v>
+        <v>17.38288514387741</v>
       </c>
       <c r="F3">
-        <v>11.26108775683707</v>
+        <v>11.23810055222348</v>
       </c>
       <c r="G3">
-        <v>7.300212618323999</v>
+        <v>7.256336734106703</v>
       </c>
       <c r="H3">
-        <v>8.184187189109057</v>
+        <v>6.947106589485279</v>
       </c>
       <c r="I3">
-        <v>6.420174662296136</v>
+        <v>6.228917814542077</v>
       </c>
       <c r="J3">
-        <v>11.51312401198997</v>
+        <v>11.12588699808285</v>
       </c>
       <c r="K3">
-        <v>8.826445743059047</v>
+        <v>9.060038289880929</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -494,34 +494,34 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>6.719117736530286</v>
+        <v>6.975805388214726</v>
       </c>
       <c r="C4">
-        <v>9.959223455424791</v>
+        <v>9.488586675727944</v>
       </c>
       <c r="D4">
-        <v>10.46745139184349</v>
+        <v>9.878587284864137</v>
       </c>
       <c r="E4">
-        <v>16.61618965356586</v>
+        <v>17.60714707107737</v>
       </c>
       <c r="F4">
-        <v>10.64387264594715</v>
+        <v>10.46076140779648</v>
       </c>
       <c r="G4">
-        <v>6.675674184171603</v>
+        <v>7.539396169957286</v>
       </c>
       <c r="H4">
-        <v>9.099128656401055</v>
+        <v>7.999010616371146</v>
       </c>
       <c r="I4">
-        <v>6.756130799756344</v>
+        <v>5.026735853018434</v>
       </c>
       <c r="J4">
-        <v>12.27614446650386</v>
+        <v>11.63195780325101</v>
       </c>
       <c r="K4">
-        <v>8.84149171043118</v>
+        <v>8.175295531338204</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -529,34 +529,34 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>6.79999065476613</v>
+        <v>6.73862001328378</v>
       </c>
       <c r="C5">
-        <v>10.068900109446</v>
+        <v>9.361087441582331</v>
       </c>
       <c r="D5">
-        <v>10.99419583480696</v>
+        <v>9.583046153671939</v>
       </c>
       <c r="E5">
-        <v>15.99491680257698</v>
+        <v>16.89267541990175</v>
       </c>
       <c r="F5">
-        <v>10.10102329417005</v>
+        <v>10.01872283677043</v>
       </c>
       <c r="G5">
-        <v>6.343304896315614</v>
+        <v>7.247921524410613</v>
       </c>
       <c r="H5">
-        <v>9.28728834802528</v>
+        <v>7.773800327118913</v>
       </c>
       <c r="I5">
-        <v>7.443448917341612</v>
+        <v>5.10949202104243</v>
       </c>
       <c r="J5">
-        <v>12.58782583576973</v>
+        <v>11.4528788066402</v>
       </c>
       <c r="K5">
-        <v>9.158878722610455</v>
+        <v>8.645158940780824</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -564,34 +564,34 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>6.630945005055646</v>
+        <v>6.839595804999116</v>
       </c>
       <c r="C6">
-        <v>9.69008598652931</v>
+        <v>8.664334167293777</v>
       </c>
       <c r="D6">
-        <v>10.49536567414446</v>
+        <v>9.270171219771727</v>
       </c>
       <c r="E6">
-        <v>16.29289332196107</v>
+        <v>16.48541723104798</v>
       </c>
       <c r="F6">
-        <v>9.492976850975976</v>
+        <v>9.438942952192471</v>
       </c>
       <c r="G6">
-        <v>5.364289470054935</v>
+        <v>6.951372152774749</v>
       </c>
       <c r="H6">
-        <v>10.0033376304994</v>
+        <v>7.928514448495264</v>
       </c>
       <c r="I6">
-        <v>7.884305194846549</v>
+        <v>5.583642079267789</v>
       </c>
       <c r="J6">
-        <v>13.55315236059292</v>
+        <v>11.84697665005431</v>
       </c>
       <c r="K6">
-        <v>11.12366632556366</v>
+        <v>8.113145325382662</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -599,34 +599,34 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>6.292622743799732</v>
+        <v>6.577184808530461</v>
       </c>
       <c r="C7">
-        <v>9.032333022305918</v>
+        <v>8.08179371836062</v>
       </c>
       <c r="D7">
-        <v>10.274261328991</v>
+        <v>9.099526375007656</v>
       </c>
       <c r="E7">
-        <v>15.91789338262646</v>
+        <v>16.32099340349289</v>
       </c>
       <c r="F7">
-        <v>9.330719251791109</v>
+        <v>9.059670896436646</v>
       </c>
       <c r="G7">
-        <v>5.705503159324986</v>
+        <v>6.741621204482019</v>
       </c>
       <c r="H7">
-        <v>10.16136236838444</v>
+        <v>7.607610253463145</v>
       </c>
       <c r="I7">
-        <v>7.440409066019273</v>
+        <v>6.070496931231482</v>
       </c>
       <c r="J7">
-        <v>13.67723380219172</v>
+        <v>11.80596612851871</v>
       </c>
       <c r="K7">
-        <v>12.29587686704479</v>
+        <v>8.064557092054747</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -634,34 +634,34 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>6.040561315161529</v>
+        <v>6.328793422444142</v>
       </c>
       <c r="C8">
-        <v>8.492786431664994</v>
+        <v>7.808198806813102</v>
       </c>
       <c r="D8">
-        <v>10.20680766575127</v>
+        <v>8.666491302738027</v>
       </c>
       <c r="E8">
-        <v>15.22305450686836</v>
+        <v>16.01427798497063</v>
       </c>
       <c r="F8">
-        <v>8.730370246466888</v>
+        <v>9.08853604521506</v>
       </c>
       <c r="G8">
-        <v>5.69798227320665</v>
+        <v>5.831571437605284</v>
       </c>
       <c r="H8">
-        <v>9.823956206784404</v>
+        <v>8.085803868245282</v>
       </c>
       <c r="I8">
-        <v>8.071374890909825</v>
+        <v>7.169938010208563</v>
       </c>
       <c r="J8">
-        <v>13.52855341005517</v>
+        <v>12.35971751642128</v>
       </c>
       <c r="K8">
-        <v>12.36046696279985</v>
+        <v>8.620991094931279</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -669,34 +669,34 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>6.008731044118184</v>
+        <v>6.077407315424851</v>
       </c>
       <c r="C9">
-        <v>8.102819175074909</v>
+        <v>7.627903570453189</v>
       </c>
       <c r="D9">
-        <v>9.817973223217322</v>
+        <v>8.737665310141564</v>
       </c>
       <c r="E9">
-        <v>14.82472008496572</v>
+        <v>16.05904093564293</v>
       </c>
       <c r="F9">
-        <v>8.365090438012976</v>
+        <v>9.161902988028425</v>
       </c>
       <c r="G9">
-        <v>5.117494698688559</v>
+        <v>5.760974634524629</v>
       </c>
       <c r="H9">
-        <v>10.3858081021361</v>
+        <v>7.860152658984163</v>
       </c>
       <c r="I9">
-        <v>8.440661553611017</v>
+        <v>8.420565521383271</v>
       </c>
       <c r="J9">
-        <v>15.16429683778209</v>
+        <v>12.83032693802798</v>
       </c>
       <c r="K9">
-        <v>13.31804893009626</v>
+        <v>9.136835457371387</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -704,34 +704,34 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5.85924978000769</v>
+        <v>5.826430241798239</v>
       </c>
       <c r="C10">
-        <v>8.283516410300026</v>
+        <v>7.418701841608029</v>
       </c>
       <c r="D10">
-        <v>9.300497514352353</v>
+        <v>8.691920328781292</v>
       </c>
       <c r="E10">
-        <v>14.70097582142699</v>
+        <v>15.5418838917624</v>
       </c>
       <c r="F10">
-        <v>8.000740353235093</v>
+        <v>8.988991895507016</v>
       </c>
       <c r="G10">
-        <v>5.217191948168571</v>
+        <v>5.174896788608638</v>
       </c>
       <c r="H10">
-        <v>10.2559441200862</v>
+        <v>7.935529525665364</v>
       </c>
       <c r="I10">
-        <v>9.398258843087364</v>
+        <v>8.706548337952144</v>
       </c>
       <c r="J10">
-        <v>15.48773079246029</v>
+        <v>12.88279248120982</v>
       </c>
       <c r="K10">
-        <v>14.96549783861309</v>
+        <v>9.272464561072317</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -739,34 +739,34 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>5.620106245922639</v>
+        <v>5.859181968229535</v>
       </c>
       <c r="C11">
-        <v>8.607710152449457</v>
+        <v>7.313946989800089</v>
       </c>
       <c r="D11">
-        <v>9.224215757104444</v>
+        <v>8.647548357002183</v>
       </c>
       <c r="E11">
-        <v>14.16277907310297</v>
+        <v>15.27507928277316</v>
       </c>
       <c r="F11">
-        <v>7.511646959700462</v>
+        <v>8.677714117838708</v>
       </c>
       <c r="G11">
-        <v>5.790082107514134</v>
+        <v>5.016532592046993</v>
       </c>
       <c r="H11">
-        <v>11.10718922555536</v>
+        <v>7.086025432588046</v>
       </c>
       <c r="I11">
-        <v>9.108037935496519</v>
+        <v>9.415306074230273</v>
       </c>
       <c r="J11">
-        <v>15.64140015793858</v>
+        <v>13.3137600839948</v>
       </c>
       <c r="K11">
-        <v>14.79505432511822</v>
+        <v>9.030746775321667</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -774,34 +774,34 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>5.412165506162256</v>
+        <v>5.64804790309557</v>
       </c>
       <c r="C12">
-        <v>8.713437180178362</v>
+        <v>7.537850006099737</v>
       </c>
       <c r="D12">
-        <v>8.848702607505119</v>
+        <v>8.474696952089694</v>
       </c>
       <c r="E12">
-        <v>14.29379453738864</v>
+        <v>15.50776062920752</v>
       </c>
       <c r="F12">
-        <v>6.480580393956248</v>
+        <v>8.151864852280831</v>
       </c>
       <c r="G12">
-        <v>5.262430370495644</v>
+        <v>4.109289015487158</v>
       </c>
       <c r="H12">
-        <v>12.25434448710575</v>
+        <v>7.322784897949331</v>
       </c>
       <c r="I12">
-        <v>9.583411035434095</v>
+        <v>9.828840718442788</v>
       </c>
       <c r="J12">
-        <v>16.9184479111302</v>
+        <v>13.36670069222999</v>
       </c>
       <c r="K12">
-        <v>15.52923636278403</v>
+        <v>8.873488004245033</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -809,34 +809,34 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>5.290596620642847</v>
+        <v>5.632088935236606</v>
       </c>
       <c r="C13">
-        <v>8.600445695868181</v>
+        <v>6.983815124269011</v>
       </c>
       <c r="D13">
-        <v>8.674216632436019</v>
+        <v>7.967977550435138</v>
       </c>
       <c r="E13">
-        <v>14.46043640255296</v>
+        <v>14.9428367770602</v>
       </c>
       <c r="F13">
-        <v>6.266385811721252</v>
+        <v>7.978732618199143</v>
       </c>
       <c r="G13">
-        <v>4.344769448946186</v>
+        <v>4.091463013571975</v>
       </c>
       <c r="H13">
-        <v>12.7814998210826</v>
+        <v>6.534175662558779</v>
       </c>
       <c r="I13">
-        <v>10.75919979766228</v>
+        <v>10.19395664333677</v>
       </c>
       <c r="J13">
-        <v>17.06036028178053</v>
+        <v>13.19270814001735</v>
       </c>
       <c r="K13">
-        <v>16.71337050878957</v>
+        <v>8.660589818867974</v>
       </c>
     </row>
   </sheetData>

--- a/src/1.xlsx
+++ b/src/1.xlsx
@@ -424,34 +424,34 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7.386511153123701</v>
+        <v>6.436678382880736</v>
       </c>
       <c r="C2">
-        <v>10.46483369606154</v>
+        <v>9.602609960815402</v>
       </c>
       <c r="D2">
-        <v>11.08845172931283</v>
+        <v>11.08908783505708</v>
       </c>
       <c r="E2">
-        <v>17.23106918057314</v>
+        <v>16.34570391081862</v>
       </c>
       <c r="F2">
-        <v>11.47521986184924</v>
+        <v>10.90578227449194</v>
       </c>
       <c r="G2">
-        <v>7.961928817362937</v>
+        <v>6.492475965189175</v>
       </c>
       <c r="H2">
-        <v>6.993151656997544</v>
+        <v>8.641282174941407</v>
       </c>
       <c r="I2">
-        <v>6.456053920621225</v>
+        <v>6.853472884039181</v>
       </c>
       <c r="J2">
-        <v>11.79053205510849</v>
+        <v>12.63195027009251</v>
       </c>
       <c r="K2">
-        <v>8.923993045017442</v>
+        <v>10.65268155070153</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -459,34 +459,34 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7.171929891867497</v>
+        <v>5.938038869485617</v>
       </c>
       <c r="C3">
-        <v>9.988418054254609</v>
+        <v>10.88068983485773</v>
       </c>
       <c r="D3">
-        <v>10.33042478327786</v>
+        <v>11.01217815156269</v>
       </c>
       <c r="E3">
-        <v>17.38288514387741</v>
+        <v>15.17798171088304</v>
       </c>
       <c r="F3">
-        <v>11.23810055222348</v>
+        <v>11.06396845440369</v>
       </c>
       <c r="G3">
-        <v>7.256336734106703</v>
+        <v>6.768899517279297</v>
       </c>
       <c r="H3">
-        <v>6.947106589485279</v>
+        <v>8.426516194213105</v>
       </c>
       <c r="I3">
-        <v>6.228917814542077</v>
+        <v>8.578482892921542</v>
       </c>
       <c r="J3">
-        <v>11.12588699808285</v>
+        <v>11.24902535621651</v>
       </c>
       <c r="K3">
-        <v>9.060038289880929</v>
+        <v>9.975388209077314</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -494,34 +494,34 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>6.975805388214726</v>
+        <v>5.570598625712453</v>
       </c>
       <c r="C4">
-        <v>9.488586675727944</v>
+        <v>10.01454338488484</v>
       </c>
       <c r="D4">
-        <v>9.878587284864137</v>
+        <v>10.10676898347205</v>
       </c>
       <c r="E4">
-        <v>17.60714707107737</v>
+        <v>13.21855413714592</v>
       </c>
       <c r="F4">
-        <v>10.46076140779648</v>
+        <v>10.37341090848321</v>
       </c>
       <c r="G4">
-        <v>7.539396169957286</v>
+        <v>5.651134157271605</v>
       </c>
       <c r="H4">
-        <v>7.999010616371146</v>
+        <v>9.135058631978625</v>
       </c>
       <c r="I4">
-        <v>5.026735853018434</v>
+        <v>8.460922765204808</v>
       </c>
       <c r="J4">
-        <v>11.63195780325101</v>
+        <v>13.91155927193081</v>
       </c>
       <c r="K4">
-        <v>8.175295531338204</v>
+        <v>9.827626616812591</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -529,34 +529,34 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>6.73862001328378</v>
+        <v>4.514144575650587</v>
       </c>
       <c r="C5">
-        <v>9.361087441582331</v>
+        <v>9.988671416349971</v>
       </c>
       <c r="D5">
-        <v>9.583046153671939</v>
+        <v>9.165182940405179</v>
       </c>
       <c r="E5">
-        <v>16.89267541990175</v>
+        <v>11.77784636029336</v>
       </c>
       <c r="F5">
-        <v>10.01872283677043</v>
+        <v>10.69895022044508</v>
       </c>
       <c r="G5">
-        <v>7.247921524410613</v>
+        <v>5.518552417648569</v>
       </c>
       <c r="H5">
-        <v>7.773800327118913</v>
+        <v>9.685715649354595</v>
       </c>
       <c r="I5">
-        <v>5.10949202104243</v>
+        <v>8.505530280499556</v>
       </c>
       <c r="J5">
-        <v>11.4528788066402</v>
+        <v>13.8160906051709</v>
       </c>
       <c r="K5">
-        <v>8.645158940780824</v>
+        <v>10.98583353759465</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -564,34 +564,34 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>6.839595804999116</v>
+        <v>4.526303258278914</v>
       </c>
       <c r="C6">
-        <v>8.664334167293777</v>
+        <v>10.74840351958373</v>
       </c>
       <c r="D6">
-        <v>9.270171219771727</v>
+        <v>9.034009265523045</v>
       </c>
       <c r="E6">
-        <v>16.48541723104798</v>
+        <v>11.95766187180732</v>
       </c>
       <c r="F6">
-        <v>9.438942952192471</v>
+        <v>9.242149374516718</v>
       </c>
       <c r="G6">
-        <v>6.951372152774749</v>
+        <v>4.817992650007914</v>
       </c>
       <c r="H6">
-        <v>7.928514448495264</v>
+        <v>10.18067180589846</v>
       </c>
       <c r="I6">
-        <v>5.583642079267789</v>
+        <v>9.805115000130856</v>
       </c>
       <c r="J6">
-        <v>11.84697665005431</v>
+        <v>13.93986907247867</v>
       </c>
       <c r="K6">
-        <v>8.113145325382662</v>
+        <v>11.84116896711553</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -599,34 +599,34 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>6.577184808530461</v>
+        <v>4.184540661540737</v>
       </c>
       <c r="C7">
-        <v>8.08179371836062</v>
+        <v>10.73077074286168</v>
       </c>
       <c r="D7">
-        <v>9.099526375007656</v>
+        <v>8.6572160584288</v>
       </c>
       <c r="E7">
-        <v>16.32099340349289</v>
+        <v>11.25104841731689</v>
       </c>
       <c r="F7">
-        <v>9.059670896436646</v>
+        <v>9.056018899807844</v>
       </c>
       <c r="G7">
-        <v>6.741621204482019</v>
+        <v>3.930171679175405</v>
       </c>
       <c r="H7">
-        <v>7.607610253463145</v>
+        <v>10.69576015807211</v>
       </c>
       <c r="I7">
-        <v>6.070496931231482</v>
+        <v>10.22408166640918</v>
       </c>
       <c r="J7">
-        <v>11.80596612851871</v>
+        <v>14.41730706243089</v>
       </c>
       <c r="K7">
-        <v>8.064557092054747</v>
+        <v>11.81378966162818</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -634,34 +634,34 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>6.328793422444142</v>
+        <v>2.996152932215825</v>
       </c>
       <c r="C8">
-        <v>7.808198806813102</v>
+        <v>10.56585598227995</v>
       </c>
       <c r="D8">
-        <v>8.666491302738027</v>
+        <v>7.056559570582271</v>
       </c>
       <c r="E8">
-        <v>16.01427798497063</v>
+        <v>11.15402618075272</v>
       </c>
       <c r="F8">
-        <v>9.08853604521506</v>
+        <v>8.632398942423276</v>
       </c>
       <c r="G8">
-        <v>5.831571437605284</v>
+        <v>4.831361361778161</v>
       </c>
       <c r="H8">
-        <v>8.085803868245282</v>
+        <v>12.13227324339747</v>
       </c>
       <c r="I8">
-        <v>7.169938010208563</v>
+        <v>11.77322598309582</v>
       </c>
       <c r="J8">
-        <v>12.35971751642128</v>
+        <v>16.53690755295988</v>
       </c>
       <c r="K8">
-        <v>8.620991094931279</v>
+        <v>12.66955567663016</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -669,34 +669,34 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>6.077407315424851</v>
+        <v>3.389706403999319</v>
       </c>
       <c r="C9">
-        <v>7.627903570453189</v>
+        <v>10.51218564611941</v>
       </c>
       <c r="D9">
-        <v>8.737665310141564</v>
+        <v>6.764057622543882</v>
       </c>
       <c r="E9">
-        <v>16.05904093564293</v>
+        <v>10.70056753965802</v>
       </c>
       <c r="F9">
-        <v>9.161902988028425</v>
+        <v>7.489985110295572</v>
       </c>
       <c r="G9">
-        <v>5.760974634524629</v>
+        <v>4.002679978888644</v>
       </c>
       <c r="H9">
-        <v>7.860152658984163</v>
+        <v>15.06523472765231</v>
       </c>
       <c r="I9">
-        <v>8.420565521383271</v>
+        <v>11.36135906342301</v>
       </c>
       <c r="J9">
-        <v>12.83032693802798</v>
+        <v>15.5306681138515</v>
       </c>
       <c r="K9">
-        <v>9.136835457371387</v>
+        <v>12.64214621570703</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -704,34 +704,34 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5.826430241798239</v>
+        <v>2.860818917829898</v>
       </c>
       <c r="C10">
-        <v>7.418701841608029</v>
+        <v>9.35118623526</v>
       </c>
       <c r="D10">
-        <v>8.691920328781292</v>
+        <v>5.74181866021916</v>
       </c>
       <c r="E10">
-        <v>15.5418838917624</v>
+        <v>10.92917477331657</v>
       </c>
       <c r="F10">
-        <v>8.988991895507016</v>
+        <v>9.227350138206665</v>
       </c>
       <c r="G10">
-        <v>5.174896788608638</v>
+        <v>4.01562929633963</v>
       </c>
       <c r="H10">
-        <v>7.935529525665364</v>
+        <v>15.797366828055</v>
       </c>
       <c r="I10">
-        <v>8.706548337952144</v>
+        <v>12.79605611398849</v>
       </c>
       <c r="J10">
-        <v>12.88279248120982</v>
+        <v>14.01981841813681</v>
       </c>
       <c r="K10">
-        <v>9.272464561072317</v>
+        <v>12.19145551296462</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -739,34 +739,34 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>5.859181968229535</v>
+        <v>2.983212271512042</v>
       </c>
       <c r="C11">
-        <v>7.313946989800089</v>
+        <v>10.29612894063329</v>
       </c>
       <c r="D11">
-        <v>8.647548357002183</v>
+        <v>5.153622477652294</v>
       </c>
       <c r="E11">
-        <v>15.27507928277316</v>
+        <v>9.802512299558927</v>
       </c>
       <c r="F11">
-        <v>8.677714117838708</v>
+        <v>9.406638451945675</v>
       </c>
       <c r="G11">
-        <v>5.016532592046993</v>
+        <v>4.652323017013501</v>
       </c>
       <c r="H11">
-        <v>7.086025432588046</v>
+        <v>15.88325136598442</v>
       </c>
       <c r="I11">
-        <v>9.415306074230273</v>
+        <v>15.19995737492408</v>
       </c>
       <c r="J11">
-        <v>13.3137600839948</v>
+        <v>11.62871791362514</v>
       </c>
       <c r="K11">
-        <v>9.030746775321667</v>
+        <v>12.14870331829991</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -774,34 +774,34 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>5.64804790309557</v>
+        <v>2.326406402729678</v>
       </c>
       <c r="C12">
-        <v>7.537850006099737</v>
+        <v>9.689468970726393</v>
       </c>
       <c r="D12">
-        <v>8.474696952089694</v>
+        <v>4.573718513070727</v>
       </c>
       <c r="E12">
-        <v>15.50776062920752</v>
+        <v>10.40888249886782</v>
       </c>
       <c r="F12">
-        <v>8.151864852280831</v>
+        <v>9.181278966229259</v>
       </c>
       <c r="G12">
-        <v>4.109289015487158</v>
+        <v>5.852780024113739</v>
       </c>
       <c r="H12">
-        <v>7.322784897949331</v>
+        <v>14.20319616614466</v>
       </c>
       <c r="I12">
-        <v>9.828840718442788</v>
+        <v>15.82769043196574</v>
       </c>
       <c r="J12">
-        <v>13.36670069222999</v>
+        <v>13.63020020124608</v>
       </c>
       <c r="K12">
-        <v>8.873488004245033</v>
+        <v>13.97013418783479</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -809,34 +809,34 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>5.632088935236606</v>
+        <v>1.612181410105868</v>
       </c>
       <c r="C13">
-        <v>6.983815124269011</v>
+        <v>8.006969310626044</v>
       </c>
       <c r="D13">
-        <v>7.967977550435138</v>
+        <v>2.835823462124031</v>
       </c>
       <c r="E13">
-        <v>14.9428367770602</v>
+        <v>10.54610463108838</v>
       </c>
       <c r="F13">
-        <v>7.978732618199143</v>
+        <v>10.90640940725775</v>
       </c>
       <c r="G13">
-        <v>4.091463013571975</v>
+        <v>5.093813733262643</v>
       </c>
       <c r="H13">
-        <v>6.534175662558779</v>
+        <v>14.71645714850715</v>
       </c>
       <c r="I13">
-        <v>10.19395664333677</v>
+        <v>15.972827351865</v>
       </c>
       <c r="J13">
-        <v>13.19270814001735</v>
+        <v>13.96337671983098</v>
       </c>
       <c r="K13">
-        <v>8.660589818867974</v>
+        <v>14.94853475520229</v>
       </c>
     </row>
   </sheetData>

--- a/src/1.xlsx
+++ b/src/1.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mirror系统开发\Mirror\src\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15D21A7-56CD-418C-B331-A6F77BBD24BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="本年度各月份各支股票收盘价格" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -52,13 +58,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -86,15 +99,2892 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>本年度各月份各支股票收盘价格!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>本年度各月份各支股票收盘价格!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>本年度各月份各支股票收盘价格!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>6.5367926607202254</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6034961410029167</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5086095405422206</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5256137622628838</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6568043843087583</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5690072112842506</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6864553226408709</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.6893031910398877</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.569058558374862</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5584504203338643</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5979376795916327</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.5611911813252286</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.8822534451100363</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.8236943122919103</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.9882844182964297</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.9242101292979106</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.8920564682839052</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.9250858016102512</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.9942057334977683</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.9056265085697266</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.8927461810724626</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.8809299099621342</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.8723656720337569</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.9336493361163321</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-314E-4412-AE28-82FC0DC8765A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>本年度各月份各支股票收盘价格!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>本年度各月份各支股票收盘价格!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>本年度各月份各支股票收盘价格!$C$2:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>9.7815353305256867</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6035108355544949</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.7124127761405354</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6508191431139352</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.682304741470654</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.5483836940082245</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.569919453655741</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.5370199192916232</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.6501098169307724</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.5069935190688906</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.5721053619721008</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.6495580172707847</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.4265066351634736</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.6367932161335634</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.5044670867198864</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.4790669055195469</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.631466416647358</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.4850388040958311</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.7236818752622689</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.7260987400247938</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.7793923802484759</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.687603355846873</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.7198981739916022</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.6165136764023842</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-314E-4412-AE28-82FC0DC8765A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>本年度各月份各支股票收盘价格!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>本年度各月份各支股票收盘价格!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>本年度各月份各支股票收盘价格!$D$2:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>10.06993779509745</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.19199731813079</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.04459318392513</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.034075765563671</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.02901854763086</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.006027233549039</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.966636911226983</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.05571558699001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.980410539959454</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.8454056582662641</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9805160048763284</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.950699936637756</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.0186627297738688</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.9482935615722035</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.0409656454328786</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.0872484087921492</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.9922423627998977</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.8856099095838808</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.9097856090084964</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.8385324022289051</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.8748837429530862</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.8931591995165036</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.9203682371046327</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.9807900650832462</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-314E-4412-AE28-82FC0DC8765A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>本年度各月份各支股票收盘价格!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>本年度各月份各支股票收盘价格!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>本年度各月份各支股票收盘价格!$E$2:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>15.23786189915417</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.30974056074592</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.33515671555325</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.510544162995179</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.15351628195136</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.32343158534492</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.32058882930788</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.45484827213153</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.387243965932999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.305783542722139</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.455512405304271</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.307323513072429</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.5966510459888</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.788104250470489</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.86692067876281</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.528117864314369</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.789924913634451</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.64921368079176</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.76828082529777</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.82587087732885</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.831015280206531</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.78793896651681</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13.791093547789551</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13.743951887933539</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-314E-4412-AE28-82FC0DC8765A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>本年度各月份各支股票收盘价格!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>本年度各月份各支股票收盘价格!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>本年度各月份各支股票收盘价格!$F$2:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>10.9928564945936</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.5036701868219</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.702365631486719</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.71107199799196</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.788672249127099</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.57496278964916</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.762401907211689</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.722323339297869</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.71557207406795</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.62820500736898</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.785647927627259</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.8077717249763</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.8670079850694989</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.7623155713504524</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.8787507948531683</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.7020486014804277</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.7179670589781999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.580156763701309</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.7253774606259729</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.7898050317958383</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.887696374945147</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.7301886430575095</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.7644996844235372</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.6407568928592706</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-314E-4412-AE28-82FC0DC8765A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>本年度各月份各支股票收盘价格!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>本年度各月份各支股票收盘价格!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>本年度各月份各支股票收盘价格!$G$2:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>7.6366289866838892</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.751852697474952</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5562174827370079</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6648126913014298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.444415193654959</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.469571210316051</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.5630743796471389</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.5491256384126739</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.6091240843415298</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.5144689671523821</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.7169240069243097</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.8410093278030093</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.8179403716498559</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.092283667328612</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.1081614047637087</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.9883332232435311</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.1126201185672766</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.916200701710749</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.0271277773220584</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.0386601015517138</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.9767447716915276</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.0707388979485879</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.1501515130648174</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.893254940238525</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-314E-4412-AE28-82FC0DC8765A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>本年度各月份各支股票收盘价格!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>本年度各月份各支股票收盘价格!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>本年度各月份各支股票收盘价格!$H$2:$H$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>8.044186288505232</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1412064917038798</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.045407456751958</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1671328826424574</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4264135412561156</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.6010939685793009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.230972492330201</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0386425329687441</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.157990741581262</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0421773446821074</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.0237961574747523</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.8892155483810447</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.7657193223915364</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.6533665934113397</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.7243726764815577</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.3388880930092046</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.6898540750682169</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.6329001342098231</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.5952244267823321</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.5457128609851356</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.5845686242623245</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.800242944374931</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.0414309410193301</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.8082194763347044</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-314E-4412-AE28-82FC0DC8765A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>本年度各月份各支股票收盘价格!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>本年度各月份各支股票收盘价格!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>本年度各月份各支股票收盘价格!$I$2:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>6.721610773798365</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6658606334464512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1497978638722763</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3825149691725143</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.482920741163376</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.2456851914879472</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3740949174060946</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.954681056238246</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.4084535695119973</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.4600789084176897</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.4180583676696443</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.5847616041489836</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.2409240541689881</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.9486330793679558</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.2040767995958586</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.2288334026525058</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.2464263142289704</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.2780642739841026</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.2571454885113056</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.4374947335092809</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.1336366652948016</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.4806268486033352</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.0301869185774386</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.3081650042466233</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-314E-4412-AE28-82FC0DC8765A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>本年度各月份各支股票收盘价格!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>本年度各月份各支股票收盘价格!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>本年度各月份各支股票收盘价格!$J$2:$J$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>11.595400889026269</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.47992260329996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.731810528488721</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.17955651148117</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.48322232727025</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.832433536769949</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.78581189399047</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.24552608829485</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.113572711844061</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.31331766083178</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.028985079105279</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.08598991105592</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.07517559952205</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.19145772064519</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.02235223228702</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.445574908826419</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.4135214311816</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.336620312455871</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.612037656418419</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.278292534641301</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.406988537065111</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.397549163526421</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13.372012919645661</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12.471906838549691</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-314E-4412-AE28-82FC0DC8765A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>本年度各月份各支股票收盘价格!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>本年度各月份各支股票收盘价格!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>本年度各月份各支股票收盘价格!$K$2:$K$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>7.6390000046924031</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5740469445723893</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7918260757738036</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.7268263517512814</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.8167747617577756</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.6970324644341233</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.6547385970265003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.7187390696611446</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.6960181521248341</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.700497318174504</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.6376111810957674</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.6933024442710636</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.6249198332306989</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.0848544814686569</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.4361692354596904</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.4274676892151881</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.4951230610989761</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.4561130786087055</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.4769390122314388</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.5113284229145378</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.4551562753245459</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.4662415179629047</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.3637193270625048</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.4928735574457246</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-314E-4412-AE28-82FC0DC8765A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="556744720"/>
+        <c:axId val="556747280"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="556744720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="556747280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="556747280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="16"/>
+          <c:min val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="556744720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>155575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>460375</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA4A900E-25F4-4B4F-AB5A-124F9BDB8E3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -136,7 +3026,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -168,9 +3058,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -202,6 +3110,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -377,14 +3303,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,427 +3347,849 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6.436678382880736</v>
+        <v>6.5367926607202254</v>
       </c>
       <c r="C2">
-        <v>9.602609960815402</v>
+        <v>9.7815353305256867</v>
       </c>
       <c r="D2">
-        <v>11.08908783505708</v>
+        <v>10.06993779509745</v>
       </c>
       <c r="E2">
-        <v>16.34570391081862</v>
+        <v>15.23786189915417</v>
       </c>
       <c r="F2">
-        <v>10.90578227449194</v>
+        <v>10.9928564945936</v>
       </c>
       <c r="G2">
-        <v>6.492475965189175</v>
+        <v>7.6366289866838892</v>
       </c>
       <c r="H2">
-        <v>8.641282174941407</v>
+        <v>8.044186288505232</v>
       </c>
       <c r="I2">
-        <v>6.853472884039181</v>
+        <v>6.721610773798365</v>
       </c>
       <c r="J2">
-        <v>12.63195027009251</v>
+        <v>11.595400889026269</v>
       </c>
       <c r="K2">
-        <v>10.65268155070153</v>
+        <v>7.6390000046924031</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5.938038869485617</v>
+        <v>6.6034961410029167</v>
       </c>
       <c r="C3">
-        <v>10.88068983485773</v>
+        <v>9.6035108355544949</v>
       </c>
       <c r="D3">
-        <v>11.01217815156269</v>
+        <v>10.19199731813079</v>
       </c>
       <c r="E3">
-        <v>15.17798171088304</v>
+        <v>15.30974056074592</v>
       </c>
       <c r="F3">
-        <v>11.06396845440369</v>
+        <v>10.5036701868219</v>
       </c>
       <c r="G3">
-        <v>6.768899517279297</v>
+        <v>7.751852697474952</v>
       </c>
       <c r="H3">
-        <v>8.426516194213105</v>
+        <v>8.1412064917038798</v>
       </c>
       <c r="I3">
-        <v>8.578482892921542</v>
+        <v>6.6658606334464512</v>
       </c>
       <c r="J3">
-        <v>11.24902535621651</v>
+        <v>13.47992260329996</v>
       </c>
       <c r="K3">
-        <v>9.975388209077314</v>
+        <v>7.5740469445723893</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5.570598625712453</v>
+        <v>6.5086095405422206</v>
       </c>
       <c r="C4">
-        <v>10.01454338488484</v>
+        <v>9.7124127761405354</v>
       </c>
       <c r="D4">
-        <v>10.10676898347205</v>
+        <v>10.04459318392513</v>
       </c>
       <c r="E4">
-        <v>13.21855413714592</v>
+        <v>15.33515671555325</v>
       </c>
       <c r="F4">
-        <v>10.37341090848321</v>
+        <v>10.702365631486719</v>
       </c>
       <c r="G4">
-        <v>5.651134157271605</v>
+        <v>7.5562174827370079</v>
       </c>
       <c r="H4">
-        <v>9.135058631978625</v>
+        <v>8.045407456751958</v>
       </c>
       <c r="I4">
-        <v>8.460922765204808</v>
+        <v>6.1497978638722763</v>
       </c>
       <c r="J4">
-        <v>13.91155927193081</v>
+        <v>12.731810528488721</v>
       </c>
       <c r="K4">
-        <v>9.827626616812591</v>
+        <v>7.7918260757738036</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4.514144575650587</v>
+        <v>6.5256137622628838</v>
       </c>
       <c r="C5">
-        <v>9.988671416349971</v>
+        <v>9.6508191431139352</v>
       </c>
       <c r="D5">
-        <v>9.165182940405179</v>
+        <v>10.034075765563671</v>
       </c>
       <c r="E5">
-        <v>11.77784636029336</v>
+        <v>15.510544162995179</v>
       </c>
       <c r="F5">
-        <v>10.69895022044508</v>
+        <v>10.71107199799196</v>
       </c>
       <c r="G5">
-        <v>5.518552417648569</v>
+        <v>7.6648126913014298</v>
       </c>
       <c r="H5">
-        <v>9.685715649354595</v>
+        <v>8.1671328826424574</v>
       </c>
       <c r="I5">
-        <v>8.505530280499556</v>
+        <v>6.3825149691725143</v>
       </c>
       <c r="J5">
-        <v>13.8160906051709</v>
+        <v>13.17955651148117</v>
       </c>
       <c r="K5">
-        <v>10.98583353759465</v>
+        <v>7.7268263517512814</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>4.526303258278914</v>
+        <v>6.6568043843087583</v>
       </c>
       <c r="C6">
-        <v>10.74840351958373</v>
+        <v>9.682304741470654</v>
       </c>
       <c r="D6">
-        <v>9.034009265523045</v>
+        <v>10.02901854763086</v>
       </c>
       <c r="E6">
-        <v>11.95766187180732</v>
+        <v>15.15351628195136</v>
       </c>
       <c r="F6">
-        <v>9.242149374516718</v>
+        <v>10.788672249127099</v>
       </c>
       <c r="G6">
-        <v>4.817992650007914</v>
+        <v>7.444415193654959</v>
       </c>
       <c r="H6">
-        <v>10.18067180589846</v>
+        <v>8.4264135412561156</v>
       </c>
       <c r="I6">
-        <v>9.805115000130856</v>
+        <v>6.482920741163376</v>
       </c>
       <c r="J6">
-        <v>13.93986907247867</v>
+        <v>12.48322232727025</v>
       </c>
       <c r="K6">
-        <v>11.84116896711553</v>
+        <v>7.8167747617577756</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>4.184540661540737</v>
+        <v>6.5690072112842506</v>
       </c>
       <c r="C7">
-        <v>10.73077074286168</v>
+        <v>9.5483836940082245</v>
       </c>
       <c r="D7">
-        <v>8.6572160584288</v>
+        <v>10.006027233549039</v>
       </c>
       <c r="E7">
-        <v>11.25104841731689</v>
+        <v>15.32343158534492</v>
       </c>
       <c r="F7">
-        <v>9.056018899807844</v>
+        <v>10.57496278964916</v>
       </c>
       <c r="G7">
-        <v>3.930171679175405</v>
+        <v>7.469571210316051</v>
       </c>
       <c r="H7">
-        <v>10.69576015807211</v>
+        <v>8.6010939685793009</v>
       </c>
       <c r="I7">
-        <v>10.22408166640918</v>
+        <v>7.2456851914879472</v>
       </c>
       <c r="J7">
-        <v>14.41730706243089</v>
+        <v>12.832433536769949</v>
       </c>
       <c r="K7">
-        <v>11.81378966162818</v>
+        <v>7.6970324644341233</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2.996152932215825</v>
+        <v>6.6864553226408709</v>
       </c>
       <c r="C8">
-        <v>10.56585598227995</v>
+        <v>9.569919453655741</v>
       </c>
       <c r="D8">
-        <v>7.056559570582271</v>
+        <v>9.966636911226983</v>
       </c>
       <c r="E8">
-        <v>11.15402618075272</v>
+        <v>15.32058882930788</v>
       </c>
       <c r="F8">
-        <v>8.632398942423276</v>
+        <v>10.762401907211689</v>
       </c>
       <c r="G8">
-        <v>4.831361361778161</v>
+        <v>7.5630743796471389</v>
       </c>
       <c r="H8">
-        <v>12.13227324339747</v>
+        <v>8.230972492330201</v>
       </c>
       <c r="I8">
-        <v>11.77322598309582</v>
+        <v>6.3740949174060946</v>
       </c>
       <c r="J8">
-        <v>16.53690755295988</v>
+        <v>12.78581189399047</v>
       </c>
       <c r="K8">
-        <v>12.66955567663016</v>
+        <v>7.6547385970265003</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>3.389706403999319</v>
+        <v>6.6893031910398877</v>
       </c>
       <c r="C9">
-        <v>10.51218564611941</v>
+        <v>9.5370199192916232</v>
       </c>
       <c r="D9">
-        <v>6.764057622543882</v>
+        <v>10.05571558699001</v>
       </c>
       <c r="E9">
-        <v>10.70056753965802</v>
+        <v>15.45484827213153</v>
       </c>
       <c r="F9">
-        <v>7.489985110295572</v>
+        <v>10.722323339297869</v>
       </c>
       <c r="G9">
-        <v>4.002679978888644</v>
+        <v>7.5491256384126739</v>
       </c>
       <c r="H9">
-        <v>15.06523472765231</v>
+        <v>8.0386425329687441</v>
       </c>
       <c r="I9">
-        <v>11.36135906342301</v>
+        <v>6.954681056238246</v>
       </c>
       <c r="J9">
-        <v>15.5306681138515</v>
+        <v>13.24552608829485</v>
       </c>
       <c r="K9">
-        <v>12.64214621570703</v>
+        <v>7.7187390696611446</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2.860818917829898</v>
+        <v>6.569058558374862</v>
       </c>
       <c r="C10">
-        <v>9.35118623526</v>
+        <v>9.6501098169307724</v>
       </c>
       <c r="D10">
-        <v>5.74181866021916</v>
+        <v>9.980410539959454</v>
       </c>
       <c r="E10">
-        <v>10.92917477331657</v>
+        <v>15.387243965932999</v>
       </c>
       <c r="F10">
-        <v>9.227350138206665</v>
+        <v>10.71557207406795</v>
       </c>
       <c r="G10">
-        <v>4.01562929633963</v>
+        <v>7.6091240843415298</v>
       </c>
       <c r="H10">
-        <v>15.797366828055</v>
+        <v>8.157990741581262</v>
       </c>
       <c r="I10">
-        <v>12.79605611398849</v>
+        <v>6.4084535695119973</v>
       </c>
       <c r="J10">
-        <v>14.01981841813681</v>
+        <v>13.113572711844061</v>
       </c>
       <c r="K10">
-        <v>12.19145551296462</v>
+        <v>7.6960181521248341</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2.983212271512042</v>
+        <v>6.5584504203338643</v>
       </c>
       <c r="C11">
-        <v>10.29612894063329</v>
+        <v>9.5069935190688906</v>
       </c>
       <c r="D11">
-        <v>5.153622477652294</v>
+        <v>9.8454056582662641</v>
       </c>
       <c r="E11">
-        <v>9.802512299558927</v>
+        <v>15.305783542722139</v>
       </c>
       <c r="F11">
-        <v>9.406638451945675</v>
+        <v>10.62820500736898</v>
       </c>
       <c r="G11">
-        <v>4.652323017013501</v>
+        <v>7.5144689671523821</v>
       </c>
       <c r="H11">
-        <v>15.88325136598442</v>
+        <v>8.0421773446821074</v>
       </c>
       <c r="I11">
-        <v>15.19995737492408</v>
+        <v>6.4600789084176897</v>
       </c>
       <c r="J11">
-        <v>11.62871791362514</v>
+        <v>13.31331766083178</v>
       </c>
       <c r="K11">
-        <v>12.14870331829991</v>
+        <v>7.700497318174504</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2.326406402729678</v>
+        <v>6.5979376795916327</v>
       </c>
       <c r="C12">
-        <v>9.689468970726393</v>
+        <v>9.5721053619721008</v>
       </c>
       <c r="D12">
-        <v>4.573718513070727</v>
+        <v>9.9805160048763284</v>
       </c>
       <c r="E12">
-        <v>10.40888249886782</v>
+        <v>15.455512405304271</v>
       </c>
       <c r="F12">
-        <v>9.181278966229259</v>
+        <v>10.785647927627259</v>
       </c>
       <c r="G12">
-        <v>5.852780024113739</v>
+        <v>7.7169240069243097</v>
       </c>
       <c r="H12">
-        <v>14.20319616614466</v>
+        <v>9.0237961574747523</v>
       </c>
       <c r="I12">
-        <v>15.82769043196574</v>
+        <v>6.4180583676696443</v>
       </c>
       <c r="J12">
-        <v>13.63020020124608</v>
+        <v>13.028985079105279</v>
       </c>
       <c r="K12">
-        <v>13.97013418783479</v>
+        <v>7.6376111810957674</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1.612181410105868</v>
+        <v>6.5611911813252286</v>
       </c>
       <c r="C13">
-        <v>8.006969310626044</v>
+        <v>9.6495580172707847</v>
       </c>
       <c r="D13">
-        <v>2.835823462124031</v>
+        <v>9.950699936637756</v>
       </c>
       <c r="E13">
-        <v>10.54610463108838</v>
+        <v>15.307323513072429</v>
       </c>
       <c r="F13">
-        <v>10.90640940725775</v>
+        <v>10.8077717249763</v>
       </c>
       <c r="G13">
-        <v>5.093813733262643</v>
+        <v>7.8410093278030093</v>
       </c>
       <c r="H13">
-        <v>14.71645714850715</v>
+        <v>7.8892155483810447</v>
       </c>
       <c r="I13">
-        <v>15.972827351865</v>
+        <v>6.5847616041489836</v>
       </c>
       <c r="J13">
-        <v>13.96337671983098</v>
+        <v>12.08598991105592</v>
       </c>
       <c r="K13">
-        <v>14.94853475520229</v>
+        <v>7.6933024442710636</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>5.8822534451100363</v>
+      </c>
+      <c r="C14">
+        <v>8.4265066351634736</v>
+      </c>
+      <c r="D14">
+        <v>9.0186627297738688</v>
+      </c>
+      <c r="E14">
+        <v>13.5966510459888</v>
+      </c>
+      <c r="F14">
+        <v>9.8670079850694989</v>
+      </c>
+      <c r="G14">
+        <v>6.8179403716498559</v>
+      </c>
+      <c r="H14">
+        <v>8.7657193223915364</v>
+      </c>
+      <c r="I14">
+        <v>7.2409240541689881</v>
+      </c>
+      <c r="J14">
+        <v>13.07517559952205</v>
+      </c>
+      <c r="K14">
+        <v>8.6249198332306989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>5.8236943122919103</v>
+      </c>
+      <c r="C15">
+        <v>8.6367932161335634</v>
+      </c>
+      <c r="D15">
+        <v>8.9482935615722035</v>
+      </c>
+      <c r="E15">
+        <v>13.788104250470489</v>
+      </c>
+      <c r="F15">
+        <v>9.7623155713504524</v>
+      </c>
+      <c r="G15">
+        <v>7.092283667328612</v>
+      </c>
+      <c r="H15">
+        <v>8.6533665934113397</v>
+      </c>
+      <c r="I15">
+        <v>6.9486330793679558</v>
+      </c>
+      <c r="J15">
+        <v>14.19145772064519</v>
+      </c>
+      <c r="K15">
+        <v>8.0848544814686569</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>5.9882844182964297</v>
+      </c>
+      <c r="C16">
+        <v>8.5044670867198864</v>
+      </c>
+      <c r="D16">
+        <v>9.0409656454328786</v>
+      </c>
+      <c r="E16">
+        <v>13.86692067876281</v>
+      </c>
+      <c r="F16">
+        <v>9.8787507948531683</v>
+      </c>
+      <c r="G16">
+        <v>7.1081614047637087</v>
+      </c>
+      <c r="H16">
+        <v>8.7243726764815577</v>
+      </c>
+      <c r="I16">
+        <v>7.2040767995958586</v>
+      </c>
+      <c r="J16">
+        <v>13.02235223228702</v>
+      </c>
+      <c r="K16">
+        <v>8.4361692354596904</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>5.9242101292979106</v>
+      </c>
+      <c r="C17">
+        <v>8.4790669055195469</v>
+      </c>
+      <c r="D17">
+        <v>9.0872484087921492</v>
+      </c>
+      <c r="E17">
+        <v>13.528117864314369</v>
+      </c>
+      <c r="F17">
+        <v>9.7020486014804277</v>
+      </c>
+      <c r="G17">
+        <v>6.9883332232435311</v>
+      </c>
+      <c r="H17">
+        <v>8.3388880930092046</v>
+      </c>
+      <c r="I17">
+        <v>7.2288334026525058</v>
+      </c>
+      <c r="J17">
+        <v>13.445574908826419</v>
+      </c>
+      <c r="K17">
+        <v>8.4274676892151881</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>5.8920564682839052</v>
+      </c>
+      <c r="C18">
+        <v>8.631466416647358</v>
+      </c>
+      <c r="D18">
+        <v>8.9922423627998977</v>
+      </c>
+      <c r="E18">
+        <v>13.789924913634451</v>
+      </c>
+      <c r="F18">
+        <v>9.7179670589781999</v>
+      </c>
+      <c r="G18">
+        <v>7.1126201185672766</v>
+      </c>
+      <c r="H18">
+        <v>8.6898540750682169</v>
+      </c>
+      <c r="I18">
+        <v>7.2464263142289704</v>
+      </c>
+      <c r="J18">
+        <v>13.4135214311816</v>
+      </c>
+      <c r="K18">
+        <v>8.4951230610989761</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>5.9250858016102512</v>
+      </c>
+      <c r="C19">
+        <v>8.4850388040958311</v>
+      </c>
+      <c r="D19">
+        <v>8.8856099095838808</v>
+      </c>
+      <c r="E19">
+        <v>13.64921368079176</v>
+      </c>
+      <c r="F19">
+        <v>9.580156763701309</v>
+      </c>
+      <c r="G19">
+        <v>6.916200701710749</v>
+      </c>
+      <c r="H19">
+        <v>8.6329001342098231</v>
+      </c>
+      <c r="I19">
+        <v>7.2780642739841026</v>
+      </c>
+      <c r="J19">
+        <v>13.336620312455871</v>
+      </c>
+      <c r="K19">
+        <v>8.4561130786087055</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>5.9942057334977683</v>
+      </c>
+      <c r="C20">
+        <v>8.7236818752622689</v>
+      </c>
+      <c r="D20">
+        <v>8.9097856090084964</v>
+      </c>
+      <c r="E20">
+        <v>13.76828082529777</v>
+      </c>
+      <c r="F20">
+        <v>9.7253774606259729</v>
+      </c>
+      <c r="G20">
+        <v>7.0271277773220584</v>
+      </c>
+      <c r="H20">
+        <v>8.5952244267823321</v>
+      </c>
+      <c r="I20">
+        <v>7.2571454885113056</v>
+      </c>
+      <c r="J20">
+        <v>13.612037656418419</v>
+      </c>
+      <c r="K20">
+        <v>8.4769390122314388</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>5.9056265085697266</v>
+      </c>
+      <c r="C21">
+        <v>8.7260987400247938</v>
+      </c>
+      <c r="D21">
+        <v>8.8385324022289051</v>
+      </c>
+      <c r="E21">
+        <v>13.82587087732885</v>
+      </c>
+      <c r="F21">
+        <v>9.7898050317958383</v>
+      </c>
+      <c r="G21">
+        <v>7.0386601015517138</v>
+      </c>
+      <c r="H21">
+        <v>8.5457128609851356</v>
+      </c>
+      <c r="I21">
+        <v>7.4374947335092809</v>
+      </c>
+      <c r="J21">
+        <v>14.278292534641301</v>
+      </c>
+      <c r="K21">
+        <v>8.5113284229145378</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>5.8927461810724626</v>
+      </c>
+      <c r="C22">
+        <v>8.7793923802484759</v>
+      </c>
+      <c r="D22">
+        <v>8.8748837429530862</v>
+      </c>
+      <c r="E22">
+        <v>13.831015280206531</v>
+      </c>
+      <c r="F22">
+        <v>9.887696374945147</v>
+      </c>
+      <c r="G22">
+        <v>6.9767447716915276</v>
+      </c>
+      <c r="H22">
+        <v>8.5845686242623245</v>
+      </c>
+      <c r="I22">
+        <v>7.1336366652948016</v>
+      </c>
+      <c r="J22">
+        <v>13.406988537065111</v>
+      </c>
+      <c r="K22">
+        <v>8.4551562753245459</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>5.8809299099621342</v>
+      </c>
+      <c r="C23">
+        <v>8.687603355846873</v>
+      </c>
+      <c r="D23">
+        <v>8.8931591995165036</v>
+      </c>
+      <c r="E23">
+        <v>13.78793896651681</v>
+      </c>
+      <c r="F23">
+        <v>9.7301886430575095</v>
+      </c>
+      <c r="G23">
+        <v>7.0707388979485879</v>
+      </c>
+      <c r="H23">
+        <v>8.800242944374931</v>
+      </c>
+      <c r="I23">
+        <v>6.4806268486033352</v>
+      </c>
+      <c r="J23">
+        <v>13.397549163526421</v>
+      </c>
+      <c r="K23">
+        <v>8.4662415179629047</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>5.8723656720337569</v>
+      </c>
+      <c r="C24">
+        <v>8.7198981739916022</v>
+      </c>
+      <c r="D24">
+        <v>8.9203682371046327</v>
+      </c>
+      <c r="E24">
+        <v>13.791093547789551</v>
+      </c>
+      <c r="F24">
+        <v>9.7644996844235372</v>
+      </c>
+      <c r="G24">
+        <v>7.1501515130648174</v>
+      </c>
+      <c r="H24">
+        <v>9.0414309410193301</v>
+      </c>
+      <c r="I24">
+        <v>7.0301869185774386</v>
+      </c>
+      <c r="J24">
+        <v>13.372012919645661</v>
+      </c>
+      <c r="K24">
+        <v>8.3637193270625048</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>5.9336493361163321</v>
+      </c>
+      <c r="C25">
+        <v>8.6165136764023842</v>
+      </c>
+      <c r="D25">
+        <v>8.9807900650832462</v>
+      </c>
+      <c r="E25">
+        <v>13.743951887933539</v>
+      </c>
+      <c r="F25">
+        <v>9.6407568928592706</v>
+      </c>
+      <c r="G25">
+        <v>6.893254940238525</v>
+      </c>
+      <c r="H25">
+        <v>8.8082194763347044</v>
+      </c>
+      <c r="I25">
+        <v>7.3081650042466233</v>
+      </c>
+      <c r="J25">
+        <v>12.471906838549691</v>
+      </c>
+      <c r="K25">
+        <v>8.4928735574457246</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/1.xlsx
+++ b/src/1.xlsx
@@ -424,34 +424,34 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6.578249392551374</v>
+        <v>6.927423435582727</v>
       </c>
       <c r="C2">
-        <v>9.703562418317761</v>
+        <v>9.860694568013329</v>
       </c>
       <c r="D2">
-        <v>9.891750390927191</v>
+        <v>10.63025398161812</v>
       </c>
       <c r="E2">
-        <v>15.38245022118593</v>
+        <v>16.53078372806485</v>
       </c>
       <c r="F2">
-        <v>10.91758848433481</v>
+        <v>11.74925394083792</v>
       </c>
       <c r="G2">
-        <v>7.503709494652802</v>
+        <v>8.570159151124242</v>
       </c>
       <c r="H2">
-        <v>8.144441708467705</v>
+        <v>6.25162464346402</v>
       </c>
       <c r="I2">
-        <v>6.497033594656161</v>
+        <v>4.650196898803221</v>
       </c>
       <c r="J2">
-        <v>13.01912546910714</v>
+        <v>11.35319552004433</v>
       </c>
       <c r="K2">
-        <v>7.735209063271302</v>
+        <v>7.955865581077355</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -459,34 +459,34 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6.680578479021325</v>
+        <v>6.455519855084827</v>
       </c>
       <c r="C3">
-        <v>9.378914085112266</v>
+        <v>9.615344930734574</v>
       </c>
       <c r="D3">
-        <v>10.03435574058298</v>
+        <v>10.81479671016394</v>
       </c>
       <c r="E3">
-        <v>15.25690119618871</v>
+        <v>15.70567014754095</v>
       </c>
       <c r="F3">
-        <v>10.75342646328435</v>
+        <v>10.59936344473462</v>
       </c>
       <c r="G3">
-        <v>7.524460480395594</v>
+        <v>7.82363547621083</v>
       </c>
       <c r="H3">
-        <v>8.006896257215976</v>
+        <v>6.677408040208291</v>
       </c>
       <c r="I3">
-        <v>6.543847984448672</v>
+        <v>2.820618712380777</v>
       </c>
       <c r="J3">
-        <v>12.99052060571811</v>
+        <v>12.83770409306663</v>
       </c>
       <c r="K3">
-        <v>7.639895364789649</v>
+        <v>7.922825521350395</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -494,34 +494,34 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>6.56641263426567</v>
+        <v>6.456465551100923</v>
       </c>
       <c r="C4">
-        <v>9.570057089541574</v>
+        <v>10.0664807228242</v>
       </c>
       <c r="D4">
-        <v>9.947239209816797</v>
+        <v>9.68616975844583</v>
       </c>
       <c r="E4">
-        <v>15.19811303680867</v>
+        <v>14.86422113117205</v>
       </c>
       <c r="F4">
-        <v>10.69470827709525</v>
+        <v>10.57078354649161</v>
       </c>
       <c r="G4">
-        <v>7.6673973078442</v>
+        <v>9.434976808106766</v>
       </c>
       <c r="H4">
-        <v>8.236566224401809</v>
+        <v>5.004167610302325</v>
       </c>
       <c r="I4">
-        <v>6.349517643269796</v>
+        <v>3.359513919575777</v>
       </c>
       <c r="J4">
-        <v>13.47256279231661</v>
+        <v>13.46538208829931</v>
       </c>
       <c r="K4">
-        <v>7.754266734633269</v>
+        <v>8.03831814497336</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -529,34 +529,34 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>6.621105942568475</v>
+        <v>6.368127548801582</v>
       </c>
       <c r="C5">
-        <v>9.452334246193875</v>
+        <v>9.840487948322906</v>
       </c>
       <c r="D5">
-        <v>9.914552062339185</v>
+        <v>9.685089420111622</v>
       </c>
       <c r="E5">
-        <v>15.1684550105574</v>
+        <v>15.67445578075649</v>
       </c>
       <c r="F5">
-        <v>10.75697547481672</v>
+        <v>10.65090669545878</v>
       </c>
       <c r="G5">
-        <v>7.57217453029156</v>
+        <v>11.30708223544974</v>
       </c>
       <c r="H5">
-        <v>8.240558102207176</v>
+        <v>4.931301332998087</v>
       </c>
       <c r="I5">
-        <v>6.688402571770258</v>
+        <v>4.241321183992923</v>
       </c>
       <c r="J5">
-        <v>13.11685266356785</v>
+        <v>15.19440245353496</v>
       </c>
       <c r="K5">
-        <v>7.623067800517777</v>
+        <v>7.114819889673136</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -564,34 +564,34 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>6.643611296388036</v>
+        <v>6.575904476108232</v>
       </c>
       <c r="C6">
-        <v>9.430397729112892</v>
+        <v>10.33054040788544</v>
       </c>
       <c r="D6">
-        <v>9.99413541035325</v>
+        <v>9.029279517547421</v>
       </c>
       <c r="E6">
-        <v>15.30354177118968</v>
+        <v>15.63916195508847</v>
       </c>
       <c r="F6">
-        <v>10.81385682727408</v>
+        <v>11.38913808980512</v>
       </c>
       <c r="G6">
-        <v>7.421689781225871</v>
+        <v>12.19702635195474</v>
       </c>
       <c r="H6">
-        <v>8.16166137733474</v>
+        <v>2.991993835453912</v>
       </c>
       <c r="I6">
-        <v>6.360339612949158</v>
+        <v>3.604676883124448</v>
       </c>
       <c r="J6">
-        <v>13.0937341555087</v>
+        <v>16.80812545893581</v>
       </c>
       <c r="K6">
-        <v>7.658933120302931</v>
+        <v>7.619402342167411</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -599,34 +599,34 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>6.594049626454368</v>
+        <v>6.263033174528389</v>
       </c>
       <c r="C7">
-        <v>9.596497595812318</v>
+        <v>11.1355897252388</v>
       </c>
       <c r="D7">
-        <v>10.05485954937985</v>
+        <v>9.390787914978285</v>
       </c>
       <c r="E7">
-        <v>15.46022736031563</v>
+        <v>16.76725903025603</v>
       </c>
       <c r="F7">
-        <v>10.8381636631707</v>
+        <v>11.59757689708918</v>
       </c>
       <c r="G7">
-        <v>7.676150502571665</v>
+        <v>12.86225858641598</v>
       </c>
       <c r="H7">
-        <v>8.165405281853145</v>
+        <v>3.847562646816948</v>
       </c>
       <c r="I7">
-        <v>7.69385312417849</v>
+        <v>3.256817106511564</v>
       </c>
       <c r="J7">
-        <v>12.32673083184057</v>
+        <v>16.47942410634678</v>
       </c>
       <c r="K7">
-        <v>7.719796201057522</v>
+        <v>7.799944133260197</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -634,34 +634,34 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>6.577383809512405</v>
+        <v>6.996414285977215</v>
       </c>
       <c r="C8">
-        <v>9.586693537228197</v>
+        <v>11.55381414333849</v>
       </c>
       <c r="D8">
-        <v>10.12605869544852</v>
+        <v>9.788837012695788</v>
       </c>
       <c r="E8">
-        <v>15.16056854360433</v>
+        <v>17.87426861495638</v>
       </c>
       <c r="F8">
-        <v>10.88997495799752</v>
+        <v>11.07737737031101</v>
       </c>
       <c r="G8">
-        <v>7.609879323013831</v>
+        <v>13.55660680156361</v>
       </c>
       <c r="H8">
-        <v>8.092691832826874</v>
+        <v>3.877763210773622</v>
       </c>
       <c r="I8">
-        <v>6.401536716471122</v>
+        <v>2.688291420398465</v>
       </c>
       <c r="J8">
-        <v>12.82981156771504</v>
+        <v>15.26707754449671</v>
       </c>
       <c r="K8">
-        <v>7.593460257115827</v>
+        <v>7.382088803041754</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -669,34 +669,34 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>6.626458881653942</v>
+        <v>6.496320450844554</v>
       </c>
       <c r="C9">
-        <v>9.435043590546588</v>
+        <v>11.06061066294877</v>
       </c>
       <c r="D9">
-        <v>9.987453820163665</v>
+        <v>9.753609708180644</v>
       </c>
       <c r="E9">
-        <v>15.52106237810381</v>
+        <v>16.93269389254461</v>
       </c>
       <c r="F9">
-        <v>10.7425037596866</v>
+        <v>12.15678667352882</v>
       </c>
       <c r="G9">
-        <v>7.603643312294576</v>
+        <v>13.6920166187397</v>
       </c>
       <c r="H9">
-        <v>8.143877346657566</v>
+        <v>4.157931293913146</v>
       </c>
       <c r="I9">
-        <v>6.366270491147222</v>
+        <v>2.846700717801156</v>
       </c>
       <c r="J9">
-        <v>13.08702413810578</v>
+        <v>17.95321673230946</v>
       </c>
       <c r="K9">
-        <v>7.603712494734333</v>
+        <v>11.25889643871355</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -704,34 +704,34 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>6.78672667114154</v>
+        <v>6.444830289884617</v>
       </c>
       <c r="C10">
-        <v>9.633908476681848</v>
+        <v>12.1128488712721</v>
       </c>
       <c r="D10">
-        <v>10.04710212273053</v>
+        <v>10.7212843281626</v>
       </c>
       <c r="E10">
-        <v>15.37838452878397</v>
+        <v>16.8611511679906</v>
       </c>
       <c r="F10">
-        <v>10.95127930448333</v>
+        <v>11.92109080094986</v>
       </c>
       <c r="G10">
-        <v>7.694643481922445</v>
+        <v>14.1063492196162</v>
       </c>
       <c r="H10">
-        <v>7.9973934970872</v>
+        <v>4.830478425594162</v>
       </c>
       <c r="I10">
-        <v>6.283572988794518</v>
+        <v>2.515800830418077</v>
       </c>
       <c r="J10">
-        <v>14.39758759131375</v>
+        <v>16.50760995034488</v>
       </c>
       <c r="K10">
-        <v>7.732854839443852</v>
+        <v>11.30853048676596</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -739,34 +739,34 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>6.704029859284685</v>
+        <v>6.545941050048516</v>
       </c>
       <c r="C11">
-        <v>9.675784858983123</v>
+        <v>12.40690792502381</v>
       </c>
       <c r="D11">
-        <v>9.941374376404863</v>
+        <v>11.0350519526214</v>
       </c>
       <c r="E11">
-        <v>15.35881124657205</v>
+        <v>15.99556940000781</v>
       </c>
       <c r="F11">
-        <v>10.68264926181319</v>
+        <v>11.14807520236788</v>
       </c>
       <c r="G11">
-        <v>7.420175518500606</v>
+        <v>14.90608233780681</v>
       </c>
       <c r="H11">
-        <v>8.001003715412157</v>
+        <v>3.574683878172387</v>
       </c>
       <c r="I11">
-        <v>6.441815827932992</v>
+        <v>2.337682946507329</v>
       </c>
       <c r="J11">
-        <v>13.28228303011792</v>
+        <v>15.76625683236501</v>
       </c>
       <c r="K11">
-        <v>7.518293194085569</v>
+        <v>10.67298277671889</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -774,34 +774,34 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>6.508038882963639</v>
+        <v>6.491540579516196</v>
       </c>
       <c r="C12">
-        <v>9.595063489488767</v>
+        <v>11.80892898186585</v>
       </c>
       <c r="D12">
-        <v>9.818524138334691</v>
+        <v>11.09948825395261</v>
       </c>
       <c r="E12">
-        <v>15.33857489968241</v>
+        <v>15.51913459615559</v>
       </c>
       <c r="F12">
-        <v>10.91006887807674</v>
+        <v>10.9119438816799</v>
       </c>
       <c r="G12">
-        <v>7.813731868549619</v>
+        <v>15.6286672854526</v>
       </c>
       <c r="H12">
-        <v>8.028426442539944</v>
+        <v>2.783199369211038</v>
       </c>
       <c r="I12">
-        <v>6.332396304603078</v>
+        <v>2.983495067859744</v>
       </c>
       <c r="J12">
-        <v>13.08049396227236</v>
+        <v>16.49108680785156</v>
       </c>
       <c r="K12">
-        <v>7.672848331911875</v>
+        <v>9.499559853648634</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -809,34 +809,34 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>6.556973129286178</v>
+        <v>6.722591113885594</v>
       </c>
       <c r="C13">
-        <v>9.4616424847015</v>
+        <v>12.78174413758752</v>
       </c>
       <c r="D13">
-        <v>10.23581236099696</v>
+        <v>10.55951252442607</v>
       </c>
       <c r="E13">
-        <v>15.33740879667904</v>
+        <v>15.51877135266318</v>
       </c>
       <c r="F13">
-        <v>10.74563107166075</v>
+        <v>10.5813573060711</v>
       </c>
       <c r="G13">
-        <v>7.507027210606573</v>
+        <v>17.06025337818605</v>
       </c>
       <c r="H13">
-        <v>8.177669657529016</v>
+        <v>2.12845564253256</v>
       </c>
       <c r="I13">
-        <v>6.546795070564522</v>
+        <v>2.172140150163154</v>
       </c>
       <c r="J13">
-        <v>13.05429390576413</v>
+        <v>17.90724171790563</v>
       </c>
       <c r="K13">
-        <v>7.68249297088236</v>
+        <v>7.258147332719657</v>
       </c>
     </row>
   </sheetData>
